--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -1951,83 +1951,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="D2" sqref="D2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
-        <v>28006</v>
-      </c>
-      <c r="C1" s="2">
-        <v>20005</v>
-      </c>
-      <c r="D1" s="2">
-        <v>20062</v>
-      </c>
-      <c r="E1" s="2">
-        <v>20008</v>
-      </c>
-      <c r="F1" s="2">
-        <v>20058</v>
-      </c>
-      <c r="G1" s="2">
-        <v>20011</v>
-      </c>
-      <c r="H1" s="2">
-        <v>20053</v>
-      </c>
-      <c r="I1" s="2">
-        <v>20016</v>
-      </c>
-      <c r="J1" s="2">
-        <v>20050</v>
-      </c>
-      <c r="K1" s="2">
-        <v>20021</v>
-      </c>
-      <c r="L1" s="2">
-        <v>20046</v>
-      </c>
-      <c r="M1" s="2">
-        <v>20026</v>
-      </c>
-      <c r="N1" s="2">
-        <v>20042</v>
-      </c>
-      <c r="O1" s="2">
-        <v>20030</v>
-      </c>
-      <c r="P1" s="2">
-        <v>20075</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>20076</v>
-      </c>
-      <c r="R1" s="2">
-        <v>20077</v>
-      </c>
-      <c r="S1" s="2">
-        <v>20038</v>
-      </c>
-      <c r="T1" s="2">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>10001</v>
+      </c>
+      <c r="C1" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10004</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10005</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10006</v>
+      </c>
+      <c r="H1" s="1">
+        <v>10007</v>
+      </c>
+      <c r="I1" s="1">
+        <v>10008</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10009</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>28006</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2059,37 +2032,10 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>20005</v>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10002</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2121,42 +2067,15 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>20062</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2">
@@ -2183,42 +2102,15 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>20008</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="2">
@@ -2245,42 +2137,15 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>20058</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2">
@@ -2307,42 +2172,15 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>20011</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -2369,42 +2207,15 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>20053</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="2">
@@ -2431,42 +2242,15 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>20016</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="2">
@@ -2493,42 +2277,15 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>20050</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="2">
@@ -2555,42 +2312,15 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>20021</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="2">
@@ -2615,591 +2345,6 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>20046</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>20026</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>20042</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>20030</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>20075</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>20076</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
-        <v>1</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>20077</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>20038</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>20001</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3218,16 +2363,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3261,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3278,7 +2423,7 @@
         <v>269.11300043575466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +2440,7 @@
         <v>543.46900011878461</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +2457,7 @@
         <v>796.35800009127706</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +2474,7 @@
         <v>1075.5190003663301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +2491,7 @@
         <v>1356.6610003821552</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3363,7 +2508,7 @@
         <v>1460.7180004706606</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3380,7 +2525,7 @@
         <v>1502.7310005621985</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +2542,7 @@
         <v>1831.8770005367696</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3414,7 +2559,7 @@
         <v>1864.1080002766103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -3431,7 +2576,7 @@
         <v>2087.2310004662722</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3448,7 +2593,7 @@
         <v>2249.2760001216084</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +2610,7 @@
         <v>2416.1420005839318</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -3482,7 +2627,7 @@
         <v>2672.4950005766004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3499,7 +2644,7 @@
         <v>2830.3280002204701</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +2661,7 @@
         <v>2994.4170003058389</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -3533,7 +2678,7 @@
         <v>3250.7700002985075</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -3550,7 +2695,7 @@
         <v>3387.8540001343936</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -3567,7 +2712,7 @@
         <v>3638.7460001511499</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3584,7 +2729,7 @@
         <v>3837.8590005682781</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -3601,7 +2746,7 @@
         <v>3979.1240001562983</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -3618,7 +2763,7 @@
         <v>4170.9980002837256</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3635,7 +2780,7 @@
         <v>4317.0840000500903</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -3652,7 +2797,7 @@
         <v>4505.1680004922673</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -3669,7 +2814,7 @@
         <v>4846.3260002899915</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -3686,7 +2831,7 @@
         <v>5012.6300004310906</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -3703,7 +2848,7 @@
         <v>5250.5270001478493</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +2865,7 @@
         <v>5404.6160004101694</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -3737,7 +2882,7 @@
         <v>5790.8140005776659</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +2899,7 @@
         <v>5983.999000559561</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +2916,7 @@
         <v>6064.9509999901056</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +2933,7 @@
         <v>6255.047000432387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3805,7 +2950,7 @@
         <v>6441.1180000752211</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -3822,7 +2967,7 @@
         <v>6617.1880003530532</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +2984,7 @@
         <v>6808.2980002742261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3001,7 @@
         <v>6915.3510003816336</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3018,7 @@
         <v>7079.6270003076643</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3035,7 @@
         <v>7180.6580002885312</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3907,7 +3052,7 @@
         <v>7407.5720003340393</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3069,7 @@
         <v>7589.6420001285151</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3086,7 @@
         <v>7995.708000054583</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3958,7 +3103,7 @@
         <v>8202.7820000890642</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -3975,7 +3120,7 @@
         <v>8243.8099999912083</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +3137,7 @@
         <v>8567.154000280425</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -4009,7 +3154,7 @@
         <v>8754.2510001920164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -4026,7 +3171,7 @@
         <v>9012.1620000572875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -4043,7 +3188,7 @@
         <v>9048.2930000172928</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -4060,7 +3205,7 @@
         <v>9324.3180002784356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +3222,7 @@
         <v>9535.4280004743487</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -4094,7 +3239,7 @@
         <v>9597.4570004269481</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +3256,7 @@
         <v>9966.6489999974146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +3273,7 @@
         <v>10078.913000179455</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +3290,7 @@
         <v>10147.744000051171</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +3307,7 @@
         <v>10356.841000076383</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -4179,7 +3324,7 @@
         <v>10583.942000591196</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -4196,7 +3341,7 @@
         <v>10598.950000433251</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
@@ -4213,7 +3358,7 @@
         <v>10737.017000117339</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -4230,7 +3375,7 @@
         <v>11053.16700024996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -4247,7 +3392,7 @@
         <v>11141.21800060384</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -4264,7 +3409,7 @@
         <v>11383.342000376433</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +3426,7 @@
         <v>11463.37500018999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -4298,7 +3443,7 @@
         <v>11626.450000167824</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -4315,7 +3460,7 @@
         <v>11789.571999991313</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -4332,7 +3477,7 @@
         <v>11984.660000237636</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -4349,7 +3494,7 @@
         <v>12129.716000310145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -4366,7 +3511,7 @@
         <v>12450.094000040554</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -4383,7 +3528,7 @@
         <v>12487.910000164993</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -4400,7 +3545,7 @@
         <v>12762.016000575386</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -4417,7 +3562,7 @@
         <v>12981.130000180565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -4434,7 +3579,7 @@
         <v>13196.218000072986</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -4451,7 +3596,7 @@
         <v>13212.224000436254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -4468,7 +3613,7 @@
         <v>13258.247000025585</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4485,7 +3630,7 @@
         <v>13412.305000028573</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -4502,7 +3647,7 @@
         <v>13869.533000537194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +3664,7 @@
         <v>14085.666000167839</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -4536,7 +3681,7 @@
         <v>14517.840000079013</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
@@ -4553,7 +3698,7 @@
         <v>14525.843000574969</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +3715,7 @@
         <v>14748.965000594035</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -4587,7 +3732,7 @@
         <v>14840.995000186376</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>18</v>
       </c>
@@ -4604,7 +3749,7 @@
         <v>15016.067000571638</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -4621,7 +3766,7 @@
         <v>15230.359000456519</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -4638,7 +3783,7 @@
         <v>15564.310000394471</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>18</v>
       </c>
@@ -4655,7 +3800,7 @@
         <v>15743.423000536859</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -4672,7 +3817,7 @@
         <v>15776.403000438586</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -4689,7 +3834,7 @@
         <v>15844.438000302762</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -4706,7 +3851,7 @@
         <v>16275.644000410102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -4723,7 +3868,7 @@
         <v>16432.71300047636</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -4740,7 +3885,7 @@
         <v>16836.867000488564</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -4757,7 +3902,7 @@
         <v>17079.975000279956</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
@@ -4774,7 +3919,7 @@
         <v>17234.048000327311</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
@@ -4791,7 +3936,7 @@
         <v>17488.154000462964</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -4808,7 +3953,7 @@
         <v>17501.181000564247</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>15</v>
       </c>
@@ -4825,7 +3970,7 @@
         <v>17658.234000415541</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -4842,7 +3987,7 @@
         <v>18045.41500043124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -4859,7 +4004,7 @@
         <v>18369.771000486799</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -4876,7 +4021,7 @@
         <v>18513.626000611112</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -4893,7 +4038,7 @@
         <v>18531.629000301473</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4910,7 +4055,7 @@
         <v>18580.677999998443</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -4927,7 +4072,7 @@
         <v>18759.744000295177</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -4944,7 +4089,7 @@
         <v>19107.907000067644</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +4106,7 @@
         <v>19248.189000436105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4978,7 +4123,7 @@
         <v>19438.051000563428</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -4995,7 +4140,7 @@
         <v>19581.126000266522</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +4157,7 @@
         <v>19873.267000168562</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -5029,7 +4174,7 @@
         <v>19936.512000113726</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +4191,7 @@
         <v>19964.329000585712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -5063,7 +4208,7 @@
         <v>20160.399000509642</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -5080,7 +4225,7 @@
         <v>20336.486000544392</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -5097,7 +4242,7 @@
         <v>20506.566000496969</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -5114,7 +4259,7 @@
         <v>20774.665000196546</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -5131,7 +4276,7 @@
         <v>20863.683000183664</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -5148,7 +4293,7 @@
         <v>21172.829000512138</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -5165,7 +4310,7 @@
         <v>21499.182000523433</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -5182,7 +4327,7 @@
         <v>21821.307000308298</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -5199,7 +4344,7 @@
         <v>22206.49100036826</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -5216,7 +4361,7 @@
         <v>22220.313000306487</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>18</v>
       </c>
@@ -5233,7 +4378,7 @@
         <v>22602.471000258811</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>15</v>
       </c>
@@ -5250,7 +4395,7 @@
         <v>22653.470000065863</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>18</v>
       </c>
@@ -5267,7 +4412,7 @@
         <v>22877.68400029745</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -5284,7 +4429,7 @@
         <v>22911.834000516683</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +4446,7 @@
         <v>23233.757000416517</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -5318,7 +4463,7 @@
         <v>23396.817000349984</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -5335,7 +4480,7 @@
         <v>23734.964000084437</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>15</v>
       </c>
@@ -5352,7 +4497,7 @@
         <v>23751.969000510871</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>15</v>
       </c>
@@ -5369,7 +4514,7 @@
         <v>24070.116000599228</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +4531,7 @@
         <v>24097.136000264436</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>18</v>
       </c>
@@ -5403,7 +4548,7 @@
         <v>24343.28600037843</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +4565,7 @@
         <v>24369.308000151068</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -5437,7 +4582,7 @@
         <v>24663.617000263184</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>18</v>
       </c>
@@ -5454,7 +4599,7 @@
         <v>24980.532000144012</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -5471,7 +4616,7 @@
         <v>25161.610000440851</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -5488,7 +4633,7 @@
         <v>25359.725000336766</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
@@ -5505,7 +4650,7 @@
         <v>25670.86700045038</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
@@ -5522,7 +4667,7 @@
         <v>25821.930000605062</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
@@ -5539,7 +4684,7 @@
         <v>26327.162000443786</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -5556,7 +4701,7 @@
         <v>26337.177000311203</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +4718,7 @@
         <v>26453.23200034909</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -5590,7 +4735,7 @@
         <v>27096.515000285581</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
@@ -5607,7 +4752,7 @@
         <v>27140.775000234134</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>15</v>
       </c>
@@ -5624,7 +4769,7 @@
         <v>27395.692000421695</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>15</v>
       </c>
@@ -5641,7 +4786,7 @@
         <v>27596.786000579596</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -5658,7 +4803,7 @@
         <v>27812.093000113964</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -5675,7 +4820,7 @@
         <v>28361.146999988705</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
@@ -5692,7 +4837,7 @@
         <v>28515.189000405371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -5709,7 +4854,7 @@
         <v>28692.243000073358</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
@@ -5726,7 +4871,7 @@
         <v>28881.465000403114</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
@@ -5743,7 +4888,7 @@
         <v>29157.459000404924</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
@@ -5760,7 +4905,7 @@
         <v>29292.49900043942</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -5777,7 +4922,7 @@
         <v>29350.534000480548</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>18</v>
       </c>
@@ -5794,7 +4939,7 @@
         <v>29402.78100008145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>18</v>
       </c>
@@ -5811,7 +4956,7 @@
         <v>29818.745000031777</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -5828,7 +4973,7 @@
         <v>29863.754000142217</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>18</v>
       </c>
@@ -5845,7 +4990,7 @@
         <v>29994.816000480205</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5862,7 +5007,7 @@
         <v>30128.874000208452</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -5879,7 +5024,7 @@
         <v>30266.941000521183</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>18</v>
       </c>
@@ -5896,7 +5041,7 @@
         <v>30276.941000344232</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
@@ -5913,7 +5058,7 @@
         <v>30744.154000002891</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>18</v>
       </c>
@@ -5930,7 +5075,7 @@
         <v>30888.41400006786</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5947,7 +5092,7 @@
         <v>31176.311000157148</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>18</v>
       </c>
@@ -5964,7 +5109,7 @@
         <v>31231.351000349969</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
@@ -5981,7 +5126,7 @@
         <v>31278.575000516139</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5998,7 +5143,7 @@
         <v>31387.624000408687</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>131</v>
       </c>
@@ -6015,7 +5160,7 @@
         <v>31449.435000261292</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>133</v>
       </c>
@@ -6032,7 +5177,7 @@
         <v>31511.463000043295</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
@@ -6049,7 +5194,7 @@
         <v>31544.490000419319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -6066,7 +5211,7 @@
         <v>31847.723000356928</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -6083,7 +5228,7 @@
         <v>32364.85800028313</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
@@ -6100,7 +5245,7 @@
         <v>32471.911000390537</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -6117,7 +5262,7 @@
         <v>32748.123000492342</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -6134,7 +5279,7 @@
         <v>33079.203000362031</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>15</v>
       </c>
@@ -6151,7 +5296,7 @@
         <v>33192.278000595979</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>139</v>
       </c>
@@ -6168,7 +5313,7 @@
         <v>33467.383000440896</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>18</v>
       </c>
@@ -6185,7 +5330,7 @@
         <v>33498.397000017576</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -6202,7 +5347,7 @@
         <v>33585.44900030829</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>142</v>
       </c>
@@ -6219,7 +5364,7 @@
         <v>33603.468000213616</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -6236,7 +5381,7 @@
         <v>33642.673000297509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>18</v>
       </c>
@@ -6253,7 +5398,7 @@
         <v>33766.559000406414</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -6270,7 +5415,7 @@
         <v>33959.650000068359</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -6287,7 +5432,7 @@
         <v>34483.899000333622</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>15</v>
       </c>
@@ -6304,7 +5449,7 @@
         <v>34861.064000311308</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -6321,7 +5466,7 @@
         <v>35031.191000109538</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>15</v>
       </c>
@@ -6338,7 +5483,7 @@
         <v>35217.293000011705</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -6355,7 +5500,7 @@
         <v>35473.47400020808</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>15</v>
       </c>
@@ -6372,7 +5517,7 @@
         <v>35604.661000496708</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>18</v>
       </c>
@@ -6389,7 +5534,7 @@
         <v>35748.515999992378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>18</v>
       </c>
@@ -6406,7 +5551,7 @@
         <v>35974.821000499651</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>15</v>
       </c>
@@ -6423,7 +5568,7 @@
         <v>36168.708000169136</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
@@ -6440,7 +5585,7 @@
         <v>36470.864000567235</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>15</v>
       </c>
@@ -6457,7 +5602,7 @@
         <v>36525.919000175782</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>18</v>
       </c>
@@ -6474,7 +5619,7 @@
         <v>36663.95500022918</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -6491,7 +5636,7 @@
         <v>36796.032000216655</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>18</v>
       </c>
@@ -6508,7 +5653,7 @@
         <v>37217.456000600941</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +5670,7 @@
         <v>37305.289000226185</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +5687,7 @@
         <v>37414.338000118732</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>18</v>
       </c>
@@ -6559,7 +5704,7 @@
         <v>37554.402000387199</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>15</v>
       </c>
@@ -6576,7 +5721,7 @@
         <v>37728.491000295617</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -6593,7 +5738,7 @@
         <v>37894.562000292353</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>15</v>
       </c>
@@ -6610,7 +5755,7 @@
         <v>38087.653000582941</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -6627,7 +5772,7 @@
         <v>38255.736000579782</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>18</v>
       </c>
@@ -6644,7 +5789,7 @@
         <v>38511.043000034988</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -6661,7 +5806,7 @@
         <v>38764.946000115015</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>18</v>
       </c>
@@ -6678,7 +5823,7 @@
         <v>38899.222000571899</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -6695,7 +5840,7 @@
         <v>39158.35200031288</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>15</v>
       </c>
@@ -6712,7 +5857,7 @@
         <v>39215.185000235215</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +5874,7 @@
         <v>39452.302000159398</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>15</v>
       </c>
@@ -6746,7 +5891,7 @@
         <v>39695.409000408836</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -6763,7 +5908,7 @@
         <v>39740.433000563644</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -6780,7 +5925,7 @@
         <v>39940.529000200331</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -6797,7 +5942,7 @@
         <v>40109.610000089742</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -6814,7 +5959,7 @@
         <v>40465.425000200048</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>15</v>
       </c>
@@ -6831,7 +5976,7 @@
         <v>40490.360000613146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -6848,7 +5993,7 @@
         <v>40714.942000131123</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -6865,7 +6010,7 @@
         <v>40973.041000007652</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>15</v>
       </c>
@@ -6882,7 +6027,7 @@
         <v>41307.896000146866</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
@@ -6899,7 +6044,7 @@
         <v>41476.986000314355</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>15</v>
       </c>
@@ -6916,7 +6061,7 @@
         <v>41641.248000366613</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -6933,7 +6078,7 @@
         <v>42072.251000418328</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -6950,7 +6095,7 @@
         <v>42414.403000054881</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -6967,7 +6112,7 @@
         <v>42699.536000099033</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
@@ -6984,7 +6129,7 @@
         <v>42818.601000029594</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -7001,7 +6146,7 @@
         <v>42853.625000361353</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -7018,7 +6163,7 @@
         <v>43067.729000234976</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -7035,7 +6180,7 @@
         <v>43441.911000525579</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
@@ -7052,7 +6197,7 @@
         <v>43628.97900051903</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +6214,7 @@
         <v>43831.0710005695</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>18</v>
       </c>
@@ -7086,7 +6231,7 @@
         <v>43948.341000429355</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -7103,7 +6248,7 @@
         <v>44014.1610002378</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>15</v>
       </c>
@@ -7120,7 +6265,7 @@
         <v>44032.164000556804</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
@@ -7137,7 +6282,7 @@
         <v>44352.306000259705</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -7154,7 +6299,7 @@
         <v>44596.441000490449</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -7171,7 +6316,7 @@
         <v>44753.509000386111</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -7188,7 +6333,7 @@
         <v>44906.567000155337</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>18</v>
       </c>
@@ -7205,7 +6350,7 @@
         <v>45091.888000094332</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +6367,7 @@
         <v>45402.826000610366</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>18</v>
       </c>
@@ -7239,7 +6384,7 @@
         <v>45545.884000556543</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>15</v>
       </c>
@@ -7256,7 +6401,7 @@
         <v>45722.983000357635</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
@@ -7273,7 +6418,7 @@
         <v>45855.059000174515</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>18</v>
       </c>
@@ -7290,7 +6435,7 @@
         <v>45953.312000236474</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -7307,7 +6452,7 @@
         <v>46056.152000161819</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>18</v>
       </c>
@@ -7324,7 +6469,7 @@
         <v>46404.515000106767</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>5</v>
       </c>
@@ -7341,7 +6486,7 @@
         <v>46451.349000376649</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
@@ -7358,7 +6503,7 @@
         <v>47293.709000246599</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -7375,7 +6520,7 @@
         <v>47577.048000390641</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
@@ -7392,7 +6537,7 @@
         <v>47852.962000574917</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>15</v>
       </c>
@@ -7409,7 +6554,7 @@
         <v>48074.056000378914</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>15</v>
       </c>
@@ -7426,7 +6571,7 @@
         <v>48393.215000233613</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -7443,7 +6588,7 @@
         <v>48564.308000123128</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -7460,7 +6605,7 @@
         <v>48786.384000233375</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
@@ -7477,7 +6622,7 @@
         <v>48954.465000517666</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>15</v>
       </c>
@@ -7494,7 +6639,7 @@
         <v>49176.573000429198</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
@@ -7511,7 +6656,7 @@
         <v>49348.664000211284</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -7528,7 +6673,7 @@
         <v>49572.737000277266</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
@@ -7545,7 +6690,7 @@
         <v>49736.794000561349</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>18</v>
       </c>
@@ -7562,7 +6707,7 @@
         <v>49897.871000412852</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>5</v>
       </c>
@@ -7579,7 +6724,7 @@
         <v>50191.991000343114</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>15</v>
       </c>
@@ -7596,7 +6741,7 @@
         <v>50394.06700017862</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -7613,7 +6758,7 @@
         <v>50465.097000519745</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>18</v>
       </c>
@@ -7630,7 +6775,7 @@
         <v>50489.106000121683</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>15</v>
       </c>
@@ -7647,7 +6792,7 @@
         <v>50719.435000000522</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>18</v>
       </c>
@@ -7664,7 +6809,7 @@
         <v>50729.232000396587</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
@@ -7681,7 +6826,7 @@
         <v>51167.440000595525</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>15</v>
       </c>
@@ -7698,7 +6843,7 @@
         <v>51421.763000031933</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>15</v>
       </c>
@@ -7715,7 +6860,7 @@
         <v>52099.847000604495</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>15</v>
       </c>
@@ -7732,7 +6877,7 @@
         <v>52359.958000481129</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +6894,7 @@
         <v>52513.032000465319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>18</v>
       </c>
@@ -7766,7 +6911,7 @@
         <v>52659.117000061087</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -7783,7 +6928,7 @@
         <v>52726.137000275776</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>5</v>
       </c>
@@ -7800,7 +6945,7 @@
         <v>52883.19000012707</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>15</v>
       </c>
@@ -7817,7 +6962,7 @@
         <v>53102.302000019699</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>18</v>
       </c>
@@ -7834,7 +6979,7 @@
         <v>53237.575000198558</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>18</v>
       </c>
@@ -7851,7 +6996,7 @@
         <v>53420.462000439875</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>15</v>
       </c>
@@ -7868,7 +7013,7 @@
         <v>53580.744000454433</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>5</v>
       </c>
@@ -7885,7 +7030,7 @@
         <v>53618.560000578873</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>18</v>
       </c>
@@ -7902,7 +7047,7 @@
         <v>54078.96800043527</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
@@ -7919,7 +7064,7 @@
         <v>54318.875000439584</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>15</v>
       </c>
@@ -7936,7 +7081,7 @@
         <v>54546.178000210784</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>15</v>
       </c>
@@ -7953,7 +7098,7 @@
         <v>54702.043999987654</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>5</v>
       </c>
@@ -7970,7 +7115,7 @@
         <v>54926.117000053637</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>18</v>
       </c>
@@ -7987,7 +7132,7 @@
         <v>55156.21200024616</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
@@ -8004,7 +7149,7 @@
         <v>55291.50100001134</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>18</v>
       </c>
@@ -8021,7 +7166,7 @@
         <v>55423.358000186272</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>5</v>
       </c>
@@ -8038,7 +7183,7 @@
         <v>55803.547000559047</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>15</v>
       </c>
@@ -8055,7 +7200,7 @@
         <v>55804.54599999357</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>5</v>
       </c>
@@ -8072,7 +7217,7 @@
         <v>55918.602000363171</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>5</v>
       </c>
@@ -8089,7 +7234,7 @@
         <v>56095.686000119895</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +7251,7 @@
         <v>56503.863000590354</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>18</v>
       </c>
@@ -8123,7 +7268,7 @@
         <v>56607.904000463895</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>15</v>
       </c>
@@ -8140,7 +7285,7 @@
         <v>56835.034000268206</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>15</v>
       </c>
@@ -8157,7 +7302,7 @@
         <v>57019.107000413351</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
@@ -8174,7 +7319,7 @@
         <v>57080.12100008782</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>18</v>
       </c>
@@ -8191,7 +7336,7 @@
         <v>57157.173000555485</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>5</v>
       </c>
@@ -8208,7 +7353,7 @@
         <v>57404.288000590168</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>18</v>
       </c>
@@ -8225,7 +7370,7 @@
         <v>57623.369000223465</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
@@ -8242,7 +7387,7 @@
         <v>57919.53300058376</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>18</v>
       </c>
@@ -8259,7 +7404,7 @@
         <v>57984.790000529028</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +7421,7 @@
         <v>58365.713000390679</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>15</v>
       </c>
@@ -8293,7 +7438,7 @@
         <v>58576.8210002454</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>15</v>
       </c>
@@ -8310,7 +7455,7 @@
         <v>58710.894000018016</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>18</v>
       </c>
@@ -8327,7 +7472,7 @@
         <v>59023.251000582241</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>15</v>
       </c>
@@ -8344,7 +7489,7 @@
         <v>59131.098000355996</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>15</v>
       </c>
@@ -8361,7 +7506,7 @@
         <v>59305.155000463128</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
@@ -8378,7 +7523,7 @@
         <v>59430.242000520229</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>5</v>
       </c>
@@ -8395,7 +7540,7 @@
         <v>59683.363000466488</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>15</v>
       </c>
@@ -8412,7 +7557,7 @@
         <v>59781.398000428453</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>225</v>
       </c>
@@ -8429,7 +7574,7 @@
         <v>59875.439000478946</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>18</v>
       </c>
@@ -8446,7 +7591,7 @@
         <v>59953.47400016617</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>18</v>
       </c>
@@ -8463,7 +7608,7 @@
         <v>60261.822000145912</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +7625,7 @@
         <v>60440.684000216424</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>5</v>
       </c>
@@ -8497,7 +7642,7 @@
         <v>60740.794000471942</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>18</v>
       </c>
@@ -8514,7 +7659,7 @@
         <v>60876.864000200294</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
@@ -8531,7 +7676,7 @@
         <v>60931.887000007555</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -8548,7 +7693,7 @@
         <v>61056.178000057116</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -8565,7 +7710,7 @@
         <v>61531.173000228591</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -8582,7 +7727,7 @@
         <v>61732.468000100926</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>18</v>
       </c>
@@ -8599,7 +7744,7 @@
         <v>61806.322000036016</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -8616,7 +7761,7 @@
         <v>61904.356999997981</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -8633,7 +7778,7 @@
         <v>62270.521000376903</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>5</v>
       </c>
@@ -8650,7 +7795,7 @@
         <v>62421.707000141032</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>18</v>
       </c>
@@ -8667,7 +7812,7 @@
         <v>62767.731000250205</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>5</v>
       </c>
@@ -8684,7 +7829,7 @@
         <v>62812.754000234418</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -8701,7 +7846,7 @@
         <v>62870.789000275545</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>18</v>
       </c>
@@ -8718,7 +7863,7 @@
         <v>62986.843000142835</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>18</v>
       </c>
@@ -8735,7 +7880,7 @@
         <v>63140.135000227019</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>15</v>
       </c>
@@ -8752,7 +7897,7 @@
         <v>63562.321000476368</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>5</v>
       </c>
@@ -8769,7 +7914,7 @@
         <v>63646.144000603817</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>15</v>
       </c>
@@ -8786,7 +7931,7 @@
         <v>63723.19600044284</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>18</v>
       </c>
@@ -8803,7 +7948,7 @@
         <v>63819.218000234105</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>5</v>
       </c>
@@ -8820,7 +7965,7 @@
         <v>64041.310000559315</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>15</v>
       </c>
@@ -8837,7 +7982,7 @@
         <v>64228.393000597134</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>18</v>
       </c>
@@ -8854,7 +7999,7 @@
         <v>64253.417000477202</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
@@ -8871,7 +8016,7 @@
         <v>64397.474000486545</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>15</v>
       </c>
@@ -8888,7 +8033,7 @@
         <v>64585.55600058753</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>18</v>
       </c>
@@ -8905,7 +8050,7 @@
         <v>64725.853000371717</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>15</v>
       </c>
@@ -8922,7 +8067,7 @@
         <v>64879.691000562161</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>5</v>
       </c>
@@ -8939,7 +8084,7 @@
         <v>65048.756000236608</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>18</v>
       </c>
@@ -8956,7 +8101,7 @@
         <v>65380.895000346936</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>15</v>
       </c>
@@ -8973,7 +8118,7 @@
         <v>65517.183000175282</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>5</v>
       </c>
@@ -8990,7 +8135,7 @@
         <v>65627.043000119738</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>5</v>
       </c>
@@ -9007,7 +8152,7 @@
         <v>65903.16000035964</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>5</v>
       </c>
@@ -9024,7 +8169,7 @@
         <v>66181.289000599645</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>5</v>
       </c>
@@ -9041,7 +8186,7 @@
         <v>66460.432000318542</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>15</v>
       </c>
@@ -9058,7 +8203,7 @@
         <v>66649.528000527062</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>5</v>
       </c>
@@ -9075,7 +8220,7 @@
         <v>66818.593000201508</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>18</v>
       </c>
@@ -9092,7 +8237,7 @@
         <v>66942.650000564754</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
@@ -9109,7 +8254,7 @@
         <v>67039.702000049874</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>5</v>
       </c>
@@ -9126,7 +8271,7 @@
         <v>67207.79900054913</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>15</v>
       </c>
@@ -9143,7 +8288,7 @@
         <v>67642.029000422917</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>18</v>
       </c>
@@ -9160,7 +8305,7 @@
         <v>67736.055000429042</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>5</v>
       </c>
@@ -9177,7 +8322,7 @@
         <v>67782.07700047642</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>18</v>
       </c>
@@ -9194,7 +8339,7 @@
         <v>67880.143000069074</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>15</v>
       </c>
@@ -9211,7 +8356,7 @@
         <v>68232.313000084832</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>15</v>
       </c>
@@ -9228,7 +8373,7 @@
         <v>68550.723000406288</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>5</v>
       </c>
@@ -9245,7 +8390,7 @@
         <v>68594.514000182971</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>15</v>
       </c>
@@ -9262,7 +8407,7 @@
         <v>68721.566000394523</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>18</v>
       </c>
@@ -9279,7 +8424,7 @@
         <v>68803.610000037588</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>5</v>
       </c>
@@ -9296,7 +8441,7 @@
         <v>69033.721000445075</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>15</v>
       </c>
@@ -9313,7 +8458,7 @@
         <v>69175.001000077464</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>18</v>
       </c>
@@ -9330,7 +8475,7 @@
         <v>69257.825000141747</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>5</v>
       </c>
@@ -9347,7 +8492,7 @@
         <v>69501.960000372492</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +8509,7 @@
         <v>69579.995000059716</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>5</v>
       </c>
@@ -9381,7 +8526,7 @@
         <v>69853.116000280716</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>15</v>
       </c>
@@ -9398,7 +8543,7 @@
         <v>70019.217000366189</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>15</v>
       </c>
@@ -9415,7 +8560,7 @@
         <v>70350.372999999672</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>5</v>
       </c>
@@ -9432,7 +8577,7 @@
         <v>70372.386000445113</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>15</v>
       </c>
@@ -9449,7 +8594,7 @@
         <v>70566.490000043996</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>5</v>
       </c>
@@ -9466,7 +8611,7 @@
         <v>70742.575000366196</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>15</v>
       </c>
@@ -9483,7 +8628,7 @@
         <v>70959.674000088125</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>15</v>
       </c>
@@ -9500,7 +8645,7 @@
         <v>71122.982000210322</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>5</v>
       </c>
@@ -9517,7 +8662,7 @@
         <v>71291.844000457786</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>15</v>
       </c>
@@ -9534,7 +8679,7 @@
         <v>71456.931000435725</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>18</v>
       </c>
@@ -9551,7 +8696,7 @@
         <v>71620.020000287332</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>5</v>
       </c>
@@ -9568,7 +8713,7 @@
         <v>71621.019000350498</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>15</v>
       </c>
@@ -9585,7 +8730,7 @@
         <v>71815.154000208713</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +8747,7 @@
         <v>72164.298000116833</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>5</v>
       </c>
@@ -9619,7 +8764,7 @@
         <v>72179.352000262588</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>18</v>
       </c>
@@ -9636,7 +8781,7 @@
         <v>72588.51200058125</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>18</v>
       </c>
@@ -9653,7 +8798,7 @@
         <v>72733.832000428811</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>5</v>
       </c>
@@ -9670,7 +8815,7 @@
         <v>72748.591000540182</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>15</v>
       </c>
@@ -9687,7 +8832,7 @@
         <v>72888.669000053778</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>5</v>
       </c>
@@ -9704,7 +8849,7 @@
         <v>73059.981000213884</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>15</v>
       </c>
@@ -9721,7 +8866,7 @@
         <v>73507.061000168324</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>5</v>
       </c>
@@ -9738,7 +8883,7 @@
         <v>73674.976000422612</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>15</v>
       </c>
@@ -9755,7 +8900,7 @@
         <v>73861.972000077367</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>15</v>
       </c>
@@ -9772,7 +8917,7 @@
         <v>74055.223000003025</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>15</v>
       </c>
@@ -9789,7 +8934,7 @@
         <v>74381.133000506088</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>5</v>
       </c>
@@ -9806,7 +8951,7 @@
         <v>74698.485000128858</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>5</v>
       </c>
@@ -9823,7 +8968,7 @@
         <v>74944.378000404686</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>15</v>
       </c>
@@ -9840,7 +8985,7 @@
         <v>74992.396000237204</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>15</v>
       </c>
@@ -9857,7 +9002,7 @@
         <v>75328.806000365876</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>18</v>
       </c>
@@ -9874,7 +9019,7 @@
         <v>75410.600000107661</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>15</v>
       </c>
@@ -9891,7 +9036,7 @@
         <v>75483.64200044889</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>18</v>
       </c>
@@ -9908,7 +9053,7 @@
         <v>75628.712000395171</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>5</v>
       </c>
@@ -9925,7 +9070,7 @@
         <v>75684.936000150628</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>15</v>
       </c>
@@ -9942,7 +9087,7 @@
         <v>75804.780000331812</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>15</v>
       </c>
@@ -9959,7 +9104,7 @@
         <v>76191.971000167541</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>15</v>
       </c>
@@ -9976,7 +9121,7 @@
         <v>76526.121000107378</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>5</v>
       </c>
@@ -9993,7 +9138,7 @@
         <v>76846.245000511408</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>15</v>
       </c>
@@ -10010,7 +9155,7 @@
         <v>76900.364000117406</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>5</v>
       </c>
@@ -10027,7 +9172,7 @@
         <v>77106.588000361808</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>15</v>
       </c>
@@ -10044,7 +9189,7 @@
         <v>77235.433000302874</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>5</v>
       </c>
@@ -10061,7 +9206,7 @@
         <v>77365.4950004071</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>15</v>
       </c>
@@ -10078,7 +9223,7 @@
         <v>77581.595000065863</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>18</v>
       </c>
@@ -10095,7 +9240,7 @@
         <v>77741.647000447847</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>5</v>
       </c>
@@ -10112,7 +9257,7 @@
         <v>77748.65800018888</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>15</v>
       </c>
@@ -10129,7 +9274,7 @@
         <v>77991.97500043083</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>5</v>
       </c>
@@ -10146,7 +9291,7 @@
         <v>78216.904000053182</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>18</v>
       </c>
@@ -10163,7 +9308,7 @@
         <v>78465.234000538476</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>15</v>
       </c>
@@ -10180,7 +9325,7 @@
         <v>78516.061000549234</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>5</v>
       </c>
@@ -10197,7 +9342,7 @@
         <v>78944.251000368968</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>15</v>
       </c>
@@ -10214,7 +9359,7 @@
         <v>79133.346000406891</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>5</v>
       </c>
@@ -10231,7 +9376,7 @@
         <v>79299.414000520483</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>15</v>
       </c>
@@ -10248,7 +9393,7 @@
         <v>79515.560000482947</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>5</v>
       </c>
@@ -10265,7 +9410,7 @@
         <v>79848.727000574581</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>18</v>
       </c>
@@ -10282,7 +9427,7 @@
         <v>79938.742000283673</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>15</v>
       </c>
@@ -10299,7 +9444,7 @@
         <v>79943.75000030268</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>5</v>
       </c>
@@ -10316,7 +9461,7 @@
         <v>80125.87099999655</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>15</v>
       </c>
@@ -10333,7 +9478,7 @@
         <v>80464.03000052087</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>5</v>
       </c>
@@ -10350,7 +9495,7 @@
         <v>80628.117000265047</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>15</v>
       </c>
@@ -10367,7 +9512,7 @@
         <v>80984.310000110418</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>5</v>
       </c>
@@ -10384,7 +9529,7 @@
         <v>81127.383000100963</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>18</v>
       </c>
@@ -10401,7 +9546,7 @@
         <v>81459.551000129431</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>15</v>
       </c>
@@ -10418,7 +9563,7 @@
         <v>81509.567000088282</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>5</v>
       </c>
@@ -10435,7 +9580,7 @@
         <v>81514.715000102296</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>15</v>
       </c>
@@ -10452,7 +9597,7 @@
         <v>81787.71000020206</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>5</v>
       </c>
@@ -10469,7 +9614,7 @@
         <v>81906.805000221357</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>15</v>
       </c>
@@ -10486,7 +9631,7 @@
         <v>82095.868000457995</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>18</v>
       </c>
@@ -10503,7 +9648,7 @@
         <v>82317.974000028335</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>5</v>
       </c>
@@ -10520,7 +9665,7 @@
         <v>82394.01100021787</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>15</v>
       </c>
@@ -10537,7 +9682,7 @@
         <v>82763.200000533834</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>296</v>
       </c>
@@ -10554,7 +9699,7 @@
         <v>83258.441000198945</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>298</v>
       </c>
@@ -10571,7 +9716,7 @@
         <v>83290.656000352465</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>300</v>
       </c>
@@ -10588,7 +9733,7 @@
         <v>83327.48900000006</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>5</v>
       </c>
@@ -10605,7 +9750,7 @@
         <v>84295.603000558913</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>18</v>
       </c>
@@ -10622,7 +9767,7 @@
         <v>84534.932000027038</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>5</v>
       </c>
@@ -10639,7 +9784,7 @@
         <v>85368.316000001505</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>5</v>
       </c>
@@ -10656,7 +9801,7 @@
         <v>85747.31700012926</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>18</v>
       </c>
@@ -10673,7 +9818,7 @@
         <v>85967.426000372507</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>5</v>
       </c>
@@ -10690,7 +9835,7 @@
         <v>86017.441000160761</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>5</v>
       </c>
@@ -10707,7 +9852,7 @@
         <v>86502.682000002824</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>5</v>
       </c>
@@ -10724,7 +9869,7 @@
         <v>86744.008000055328</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>15</v>
       </c>
@@ -10741,7 +9886,7 @@
         <v>86813.025000225753</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>15</v>
       </c>
@@ -10758,7 +9903,7 @@
         <v>86967.877000523731</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>18</v>
       </c>
@@ -10775,7 +9920,7 @@
         <v>87125.942000141367</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>5</v>
       </c>
@@ -10792,7 +9937,7 @@
         <v>87127.939000097103</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>15</v>
       </c>
@@ -10809,7 +9954,7 @@
         <v>87341.230000206269</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>15</v>
       </c>
@@ -10826,7 +9971,7 @@
         <v>87619.139000005089</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>5</v>
       </c>
@@ -10843,7 +9988,7 @@
         <v>87781.432000477798</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>15</v>
       </c>
@@ -10860,7 +10005,7 @@
         <v>87968.281000200659</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>5</v>
       </c>
@@ -10877,7 +10022,7 @@
         <v>88244.411000143737</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>15</v>
       </c>
@@ -10894,7 +10039,7 @@
         <v>88310.652000107802</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>15</v>
       </c>
@@ -10911,7 +10056,7 @@
         <v>88682.585000200197</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>15</v>
       </c>
@@ -10928,7 +10073,7 @@
         <v>88841.665000095963</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>15</v>
       </c>
@@ -10945,7 +10090,7 @@
         <v>89041.758000478148</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>18</v>
       </c>
@@ -10962,7 +10107,7 @@
         <v>89154.831000370905</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>5</v>
       </c>
@@ -10979,7 +10124,7 @@
         <v>89183.833000576124</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>15</v>
       </c>
@@ -10996,7 +10141,7 @@
         <v>89463.988000061363</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>5</v>
       </c>
@@ -11013,7 +10158,7 @@
         <v>89496.219000429846</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>15</v>
       </c>
@@ -11030,7 +10175,7 @@
         <v>89807.123000174761</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>15</v>
       </c>
@@ -11047,7 +10192,7 @@
         <v>90042.427000100724</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>5</v>
       </c>
@@ -11064,7 +10209,7 @@
         <v>90377.35700046178</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>15</v>
       </c>
@@ -11081,7 +10226,7 @@
         <v>90938.588000019081</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>15</v>
       </c>
@@ -11098,7 +10243,7 @@
         <v>91077.652000053786</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>18</v>
       </c>
@@ -11115,7 +10260,7 @@
         <v>91092.660000524484</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>18</v>
       </c>
@@ -11132,7 +10277,7 @@
         <v>91324.765000375919</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
@@ -11149,7 +10294,7 @@
         <v>91402.815000107512</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>5</v>
       </c>
@@ -11166,7 +10311,7 @@
         <v>91553.876000549644</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -11183,7 +10328,7 @@
         <v>91610.912000527605</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>15</v>
       </c>
@@ -11200,7 +10345,7 @@
         <v>91909.024000028148</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>15</v>
       </c>
@@ -11217,7 +10362,7 @@
         <v>92284.156000195071</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>5</v>
       </c>
@@ -11234,7 +10379,7 @@
         <v>92490.271000075154</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>15</v>
       </c>
@@ -11251,7 +10396,7 @@
         <v>92552.314000530168</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>18</v>
       </c>
@@ -11268,7 +10413,7 @@
         <v>92565.528000472113</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>15</v>
       </c>
@@ -11285,7 +10430,7 @@
         <v>92857.462000264786</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>5</v>
       </c>
@@ -11302,7 +10447,7 @@
         <v>93065.543000469916</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>15</v>
       </c>
@@ -11319,7 +10464,7 @@
         <v>93180.597000103444</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>5</v>
       </c>
@@ -11336,7 +10481,7 @@
         <v>93329.69200022053</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>18</v>
       </c>
@@ -11353,7 +10498,7 @@
         <v>93501.767000416294</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>5</v>
       </c>
@@ -11370,7 +10515,7 @@
         <v>93875.947000365704</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>15</v>
       </c>
@@ -11387,7 +10532,7 @@
         <v>93993.014000169933</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>5</v>
       </c>
@@ -11404,7 +10549,7 @@
         <v>94152.296000579372</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>15</v>
       </c>
@@ -11421,7 +10566,7 @@
         <v>94339.378999988548</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
@@ -11438,7 +10583,7 @@
         <v>94474.230000469834</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>5</v>
       </c>
@@ -11455,7 +10600,7 @@
         <v>94746.554000512697</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>15</v>
       </c>
@@ -11472,7 +10617,7 @@
         <v>95101.546000409871</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>331</v>
       </c>
@@ -11489,7 +10634,7 @@
         <v>95171.780000114813</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>333</v>
       </c>
@@ -11506,7 +10651,7 @@
         <v>95239.596000337042</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>15</v>
       </c>
@@ -11523,7 +10668,7 @@
         <v>95339.627000084147</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>18</v>
       </c>
@@ -11540,7 +10685,7 @@
         <v>95348.628000472672</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>5</v>
       </c>
@@ -11557,7 +10702,7 @@
         <v>95757.00500048697</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>337</v>
       </c>
@@ -11574,7 +10719,7 @@
         <v>96026.942000049166</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>339</v>
       </c>
@@ -11591,7 +10736,7 @@
         <v>97230.046000401489</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>15</v>
       </c>
@@ -11608,7 +10753,7 @@
         <v>97793.306000344455</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>5</v>
       </c>
@@ -11625,7 +10770,7 @@
         <v>97950.38800011389</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>15</v>
       </c>
@@ -11642,7 +10787,7 @@
         <v>98128.46900022123</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>5</v>
       </c>
@@ -11659,7 +10804,7 @@
         <v>98284.569000313058</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>15</v>
       </c>
@@ -11676,7 +10821,7 @@
         <v>98499.639000277966</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>343</v>
       </c>
@@ -11693,7 +10838,7 @@
         <v>98625.692000426352</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>18</v>
       </c>
@@ -11710,7 +10855,7 @@
         <v>98640.699000097811</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>346</v>
       </c>
@@ -11727,7 +10872,7 @@
         <v>98667.704000347294</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>15</v>
       </c>
@@ -11744,7 +10889,7 @@
         <v>98799.778999993578</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>5</v>
       </c>
@@ -11761,7 +10906,7 @@
         <v>99060.886000050232</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>15</v>
       </c>
@@ -11778,7 +10923,7 @@
         <v>99404.052000422962</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>15</v>
       </c>
@@ -11795,7 +10940,7 @@
         <v>99721.399999991991</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>5</v>
       </c>
@@ -11812,7 +10957,7 @@
         <v>99892.242000438273</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>15</v>
       </c>
@@ -11829,7 +10974,7 @@
         <v>100119.35600002762</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>5</v>
       </c>
@@ -11846,7 +10991,7 @@
         <v>100284.42500007804</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>15</v>
       </c>
@@ -11863,7 +11008,7 @@
         <v>100508.54400044773</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>5</v>
       </c>
@@ -11880,7 +11025,7 @@
         <v>100679.63499999605</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>18</v>
       </c>
@@ -11897,7 +11042,7 @@
         <v>100751.66300022975</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>15</v>
       </c>
@@ -11914,7 +11059,7 @@
         <v>100872.72400057409</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>5</v>
       </c>
@@ -11931,7 +11076,7 @@
         <v>101041.78800007794</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>15</v>
       </c>
@@ -11948,7 +11093,7 @@
         <v>101261.89700032119</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>18</v>
       </c>
@@ -11965,7 +11110,7 @@
         <v>101416.9510005042</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>15</v>
       </c>
@@ -11982,7 +11127,7 @@
         <v>101561.03800060228</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>5</v>
       </c>
@@ -11999,7 +11144,7 @@
         <v>101728.10500015039</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>18</v>
       </c>
@@ -12016,7 +11161,7 @@
         <v>101977.41800048389</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>5</v>
       </c>
@@ -12033,7 +11178,7 @@
         <v>102231.31800005212</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>15</v>
       </c>
@@ -12050,7 +11195,7 @@
         <v>102419.39900061116</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>5</v>
       </c>
@@ -12067,7 +11212,7 @@
         <v>102593.50100022275</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>15</v>
       </c>
@@ -12084,7 +11229,7 @@
         <v>102811.58200025093</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>5</v>
       </c>
@@ -12101,7 +11246,7 @@
         <v>103090.70800021291</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>15</v>
       </c>
@@ -12118,7 +11263,7 @@
         <v>103203.7660000613</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>5</v>
       </c>
@@ -12135,7 +11280,7 @@
         <v>103373.85900034569</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>15</v>
       </c>
@@ -12152,7 +11297,7 @@
         <v>103557.94600036461</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>15</v>
       </c>
@@ -12169,7 +11314,7 @@
         <v>103720.00500052236</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>5</v>
       </c>
@@ -12186,7 +11331,7 @@
         <v>103851.06600006111</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>15</v>
       </c>
@@ -12203,7 +11348,7 @@
         <v>104036.15100060124</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>18</v>
       </c>
@@ -12220,7 +11365,7 @@
         <v>104177.19600037672</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>15</v>
       </c>
@@ -12237,7 +11382,7 @@
         <v>104357.29000002611</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>5</v>
       </c>
@@ -12254,7 +11399,7 @@
         <v>104528.36600015871</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>18</v>
       </c>
@@ -12271,7 +11416,7 @@
         <v>104780.50300008617</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>15</v>
       </c>
@@ -12288,7 +11433,7 @@
         <v>105103.66900018416</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>15</v>
       </c>
@@ -12305,7 +11450,7 @@
         <v>105417.80300026294</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>15</v>
       </c>
@@ -12322,7 +11467,7 @@
         <v>105586.08700060286</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>18</v>
       </c>
@@ -12339,7 +11484,7 @@
         <v>105678.14600011334</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>15</v>
       </c>
@@ -12356,7 +11501,7 @@
         <v>105790.98500031978</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>18</v>
       </c>
@@ -12373,7 +11518,7 @@
         <v>105972.06100027543</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>15</v>
       </c>
@@ -12390,7 +11535,7 @@
         <v>106146.13200025633</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>15</v>
       </c>
@@ -12407,7 +11552,7 @@
         <v>106446.27200060058</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>18</v>
       </c>
@@ -12424,7 +11569,7 @@
         <v>106549.34600021224</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>15</v>
       </c>
@@ -12441,7 +11586,7 @@
         <v>106653.3550002845</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>5</v>
       </c>
@@ -12458,7 +11603,7 @@
         <v>106923.479000316</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>368</v>
       </c>
@@ -12475,7 +11620,7 @@
         <v>107816.89400011674</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>18</v>
       </c>
@@ -12492,7 +11637,7 @@
         <v>108947.3550003022</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>15</v>
       </c>
@@ -12509,7 +11654,7 @@
         <v>109068.36900017224</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>18</v>
       </c>
@@ -12526,7 +11671,7 @@
         <v>109235.23300029337</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>5</v>
       </c>
@@ -12543,7 +11688,7 @@
         <v>109353.28200040385</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>15</v>
       </c>
@@ -12560,7 +11705,7 @@
         <v>109654.436000227</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>5</v>
       </c>
@@ -12577,7 +11722,7 @@
         <v>109808.50800010376</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>5</v>
       </c>
@@ -12594,7 +11739,7 @@
         <v>110363.76400000881</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>15</v>
       </c>
@@ -12611,7 +11756,7 @@
         <v>110468.00800056662</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>18</v>
       </c>
@@ -12628,7 +11773,7 @@
         <v>110476.79100022651</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>5</v>
       </c>
@@ -12645,7 +11790,7 @@
         <v>110687.89800053928</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>18</v>
       </c>
@@ -12662,7 +11807,7 @@
         <v>110783.99800043553</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>5</v>
       </c>
@@ -12679,7 +11824,7 @@
         <v>110887.97600024845</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>18</v>
       </c>
@@ -12696,7 +11841,7 @@
         <v>111234.12200042512</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>5</v>
       </c>
@@ -12713,7 +11858,7 @@
         <v>111441.22000015341</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>15</v>
       </c>
@@ -12730,7 +11875,7 @@
         <v>111557.27300047874</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>376</v>
       </c>
@@ -12747,7 +11892,7 @@
         <v>111807.36600060482</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>15</v>
       </c>
@@ -12764,7 +11909,7 @@
         <v>111841.3750000298</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>378</v>
       </c>
@@ -12781,7 +11926,7 @@
         <v>111842.38900013734</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>5</v>
       </c>
@@ -12798,7 +11943,7 @@
         <v>111970.43900024146</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>15</v>
       </c>
@@ -12815,7 +11960,7 @@
         <v>112143.51200032979</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>5</v>
       </c>
@@ -12832,7 +11977,7 @@
         <v>112304.57300059497</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>5</v>
       </c>
@@ -12849,7 +11994,7 @@
         <v>112635.74200056028</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>18</v>
       </c>
@@ -12866,7 +12011,7 @@
         <v>112966.0850004293</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>15</v>
       </c>
@@ -12883,7 +12028,7 @@
         <v>113101.93500034511</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>5</v>
       </c>
@@ -12900,7 +12045,7 @@
         <v>113250.01600035466</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>5</v>
       </c>
@@ -12917,7 +12062,7 @@
         <v>113519.12600027863</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>15</v>
       </c>
@@ -12934,7 +12079,7 @@
         <v>113957.31600055005</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>5</v>
       </c>
@@ -12951,7 +12096,7 @@
         <v>114052.35500049312</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>18</v>
       </c>
@@ -12968,7 +12113,7 @@
         <v>114078.57900015078</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>15</v>
       </c>
@@ -12985,7 +12130,7 @@
         <v>114260.4360000696</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>5</v>
       </c>
@@ -13002,7 +12147,7 @@
         <v>114389.4840000663</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>15</v>
       </c>
@@ -13019,7 +12164,7 @@
         <v>114766.64400044829</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>15</v>
       </c>
@@ -13036,7 +12181,7 @@
         <v>115172.80500023626</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>18</v>
       </c>
@@ -13053,7 +12198,7 @@
         <v>115263.07000047527</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>5</v>
       </c>
@@ -13070,7 +12215,7 @@
         <v>115307.86000031512</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>15</v>
       </c>
@@ -13087,7 +12232,7 @@
         <v>115323.89700030908</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>18</v>
       </c>
@@ -13104,7 +12249,7 @@
         <v>115830.10600022972</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>18</v>
       </c>
@@ -13121,7 +12266,7 @@
         <v>115968.38900030125</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>5</v>
       </c>
@@ -13138,7 +12283,7 @@
         <v>116004.19300042558</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>15</v>
       </c>
@@ -13155,7 +12300,7 @@
         <v>116054.19300016947</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>18</v>
       </c>
@@ -13172,7 +12317,7 @@
         <v>116183.44300005119</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>15</v>
       </c>
@@ -13189,7 +12334,7 @@
         <v>116739.73000044934</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>5</v>
       </c>
@@ -13206,7 +12351,7 @@
         <v>116807.54500050098</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>5</v>
       </c>
@@ -13223,7 +12368,7 @@
         <v>117055.6259999983</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>15</v>
       </c>
@@ -13240,7 +12385,7 @@
         <v>117288.71500049718</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>5</v>
       </c>
@@ -13257,7 +12402,7 @@
         <v>117319.72900007386</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>18</v>
       </c>
@@ -13274,7 +12419,7 @@
         <v>117429.79100053199</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>18</v>
       </c>
@@ -13291,7 +12436,7 @@
         <v>117838.9320001239</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>18</v>
       </c>
@@ -13308,7 +12453,7 @@
         <v>118015.0160002755</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>5</v>
       </c>
@@ -13325,7 +12470,7 @@
         <v>118333.14400026575</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>15</v>
       </c>
@@ -13342,7 +12487,7 @@
         <v>118398.18300011102</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>15</v>
       </c>
@@ -13359,7 +12504,7 @@
         <v>118696.29500024021</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>5</v>
       </c>
@@ -13376,7 +12521,7 @@
         <v>118789.57100054249</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>5</v>
       </c>
@@ -13393,7 +12538,7 @@
         <v>119081.4890001202</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>15</v>
       </c>
@@ -13410,7 +12555,7 @@
         <v>119166.52800024021</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>5</v>
       </c>
@@ -13427,7 +12572,7 @@
         <v>119346.60600030329</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>15</v>
       </c>
@@ -13444,7 +12589,7 @@
         <v>119546.69900005683</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>15</v>
       </c>
@@ -13461,7 +12606,7 @@
         <v>119893.84300012607</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>5</v>
       </c>
@@ -13478,7 +12623,7 @@
         <v>120240.02100010403</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>18</v>
       </c>
@@ -13495,7 +12640,7 @@
         <v>120340.08300011046</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>5</v>
       </c>
@@ -13512,7 +12657,7 @@
         <v>120515.15300015453</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>15</v>
       </c>
@@ -13529,7 +12674,7 @@
         <v>120518.14800000284</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>5</v>
       </c>
@@ -13546,7 +12691,7 @@
         <v>120897.3360005999</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>5</v>
       </c>
@@ -13563,7 +12708,7 @@
         <v>121141.43900040071</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>15</v>
       </c>
@@ -13580,7 +12725,7 @@
         <v>121598.63000025507</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>5</v>
       </c>
@@ -13597,7 +12742,7 @@
         <v>121680.67400052678</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>15</v>
       </c>
@@ -13614,7 +12759,7 @@
         <v>121863.96500053816</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>5</v>
       </c>
@@ -13631,7 +12776,7 @@
         <v>122025.82100001164</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>15</v>
       </c>
@@ -13648,7 +12793,7 @@
         <v>122206.91300018225</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>5</v>
       </c>
@@ -13665,7 +12810,7 @@
         <v>122368.97200034</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>5</v>
       </c>
@@ -13682,7 +12827,7 @@
         <v>122640.0790002197</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>15</v>
       </c>
@@ -13699,7 +12844,7 @@
         <v>122824.16600023862</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>18</v>
       </c>
@@ -13716,7 +12861,7 @@
         <v>122935.2120000869</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>5</v>
       </c>
@@ -13733,7 +12878,7 @@
         <v>122989.25200004596</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>15</v>
       </c>
@@ -13750,7 +12895,7 @@
         <v>123177.31700039003</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>5</v>
       </c>
@@ -13767,7 +12912,7 @@
         <v>123347.39500000142</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>18</v>
       </c>
@@ -13784,7 +12929,7 @@
         <v>123493.47900005523</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>5</v>
       </c>
@@ -13801,7 +12946,7 @@
         <v>123623.54100015946</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>15</v>
       </c>
@@ -13818,7 +12963,7 @@
         <v>123810.63900024164</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>5</v>
       </c>
@@ -13835,7 +12980,7 @@
         <v>124003.71200060472</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>5</v>
       </c>
@@ -13852,7 +12997,7 @@
         <v>124259.81200018432</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>15</v>
       </c>
@@ -13869,7 +13014,7 @@
         <v>124426.89400040545</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>5</v>
       </c>
@@ -13886,7 +13031,7 @@
         <v>124596.95600043051</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>18</v>
       </c>
@@ -13903,7 +13048,7 @@
         <v>124883.07100015227</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>5</v>
       </c>
@@ -13920,7 +13065,7 @@
         <v>125110.38800042588</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>18</v>
       </c>
@@ -13937,7 +13082,7 @@
         <v>125191.19900031947</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>5</v>
       </c>
@@ -13954,7 +13099,7 @@
         <v>125391.30800028797</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>18</v>
       </c>
@@ -13971,7 +13116,7 @@
         <v>125524.38100045547</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>15</v>
       </c>
@@ -13988,7 +13133,7 @@
         <v>125799.45099998731</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>18</v>
       </c>
@@ -14005,7 +13150,7 @@
         <v>125898.48300029989</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>15</v>
       </c>
@@ -14022,7 +13167,7 @@
         <v>125979.51300046407</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>15</v>
       </c>
@@ -14039,7 +13184,7 @@
         <v>126191.60299999639</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>15</v>
       </c>
@@ -14056,7 +13201,7 @@
         <v>126401.67999998666</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>5</v>
       </c>
@@ -14073,7 +13218,7 @@
         <v>126595.76799999923</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>15</v>
       </c>
@@ -14090,7 +13235,7 @@
         <v>126855.89200020768</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>15</v>
       </c>
@@ -14107,7 +13252,7 @@
         <v>127075.97000019159</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>5</v>
       </c>
@@ -14124,7 +13269,7 @@
         <v>127154.98700018506</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>15</v>
       </c>
@@ -14141,7 +13286,7 @@
         <v>127256.06300029904</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>18</v>
       </c>
@@ -14158,7 +13303,7 @@
         <v>127499.15100045037</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>5</v>
       </c>
@@ -14175,7 +13320,7 @@
         <v>127675.2200005576</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>18</v>
       </c>
@@ -14192,7 +13337,7 @@
         <v>128005.578000471</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>15</v>
       </c>
@@ -14209,7 +13354,7 @@
         <v>128022.38000021316</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>5</v>
       </c>
@@ -14226,7 +13371,7 @@
         <v>128109.43100033328</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>15</v>
       </c>
@@ -14243,7 +13388,7 @@
         <v>128481.55200043693</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>18</v>
       </c>
@@ -14260,7 +13405,7 @@
         <v>128745.90500041377</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>15</v>
       </c>
@@ -14277,7 +13422,7 @@
         <v>128763.67400041781</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>18</v>
       </c>
@@ -14294,7 +13439,7 @@
         <v>128891.75500015263</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>15</v>
       </c>
@@ -14311,7 +13456,7 @@
         <v>129028.80600001663</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>15</v>
       </c>
@@ -14328,7 +13473,7 @@
         <v>129297.91600056924</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>15</v>
       </c>
@@ -14345,7 +13490,7 @@
         <v>129642.08100037649</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>15</v>
       </c>
@@ -14362,7 +13507,7 @@
         <v>129830.16200030688</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>18</v>
       </c>
@@ -14379,7 +13524,7 @@
         <v>130238.35200048052</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>15</v>
       </c>
@@ -14396,7 +13541,7 @@
         <v>130433.40600058436</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>15</v>
       </c>
@@ -14413,7 +13558,7 @@
         <v>130671.51800051797</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>15</v>
       </c>
@@ -14430,7 +13575,7 @@
         <v>130878.61600024626</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>15</v>
       </c>
@@ -14447,7 +13592,7 @@
         <v>131031.89200011548</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>18</v>
       </c>
@@ -14464,7 +13609,7 @@
         <v>131305.80700000282</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>5</v>
       </c>
@@ -14481,7 +13626,7 @@
         <v>132141.344000143</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>5</v>
       </c>
@@ -14498,7 +13643,7 @@
         <v>132452.26400010288</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>18</v>
       </c>
@@ -14515,7 +13660,7 @@
         <v>132694.38499999233</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>18</v>
       </c>
@@ -14532,7 +13677,7 @@
         <v>132855.46100030188</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>5</v>
       </c>
@@ -14549,7 +13694,7 @@
         <v>133061.54500055127</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>15</v>
       </c>
@@ -14566,7 +13711,7 @@
         <v>133789.87500008661</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>15</v>
       </c>
@@ -14583,7 +13728,7 @@
         <v>133984.96099999174</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>5</v>
       </c>
@@ -14600,7 +13745,7 @@
         <v>134324.10200019367</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>18</v>
       </c>
@@ -14617,7 +13762,7 @@
         <v>134391.15300003905</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>5</v>
       </c>
@@ -14634,7 +13779,7 @@
         <v>134496.20800002012</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>15</v>
       </c>
@@ -14651,7 +13796,7 @@
         <v>134558.23600043077</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>18</v>
       </c>
@@ -14668,7 +13813,7 @@
         <v>134715.28700056951</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>15</v>
       </c>
@@ -14685,7 +13830,7 @@
         <v>134880.37300037686</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>18</v>
       </c>
@@ -14702,7 +13847,7 @@
         <v>135301.77600032184</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>18</v>
       </c>
@@ -14719,7 +13864,7 @@
         <v>135530.85500006564</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>15</v>
       </c>
@@ -14736,7 +13881,7 @@
         <v>135725.75300058816</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
         <v>15</v>
       </c>
@@ -14753,7 +13898,7 @@
         <v>136042.88200051524</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
         <v>5</v>
       </c>
@@ -14770,7 +13915,7 @@
         <v>136216.95400003809</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
         <v>5</v>
       </c>
@@ -14787,7 +13932,7 @@
         <v>136395.0500001898</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
         <v>18</v>
       </c>
@@ -14804,7 +13949,7 @@
         <v>136464.08300057519</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
         <v>15</v>
       </c>
@@ -14821,7 +13966,7 @@
         <v>136544.11400004756</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
         <v>18</v>
       </c>
@@ -14838,7 +13983,7 @@
         <v>137060.52500030492</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
         <v>5</v>
       </c>
@@ -14855,7 +14000,7 @@
         <v>137406.46900059655</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
         <v>5</v>
       </c>
@@ -14872,7 +14017,7 @@
         <v>137611.5700003691</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
         <v>15</v>
       </c>
@@ -14889,7 +14034,7 @@
         <v>137666.57700059004</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
         <v>18</v>
       </c>
@@ -14906,7 +14051,7 @@
         <v>137690.60200040694</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
         <v>18</v>
       </c>
@@ -14923,7 +14068,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
         <v>5</v>
       </c>
@@ -14940,7 +14085,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
         <v>15</v>
       </c>
@@ -14957,7 +14102,7 @@
         <v>138217.84000012558</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
         <v>18</v>
       </c>
@@ -14974,7 +14119,7 @@
         <v>138515.00000003725</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
         <v>5</v>
       </c>
@@ -14991,7 +14136,7 @@
         <v>138650.06100051105</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
         <v>339</v>
       </c>
@@ -15008,7 +14153,7 @@
         <v>139377.35000036191</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
         <v>5</v>
       </c>
@@ -15025,7 +14170,7 @@
         <v>139768.4720000485</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
         <v>5</v>
       </c>
@@ -15042,7 +14187,7 @@
         <v>140050.60900007375</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
         <v>18</v>
       </c>
@@ -15059,7 +14204,7 @@
         <v>140201.68500056025</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
         <v>5</v>
       </c>
@@ -15076,7 +14221,7 @@
         <v>140449.76600005757</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
         <v>18</v>
       </c>
@@ -15093,7 +14238,7 @@
         <v>140597.8310004808</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
         <v>18</v>
       </c>
@@ -15110,7 +14255,7 @@
         <v>140879.96800050605</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
         <v>15</v>
       </c>
@@ -15127,7 +14272,7 @@
         <v>141071.06000049971</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
         <v>15</v>
       </c>
@@ -15144,7 +14289,7 @@
         <v>141286.17700031027</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
         <v>15</v>
       </c>
@@ -15161,7 +14306,7 @@
         <v>141500.24800021201</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
         <v>5</v>
       </c>
@@ -15178,7 +14323,7 @@
         <v>141543.25900019612</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
         <v>18</v>
       </c>
@@ -15195,7 +14340,7 @@
         <v>141925.6300000241</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
         <v>5</v>
       </c>
@@ -15212,7 +14357,7 @@
         <v>142053.4770000726</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
         <v>15</v>
       </c>
@@ -15229,7 +14374,7 @@
         <v>142121.51100039482</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
         <v>15</v>
       </c>
@@ -15246,7 +14391,7 @@
         <v>142421.6660001548</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
         <v>18</v>
       </c>
@@ -15263,7 +14408,7 @@
         <v>142876.7980001634</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
         <v>15</v>
       </c>
@@ -15280,7 +14425,7 @@
         <v>142910.80700021703</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
         <v>5</v>
       </c>
@@ -15297,7 +14442,7 @@
         <v>143091.88400034327</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
         <v>18</v>
       </c>
@@ -15314,7 +14459,7 @@
         <v>143315.78100055922</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
         <v>5</v>
       </c>
@@ -15331,7 +14476,7 @@
         <v>143446.76399999298</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
         <v>18</v>
       </c>
@@ -15348,7 +14493,7 @@
         <v>143590.63299999107</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
         <v>15</v>
       </c>
@@ -15365,7 +14510,7 @@
         <v>143914.76600035094</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>5</v>
       </c>
@@ -15382,7 +14527,7 @@
         <v>143965.00000040978</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>18</v>
       </c>
@@ -15399,7 +14544,7 @@
         <v>144333.93900019582</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>15</v>
       </c>
@@ -15416,7 +14561,7 @@
         <v>144511.00600019563</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>18</v>
       </c>
@@ -15433,7 +14578,7 @@
         <v>144909.19500037562</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>15</v>
       </c>
@@ -15450,7 +14595,7 @@
         <v>144957.43200047873</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
         <v>5</v>
       </c>
@@ -15467,7 +14612,7 @@
         <v>145209.3510003062</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
         <v>15</v>
       </c>
@@ -15484,7 +14629,7 @@
         <v>145243.36000035983</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
         <v>5</v>
       </c>
@@ -15501,7 +14646,7 @@
         <v>145524.49900049251</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
         <v>15</v>
       </c>
@@ -15518,7 +14663,7 @@
         <v>145583.73400031123</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
         <v>15</v>
       </c>
@@ -15535,7 +14680,7 @@
         <v>145743.60900004394</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
         <v>5</v>
       </c>
@@ -15552,7 +14697,7 @@
         <v>145915.66800002474</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
         <v>15</v>
       </c>
@@ -15569,7 +14714,7 @@
         <v>146100.73800052051</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
         <v>18</v>
       </c>
@@ -15586,7 +14731,7 @@
         <v>146193.99800060783</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
         <v>15</v>
       </c>
@@ -15603,7 +14748,7 @@
         <v>146605.96300042234</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
         <v>18</v>
       </c>
@@ -15620,7 +14765,7 @@
         <v>147022.14100041892</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
         <v>5</v>
       </c>
@@ -15637,7 +14782,7 @@
         <v>147022.20300030895</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
         <v>15</v>
       </c>
@@ -15654,7 +14799,7 @@
         <v>147086.16600015666</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
         <v>15</v>
       </c>
@@ -15671,7 +14816,7 @@
         <v>147465.32300049439</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
         <v>5</v>
       </c>
@@ -15688,7 +14833,7 @@
         <v>147517.33500023838</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
         <v>15</v>
       </c>
@@ -15705,7 +14850,7 @@
         <v>147675.61900012661</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
         <v>15</v>
       </c>
@@ -15722,7 +14867,7 @@
         <v>148021.54600003269</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
         <v>15</v>
       </c>
@@ -15739,7 +14884,7 @@
         <v>148221.65500000119</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
         <v>5</v>
       </c>
@@ -15756,7 +14901,7 @@
         <v>148536.77200055681</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
         <v>15</v>
       </c>
@@ -15773,7 +14918,7 @@
         <v>148598.02000054624</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
         <v>18</v>
       </c>
@@ -15790,7 +14935,7 @@
         <v>148636.02300051134</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
         <v>5</v>
       </c>
@@ -15807,7 +14952,7 @@
         <v>148796.91200035159</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
         <v>5</v>
       </c>
@@ -15824,7 +14969,7 @@
         <v>149081.2480002176</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
         <v>18</v>
       </c>
@@ -15841,7 +14986,7 @@
         <v>149207.09800031036</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
         <v>18</v>
       </c>
@@ -15858,7 +15003,7 @@
         <v>149688.54800029658</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
         <v>15</v>
       </c>
@@ -15875,7 +15020,7 @@
         <v>149907.45600059163</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
         <v>15</v>
       </c>
@@ -15892,7 +15037,7 @@
         <v>150247.61200044304</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
         <v>5</v>
       </c>
@@ -15909,7 +15054,7 @@
         <v>150337.67399999779</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
         <v>15</v>
       </c>
@@ -15926,7 +15071,7 @@
         <v>150724.10100025591</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
         <v>5</v>
       </c>
@@ -15943,7 +15088,7 @@
         <v>150767.89200003259</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
         <v>15</v>
       </c>
@@ -15960,7 +15105,7 @@
         <v>150855.94100004528</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
         <v>5</v>
       </c>
@@ -15977,7 +15122,7 @@
         <v>151032.02500019688</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
         <v>18</v>
       </c>
@@ -15994,7 +15139,7 @@
         <v>151210.09100025985</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
         <v>5</v>
       </c>
@@ -16011,7 +15156,7 @@
         <v>151368.1710005505</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
         <v>18</v>
       </c>
@@ -16028,7 +15173,7 @@
         <v>151669.32500037365</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
         <v>5</v>
       </c>
@@ -16045,7 +15190,7 @@
         <v>151934.44200055674</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
         <v>15</v>
       </c>
@@ -16062,7 +15207,7 @@
         <v>151962.46100028511</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
         <v>5</v>
       </c>
@@ -16079,7 +15224,7 @@
         <v>152182.57000052836</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
         <v>5</v>
       </c>
@@ -16096,7 +15241,7 @@
         <v>152569.74500014912</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
         <v>18</v>
       </c>
@@ -16113,7 +15258,7 @@
         <v>152686.79700053763</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
         <v>15</v>
       </c>
@@ -16130,7 +15275,7 @@
         <v>152795.82900004461</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
         <v>18</v>
       </c>
@@ -16147,7 +15292,7 @@
         <v>152971.13300040364</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
         <v>15</v>
       </c>
@@ -16164,7 +15309,7 @@
         <v>153128.99600013625</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
         <v>15</v>
       </c>
@@ -16181,7 +15326,7 @@
         <v>153503.14500045497</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
         <v>5</v>
       </c>
@@ -16198,7 +15343,7 @@
         <v>153661.22600028757</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
         <v>15</v>
       </c>
@@ -16215,7 +15360,7 @@
         <v>153682.42700051051</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
         <v>15</v>
       </c>
@@ -16232,7 +15377,7 @@
         <v>154054.40799999051</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
         <v>15</v>
       </c>
@@ -16249,7 +15394,7 @@
         <v>154222.4880001042</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
         <v>18</v>
       </c>
@@ -16266,7 +15411,7 @@
         <v>154357.52700059675</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
         <v>18</v>
       </c>
@@ -16283,7 +15428,7 @@
         <v>154522.59700018913</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
         <v>15</v>
       </c>
@@ -16300,7 +15445,7 @@
         <v>154583.62700007856</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
         <v>5</v>
       </c>
@@ -16317,7 +15462,7 @@
         <v>154693.68900053669</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
         <v>18</v>
       </c>
@@ -16334,7 +15479,7 @@
         <v>154750.70900029968</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
         <v>15</v>
       </c>
@@ -16351,7 +15496,7 @@
         <v>154818.72800057754</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
         <v>5</v>
       </c>
@@ -16368,7 +15513,7 @@
         <v>154989.81900012586</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
         <v>15</v>
       </c>
@@ -16385,7 +15530,7 @@
         <v>155646.15200031549</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
         <v>15</v>
       </c>
@@ -16402,7 +15547,7 @@
         <v>156015.32500041649</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
         <v>18</v>
       </c>
@@ -16419,7 +15564,7 @@
         <v>156035.34100027755</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
         <v>15</v>
       </c>
@@ -16436,7 +15581,7 @@
         <v>156236.65100019425</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
         <v>18</v>
       </c>
@@ -16453,7 +15598,7 @@
         <v>156348.49100033753</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
         <v>5</v>
       </c>
@@ -16470,7 +15615,7 @@
         <v>156443.60800038557</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
         <v>18</v>
       </c>
@@ -16487,7 +15632,7 @@
         <v>156494.56000034697</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
         <v>15</v>
       </c>
@@ -16504,7 +15649,7 @@
         <v>156850.73700060602</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
         <v>5</v>
       </c>
@@ -16521,7 +15666,7 @@
         <v>156863.95100054797</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
         <v>5</v>
       </c>
@@ -16538,7 +15683,7 @@
         <v>157207.88200004026</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
         <v>15</v>
       </c>
@@ -16555,7 +15700,7 @@
         <v>157559.05100028031</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
         <v>18</v>
       </c>
@@ -16572,7 +15717,7 @@
         <v>157593.0760005489</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
         <v>5</v>
       </c>
@@ -16589,7 +15734,7 @@
         <v>157687.16300027445</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
         <v>15</v>
       </c>
@@ -16606,7 +15751,7 @@
         <v>157771.17200007197</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
         <v>18</v>
       </c>
@@ -16623,7 +15768,7 @@
         <v>157913.2630003849</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
         <v>5</v>
       </c>
@@ -16640,7 +15785,7 @@
         <v>158058.33300033119</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
         <v>18</v>
       </c>
@@ -16657,7 +15802,7 @@
         <v>158395.46200053301</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
         <v>5</v>
       </c>
@@ -16674,7 +15819,7 @@
         <v>158519.51800009701</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
         <v>15</v>
       </c>
@@ -16691,7 +15836,7 @@
         <v>158728.61200023908</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
         <v>5</v>
       </c>
@@ -16708,7 +15853,7 @@
         <v>158889.70400013495</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
         <v>5</v>
       </c>
@@ -16725,7 +15870,7 @@
         <v>159170.81100046635</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
         <v>15</v>
       </c>
@@ -16742,7 +15887,7 @@
         <v>159360.90500056744</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
         <v>5</v>
       </c>
@@ -16759,7 +15904,7 @@
         <v>159533.02600043826</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
         <v>15</v>
       </c>
@@ -16776,7 +15921,7 @@
         <v>159720.31100036111</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
         <v>18</v>
       </c>
@@ -16793,7 +15938,7 @@
         <v>159802.13700053282</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
         <v>5</v>
       </c>
@@ -16810,7 +15955,7 @@
         <v>159885.19400011282</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
         <v>5</v>
       </c>
@@ -16827,7 +15972,7 @@
         <v>160246.34800013155</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
         <v>15</v>
       </c>
@@ -16844,7 +15989,7 @@
         <v>160518.48500033375</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
         <v>5</v>
       </c>
@@ -16861,7 +16006,7 @@
         <v>160532.49400011264</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
         <v>5</v>
       </c>
@@ -16878,7 +16023,7 @@
         <v>160883.66400052328</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
         <v>18</v>
       </c>
@@ -16895,7 +16040,7 @@
         <v>161028.74900051393</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
         <v>5</v>
       </c>
@@ -16912,7 +16057,7 @@
         <v>161176.81500047911</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
         <v>15</v>
       </c>
@@ -16929,7 +16074,7 @@
         <v>161330.09100034833</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
         <v>18</v>
       </c>
@@ -16946,7 +16091,7 @@
         <v>161416.14300040528</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="3" t="s">
         <v>5</v>
       </c>
@@ -16963,7 +16108,7 @@
         <v>161743.10100052971</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="3" t="s">
         <v>18</v>
       </c>
@@ -16980,7 +16125,7 @@
         <v>162189.32500029914</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="3" t="s">
         <v>5</v>
       </c>
@@ -16997,7 +16142,7 @@
         <v>162226.34500041604</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="3" t="s">
         <v>15</v>
       </c>
@@ -17014,7 +16159,7 @@
         <v>162401.41500046011</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="3" t="s">
         <v>5</v>
       </c>
@@ -17031,7 +16176,7 @@
         <v>162500.46300035901</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="3" t="s">
         <v>18</v>
       </c>
@@ -17048,7 +16193,7 @@
         <v>162680.55600046646</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="3" t="s">
         <v>5</v>
       </c>
@@ -17065,7 +16210,7 @@
         <v>162689.5740006119</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="3" t="s">
         <v>15</v>
       </c>
@@ -17082,7 +16227,7 @@
         <v>162867.63900050428</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="3" t="s">
         <v>5</v>
       </c>
@@ -17099,7 +16244,7 @@
         <v>163028.71500018518</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="3" t="s">
         <v>5</v>
       </c>
@@ -17116,7 +16261,7 @@
         <v>163422.88000036497</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="3" t="s">
         <v>15</v>
       </c>
@@ -17133,7 +16278,7 @@
         <v>163741.28800034523</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="3" t="s">
         <v>5</v>
       </c>
@@ -17150,7 +16295,7 @@
         <v>163930.11800043751</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="3" t="s">
         <v>15</v>
       </c>
@@ -17167,7 +16312,7 @@
         <v>164284.56300005782</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="3" t="s">
         <v>18</v>
       </c>
@@ -17184,7 +16329,7 @@
         <v>164460.41300052311</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="3" t="s">
         <v>15</v>
       </c>
@@ -17201,7 +16346,7 @@
         <v>164498.41600048821</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="3" t="s">
         <v>5</v>
       </c>
@@ -17218,7 +16363,7 @@
         <v>164610.71000013035</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="3" t="s">
         <v>15</v>
       </c>
@@ -17235,7 +16380,7 @@
         <v>164716.54400036205</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="3" t="s">
         <v>5</v>
       </c>
@@ -17252,7 +16397,7 @@
         <v>164854.60900033358</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="3" t="s">
         <v>15</v>
       </c>
@@ -17269,7 +16414,7 @@
         <v>165079.69500033651</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="3" t="s">
         <v>18</v>
       </c>
@@ -17286,7 +16431,7 @@
         <v>165221.97200031951</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="3" t="s">
         <v>18</v>
       </c>
@@ -17303,7 +16448,7 @@
         <v>165556.90200005192</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="3" t="s">
         <v>5</v>
       </c>
@@ -17320,7 +16465,7 @@
         <v>165649.95900008362</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="3" t="s">
         <v>15</v>
       </c>
@@ -17337,7 +16482,7 @@
         <v>165870.08400054183</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
         <v>18</v>
       </c>
@@ -17354,7 +16499,7 @@
         <v>165899.08500057645</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="3" t="s">
         <v>5</v>
       </c>
@@ -17371,7 +16516,7 @@
         <v>165920.09900033008</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="3" t="s">
         <v>15</v>
       </c>
@@ -17388,7 +16533,7 @@
         <v>166138.22700020391</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="3" t="s">
         <v>5</v>
       </c>
@@ -17405,7 +16550,7 @@
         <v>166306.32300053257</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="3" t="s">
         <v>15</v>
       </c>
@@ -17422,7 +16567,7 @@
         <v>166530.62900011428</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="3" t="s">
         <v>5</v>
       </c>
@@ -17439,7 +16584,7 @@
         <v>166698.49100012798</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="3" t="s">
         <v>18</v>
       </c>
@@ -17456,7 +16601,7 @@
         <v>167122.68700003624</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="3" t="s">
         <v>18</v>
       </c>
@@ -17473,7 +16618,7 @@
         <v>167269.76900061127</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="3" t="s">
         <v>15</v>
       </c>
@@ -17490,7 +16635,7 @@
         <v>167525.88400023524</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="3" t="s">
         <v>18</v>
       </c>
@@ -17507,7 +16652,7 @@
         <v>167667.95900033321</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="3" t="s">
         <v>5</v>
       </c>
@@ -17524,7 +16669,7 @@
         <v>167808.02100026049</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="3" t="s">
         <v>18</v>
       </c>
@@ -17541,7 +16686,7 @@
         <v>167874.04300058261</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
         <v>5</v>
       </c>
@@ -17558,7 +16703,7 @@
         <v>168064.1360005131</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="3" t="s">
         <v>15</v>
       </c>
@@ -17575,7 +16720,7 @@
         <v>168287.25600019097</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="3" t="s">
         <v>18</v>
       </c>
@@ -17592,7 +16737,7 @@
         <v>168430.32900018152</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="3" t="s">
         <v>15</v>
       </c>
@@ -17609,7 +16754,7 @@
         <v>168619.40800000448</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="3" t="s">
         <v>5</v>
       </c>
@@ -17626,7 +16771,7 @@
         <v>169005.58600053191</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="3" t="s">
         <v>15</v>
       </c>
@@ -17643,7 +16788,7 @@
         <v>169007.58300048765</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
         <v>15</v>
       </c>
@@ -17660,7 +16805,7 @@
         <v>169399.7500005411</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
         <v>15</v>
       </c>
@@ -17677,7 +16822,7 @@
         <v>169615.07000040729</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
         <v>15</v>
       </c>
@@ -17694,7 +16839,7 @@
         <v>169836.95700033568</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
         <v>18</v>
       </c>
@@ -17711,7 +16856,7 @@
         <v>169973.01000030711</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
         <v>15</v>
       </c>
@@ -17728,7 +16873,7 @@
         <v>170130.07700003218</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="3" t="s">
         <v>18</v>
       </c>
@@ -17745,7 +16890,7 @@
         <v>170309.17200024705</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="3" t="s">
         <v>5</v>
       </c>
@@ -17762,7 +16907,7 @@
         <v>170476.23900042381</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="3" t="s">
         <v>15</v>
       </c>
@@ -17779,7 +16924,7 @@
         <v>170507.25300000049</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="3" t="s">
         <v>15</v>
       </c>
@@ -17796,7 +16941,7 @@
         <v>170803.38300021831</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="3" t="s">
         <v>131</v>
       </c>
@@ -17813,7 +16958,7 @@
         <v>170868.40700001922</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="3" t="s">
         <v>15</v>
       </c>
@@ -17830,7 +16975,7 @@
         <v>170982.47800043318</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="3" t="s">
         <v>5</v>
       </c>
@@ -17847,7 +16992,7 @@
         <v>171133.53900024667</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="3" t="s">
         <v>15</v>
       </c>
@@ -17864,7 +17009,7 @@
         <v>171503.62000060268</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="3" t="s">
         <v>5</v>
       </c>
@@ -17881,7 +17026,7 @@
         <v>171671.50100008585</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="3" t="s">
         <v>15</v>
       </c>
@@ -17898,7 +17043,7 @@
         <v>171843.45900043845</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="3" t="s">
         <v>15</v>
       </c>
@@ -17915,7 +17060,7 @@
         <v>172006.47800029255</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="3" t="s">
         <v>5</v>
       </c>
@@ -17932,7 +17077,7 @@
         <v>172171.50300038047</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="3" t="s">
         <v>15</v>
       </c>
@@ -17949,7 +17094,7 @@
         <v>172343.56900029816</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="3" t="s">
         <v>18</v>
       </c>
@@ -17966,7 +17111,7 @@
         <v>172415.59300047811</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="3" t="s">
         <v>5</v>
       </c>
@@ -17983,7 +17128,7 @@
         <v>172512.64000036754</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="3" t="s">
         <v>18</v>
       </c>

--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1604,11 +1604,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,7 +1731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1766,7 +1766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1943,29 +1943,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.296875" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>10001</v>
@@ -1997,8 +1997,12 @@
       <c r="K1" s="1">
         <v>10010</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
@@ -2006,139 +2010,139 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
@@ -2146,104 +2150,112 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>10008</v>
       </c>
@@ -2251,69 +2263,73 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>10009</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
@@ -2321,32 +2337,84 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2356,23 +2424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2491,7 @@
         <v>269.11300043575466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2508,7 @@
         <v>543.46900011878461</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2457,7 +2525,7 @@
         <v>796.35800009127706</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2542,7 @@
         <v>1075.5190003663301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2559,7 @@
         <v>1356.6610003821552</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2508,7 +2576,7 @@
         <v>1460.7180004706606</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2593,7 @@
         <v>1502.7310005621985</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +2610,7 @@
         <v>1831.8770005367696</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2559,7 +2627,7 @@
         <v>1864.1080002766103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +2644,7 @@
         <v>2087.2310004662722</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2661,7 @@
         <v>2249.2760001216084</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +2678,7 @@
         <v>2416.1420005839318</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +2695,7 @@
         <v>2672.4950005766004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2712,7 @@
         <v>2830.3280002204701</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2729,7 @@
         <v>2994.4170003058389</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2678,7 +2746,7 @@
         <v>3250.7700002985075</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +2763,7 @@
         <v>3387.8540001343936</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2780,7 @@
         <v>3638.7460001511499</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2729,7 +2797,7 @@
         <v>3837.8590005682781</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +2814,7 @@
         <v>3979.1240001562983</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2763,7 +2831,7 @@
         <v>4170.9980002837256</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2780,7 +2848,7 @@
         <v>4317.0840000500903</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +2865,7 @@
         <v>4505.1680004922673</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2882,7 @@
         <v>4846.3260002899915</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2899,7 @@
         <v>5012.6300004310906</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2916,7 @@
         <v>5250.5270001478493</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +2933,7 @@
         <v>5404.6160004101694</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2882,7 +2950,7 @@
         <v>5790.8140005776659</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2967,7 @@
         <v>5983.999000559561</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2984,7 @@
         <v>6064.9509999901056</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +3001,7 @@
         <v>6255.047000432387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +3018,7 @@
         <v>6441.1180000752211</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +3035,7 @@
         <v>6617.1880003530532</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +3052,7 @@
         <v>6808.2980002742261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3069,7 @@
         <v>6915.3510003816336</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3086,7 @@
         <v>7079.6270003076643</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -3035,7 +3103,7 @@
         <v>7180.6580002885312</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3120,7 @@
         <v>7407.5720003340393</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +3137,7 @@
         <v>7589.6420001285151</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3154,7 @@
         <v>7995.708000054583</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3171,7 @@
         <v>8202.7820000890642</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3188,7 @@
         <v>8243.8099999912083</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3205,7 @@
         <v>8567.154000280425</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +3222,7 @@
         <v>8754.2510001920164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3239,7 @@
         <v>9012.1620000572875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3256,7 @@
         <v>9048.2930000172928</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3273,7 @@
         <v>9324.3180002784356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3290,7 @@
         <v>9535.4280004743487</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3239,7 +3307,7 @@
         <v>9597.4570004269481</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3324,7 @@
         <v>9966.6489999974146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -3273,7 +3341,7 @@
         <v>10078.913000179455</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +3358,7 @@
         <v>10147.744000051171</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3307,7 +3375,7 @@
         <v>10356.841000076383</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -3324,7 +3392,7 @@
         <v>10583.942000591196</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -3341,7 +3409,7 @@
         <v>10598.950000433251</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
@@ -3358,7 +3426,7 @@
         <v>10737.017000117339</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3443,7 @@
         <v>11053.16700024996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +3460,7 @@
         <v>11141.21800060384</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3477,7 @@
         <v>11383.342000376433</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +3494,7 @@
         <v>11463.37500018999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3511,7 @@
         <v>11626.450000167824</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3528,7 @@
         <v>11789.571999991313</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3545,7 @@
         <v>11984.660000237636</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3562,7 @@
         <v>12129.716000310145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3579,7 @@
         <v>12450.094000040554</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +3596,7 @@
         <v>12487.910000164993</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -3545,7 +3613,7 @@
         <v>12762.016000575386</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -3562,7 +3630,7 @@
         <v>12981.130000180565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3647,7 @@
         <v>13196.218000072986</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3664,7 @@
         <v>13212.224000436254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3681,7 @@
         <v>13258.247000025585</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3698,7 @@
         <v>13412.305000028573</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +3715,7 @@
         <v>13869.533000537194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +3732,7 @@
         <v>14085.666000167839</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +3749,7 @@
         <v>14517.840000079013</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +3766,7 @@
         <v>14525.843000574969</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -3715,7 +3783,7 @@
         <v>14748.965000594035</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -3732,7 +3800,7 @@
         <v>14840.995000186376</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>18</v>
       </c>
@@ -3749,7 +3817,7 @@
         <v>15016.067000571638</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +3834,7 @@
         <v>15230.359000456519</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3851,7 @@
         <v>15564.310000394471</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3868,7 @@
         <v>15743.423000536859</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +3885,7 @@
         <v>15776.403000438586</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3834,7 +3902,7 @@
         <v>15844.438000302762</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -3851,7 +3919,7 @@
         <v>16275.644000410102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +3936,7 @@
         <v>16432.71300047636</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3953,7 @@
         <v>16836.867000488564</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +3970,7 @@
         <v>17079.975000279956</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3987,7 @@
         <v>17234.048000327311</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
@@ -3936,7 +4004,7 @@
         <v>17488.154000462964</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +4021,7 @@
         <v>17501.181000564247</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +4038,7 @@
         <v>17658.234000415541</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +4055,7 @@
         <v>18045.41500043124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4072,7 @@
         <v>18369.771000486799</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +4089,7 @@
         <v>18513.626000611112</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +4106,7 @@
         <v>18531.629000301473</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4123,7 @@
         <v>18580.677999998443</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -4072,7 +4140,7 @@
         <v>18759.744000295177</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -4089,7 +4157,7 @@
         <v>19107.907000067644</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -4106,7 +4174,7 @@
         <v>19248.189000436105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4191,7 @@
         <v>19438.051000563428</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4208,7 @@
         <v>19581.126000266522</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4225,7 @@
         <v>19873.267000168562</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -4174,7 +4242,7 @@
         <v>19936.512000113726</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>15</v>
       </c>
@@ -4191,7 +4259,7 @@
         <v>19964.329000585712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -4208,7 +4276,7 @@
         <v>20160.399000509642</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -4225,7 +4293,7 @@
         <v>20336.486000544392</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +4310,7 @@
         <v>20506.566000496969</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4327,7 @@
         <v>20774.665000196546</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4344,7 @@
         <v>20863.683000183664</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -4293,7 +4361,7 @@
         <v>21172.829000512138</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -4310,7 +4378,7 @@
         <v>21499.182000523433</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4395,7 @@
         <v>21821.307000308298</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -4344,7 +4412,7 @@
         <v>22206.49100036826</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4429,7 @@
         <v>22220.313000306487</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>18</v>
       </c>
@@ -4378,7 +4446,7 @@
         <v>22602.471000258811</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +4463,7 @@
         <v>22653.470000065863</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>18</v>
       </c>
@@ -4412,7 +4480,7 @@
         <v>22877.68400029745</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4497,7 @@
         <v>22911.834000516683</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -4446,7 +4514,7 @@
         <v>23233.757000416517</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +4531,7 @@
         <v>23396.817000349984</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -4480,7 +4548,7 @@
         <v>23734.964000084437</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>15</v>
       </c>
@@ -4497,7 +4565,7 @@
         <v>23751.969000510871</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>15</v>
       </c>
@@ -4514,7 +4582,7 @@
         <v>24070.116000599228</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>18</v>
       </c>
@@ -4531,7 +4599,7 @@
         <v>24097.136000264436</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>18</v>
       </c>
@@ -4548,7 +4616,7 @@
         <v>24343.28600037843</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>15</v>
       </c>
@@ -4565,7 +4633,7 @@
         <v>24369.308000151068</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4650,7 @@
         <v>24663.617000263184</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4667,7 @@
         <v>24980.532000144012</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -4616,7 +4684,7 @@
         <v>25161.610000440851</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4701,7 @@
         <v>25359.725000336766</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
@@ -4650,7 +4718,7 @@
         <v>25670.86700045038</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
@@ -4667,7 +4735,7 @@
         <v>25821.930000605062</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
@@ -4684,7 +4752,7 @@
         <v>26327.162000443786</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4769,7 @@
         <v>26337.177000311203</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -4718,7 +4786,7 @@
         <v>26453.23200034909</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -4735,7 +4803,7 @@
         <v>27096.515000285581</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
@@ -4752,7 +4820,7 @@
         <v>27140.775000234134</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4837,7 @@
         <v>27395.692000421695</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4854,7 @@
         <v>27596.786000579596</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -4803,7 +4871,7 @@
         <v>27812.093000113964</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -4820,7 +4888,7 @@
         <v>28361.146999988705</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4905,7 @@
         <v>28515.189000405371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4922,7 @@
         <v>28692.243000073358</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
@@ -4871,7 +4939,7 @@
         <v>28881.465000403114</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
@@ -4888,7 +4956,7 @@
         <v>29157.459000404924</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
@@ -4905,7 +4973,7 @@
         <v>29292.49900043942</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4990,7 @@
         <v>29350.534000480548</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="3" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +5007,7 @@
         <v>29402.78100008145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="3" t="s">
         <v>18</v>
       </c>
@@ -4956,7 +5024,7 @@
         <v>29818.745000031777</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +5041,7 @@
         <v>29863.754000142217</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="3" t="s">
         <v>18</v>
       </c>
@@ -4990,7 +5058,7 @@
         <v>29994.816000480205</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5007,7 +5075,7 @@
         <v>30128.874000208452</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -5024,7 +5092,7 @@
         <v>30266.941000521183</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="3" t="s">
         <v>18</v>
       </c>
@@ -5041,7 +5109,7 @@
         <v>30276.941000344232</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
@@ -5058,7 +5126,7 @@
         <v>30744.154000002891</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>18</v>
       </c>
@@ -5075,7 +5143,7 @@
         <v>30888.41400006786</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5092,7 +5160,7 @@
         <v>31176.311000157148</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="3" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5177,7 @@
         <v>31231.351000349969</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
@@ -5126,7 +5194,7 @@
         <v>31278.575000516139</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5211,7 @@
         <v>31387.624000408687</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>131</v>
       </c>
@@ -5160,7 +5228,7 @@
         <v>31449.435000261292</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>133</v>
       </c>
@@ -5177,7 +5245,7 @@
         <v>31511.463000043295</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +5262,7 @@
         <v>31544.490000419319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -5211,7 +5279,7 @@
         <v>31847.723000356928</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -5228,7 +5296,7 @@
         <v>32364.85800028313</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
@@ -5245,7 +5313,7 @@
         <v>32471.911000390537</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5330,7 @@
         <v>32748.123000492342</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -5279,7 +5347,7 @@
         <v>33079.203000362031</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>15</v>
       </c>
@@ -5296,7 +5364,7 @@
         <v>33192.278000595979</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>139</v>
       </c>
@@ -5313,7 +5381,7 @@
         <v>33467.383000440896</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="3" t="s">
         <v>18</v>
       </c>
@@ -5330,7 +5398,7 @@
         <v>33498.397000017576</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -5347,7 +5415,7 @@
         <v>33585.44900030829</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>142</v>
       </c>
@@ -5364,7 +5432,7 @@
         <v>33603.468000213616</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -5381,7 +5449,7 @@
         <v>33642.673000297509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="3" t="s">
         <v>18</v>
       </c>
@@ -5398,7 +5466,7 @@
         <v>33766.559000406414</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -5415,7 +5483,7 @@
         <v>33959.650000068359</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +5500,7 @@
         <v>34483.899000333622</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
         <v>15</v>
       </c>
@@ -5449,7 +5517,7 @@
         <v>34861.064000311308</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -5466,7 +5534,7 @@
         <v>35031.191000109538</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
         <v>15</v>
       </c>
@@ -5483,7 +5551,7 @@
         <v>35217.293000011705</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +5568,7 @@
         <v>35473.47400020808</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
         <v>15</v>
       </c>
@@ -5517,7 +5585,7 @@
         <v>35604.661000496708</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5602,7 @@
         <v>35748.515999992378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>18</v>
       </c>
@@ -5551,7 +5619,7 @@
         <v>35974.821000499651</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5">
       <c r="A188" s="3" t="s">
         <v>15</v>
       </c>
@@ -5568,7 +5636,7 @@
         <v>36168.708000169136</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
@@ -5585,7 +5653,7 @@
         <v>36470.864000567235</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5">
       <c r="A190" s="3" t="s">
         <v>15</v>
       </c>
@@ -5602,7 +5670,7 @@
         <v>36525.919000175782</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5">
       <c r="A191" s="3" t="s">
         <v>18</v>
       </c>
@@ -5619,7 +5687,7 @@
         <v>36663.95500022918</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -5636,7 +5704,7 @@
         <v>36796.032000216655</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="3" t="s">
         <v>18</v>
       </c>
@@ -5653,7 +5721,7 @@
         <v>37217.456000600941</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +5738,7 @@
         <v>37305.289000226185</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" s="3" t="s">
         <v>15</v>
       </c>
@@ -5687,7 +5755,7 @@
         <v>37414.338000118732</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="3" t="s">
         <v>18</v>
       </c>
@@ -5704,7 +5772,7 @@
         <v>37554.402000387199</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" s="3" t="s">
         <v>15</v>
       </c>
@@ -5721,7 +5789,7 @@
         <v>37728.491000295617</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -5738,7 +5806,7 @@
         <v>37894.562000292353</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" s="3" t="s">
         <v>15</v>
       </c>
@@ -5755,7 +5823,7 @@
         <v>38087.653000582941</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -5772,7 +5840,7 @@
         <v>38255.736000579782</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" s="3" t="s">
         <v>18</v>
       </c>
@@ -5789,7 +5857,7 @@
         <v>38511.043000034988</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -5806,7 +5874,7 @@
         <v>38764.946000115015</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" s="3" t="s">
         <v>18</v>
       </c>
@@ -5823,7 +5891,7 @@
         <v>38899.222000571899</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -5840,7 +5908,7 @@
         <v>39158.35200031288</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" s="3" t="s">
         <v>15</v>
       </c>
@@ -5857,7 +5925,7 @@
         <v>39215.185000235215</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
@@ -5874,7 +5942,7 @@
         <v>39452.302000159398</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" s="3" t="s">
         <v>15</v>
       </c>
@@ -5891,7 +5959,7 @@
         <v>39695.409000408836</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -5908,7 +5976,7 @@
         <v>39740.433000563644</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -5925,7 +5993,7 @@
         <v>39940.529000200331</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +6010,7 @@
         <v>40109.610000089742</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +6027,7 @@
         <v>40465.425000200048</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" s="3" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +6044,7 @@
         <v>40490.360000613146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -5993,7 +6061,7 @@
         <v>40714.942000131123</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -6010,7 +6078,7 @@
         <v>40973.041000007652</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="3" t="s">
         <v>15</v>
       </c>
@@ -6027,7 +6095,7 @@
         <v>41307.896000146866</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
@@ -6044,7 +6112,7 @@
         <v>41476.986000314355</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" s="3" t="s">
         <v>15</v>
       </c>
@@ -6061,7 +6129,7 @@
         <v>41641.248000366613</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -6078,7 +6146,7 @@
         <v>42072.251000418328</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6163,7 @@
         <v>42414.403000054881</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -6112,7 +6180,7 @@
         <v>42699.536000099033</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6197,7 @@
         <v>42818.601000029594</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +6214,7 @@
         <v>42853.625000361353</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +6231,7 @@
         <v>43067.729000234976</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -6180,7 +6248,7 @@
         <v>43441.911000525579</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
@@ -6197,7 +6265,7 @@
         <v>43628.97900051903</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
@@ -6214,7 +6282,7 @@
         <v>43831.0710005695</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="3" t="s">
         <v>18</v>
       </c>
@@ -6231,7 +6299,7 @@
         <v>43948.341000429355</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -6248,7 +6316,7 @@
         <v>44014.1610002378</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" s="3" t="s">
         <v>15</v>
       </c>
@@ -6265,7 +6333,7 @@
         <v>44032.164000556804</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
@@ -6282,7 +6350,7 @@
         <v>44352.306000259705</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +6367,7 @@
         <v>44596.441000490449</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -6316,7 +6384,7 @@
         <v>44753.509000386111</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -6333,7 +6401,7 @@
         <v>44906.567000155337</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
         <v>18</v>
       </c>
@@ -6350,7 +6418,7 @@
         <v>45091.888000094332</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -6367,7 +6435,7 @@
         <v>45402.826000610366</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" s="3" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6452,7 @@
         <v>45545.884000556543</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" s="3" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +6469,7 @@
         <v>45722.983000357635</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
@@ -6418,7 +6486,7 @@
         <v>45855.059000174515</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" s="3" t="s">
         <v>18</v>
       </c>
@@ -6435,7 +6503,7 @@
         <v>45953.312000236474</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +6520,7 @@
         <v>46056.152000161819</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="3" t="s">
         <v>18</v>
       </c>
@@ -6469,7 +6537,7 @@
         <v>46404.515000106767</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="3" t="s">
         <v>5</v>
       </c>
@@ -6486,7 +6554,7 @@
         <v>46451.349000376649</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
@@ -6503,7 +6571,7 @@
         <v>47293.709000246599</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -6520,7 +6588,7 @@
         <v>47577.048000390641</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
@@ -6537,7 +6605,7 @@
         <v>47852.962000574917</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="3" t="s">
         <v>15</v>
       </c>
@@ -6554,7 +6622,7 @@
         <v>48074.056000378914</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="3" t="s">
         <v>15</v>
       </c>
@@ -6571,7 +6639,7 @@
         <v>48393.215000233613</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -6588,7 +6656,7 @@
         <v>48564.308000123128</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -6605,7 +6673,7 @@
         <v>48786.384000233375</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6622,7 +6690,7 @@
         <v>48954.465000517666</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="3" t="s">
         <v>15</v>
       </c>
@@ -6639,7 +6707,7 @@
         <v>49176.573000429198</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
@@ -6656,7 +6724,7 @@
         <v>49348.664000211284</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -6673,7 +6741,7 @@
         <v>49572.737000277266</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
@@ -6690,7 +6758,7 @@
         <v>49736.794000561349</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5">
       <c r="A255" s="3" t="s">
         <v>18</v>
       </c>
@@ -6707,7 +6775,7 @@
         <v>49897.871000412852</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5">
       <c r="A256" s="3" t="s">
         <v>5</v>
       </c>
@@ -6724,7 +6792,7 @@
         <v>50191.991000343114</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5">
       <c r="A257" s="3" t="s">
         <v>15</v>
       </c>
@@ -6741,7 +6809,7 @@
         <v>50394.06700017862</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -6758,7 +6826,7 @@
         <v>50465.097000519745</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5">
       <c r="A259" s="3" t="s">
         <v>18</v>
       </c>
@@ -6775,7 +6843,7 @@
         <v>50489.106000121683</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5">
       <c r="A260" s="3" t="s">
         <v>15</v>
       </c>
@@ -6792,7 +6860,7 @@
         <v>50719.435000000522</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5">
       <c r="A261" s="3" t="s">
         <v>18</v>
       </c>
@@ -6809,7 +6877,7 @@
         <v>50729.232000396587</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5">
       <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +6894,7 @@
         <v>51167.440000595525</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5">
       <c r="A263" s="3" t="s">
         <v>15</v>
       </c>
@@ -6843,7 +6911,7 @@
         <v>51421.763000031933</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5">
       <c r="A264" s="3" t="s">
         <v>15</v>
       </c>
@@ -6860,7 +6928,7 @@
         <v>52099.847000604495</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5">
       <c r="A265" s="3" t="s">
         <v>15</v>
       </c>
@@ -6877,7 +6945,7 @@
         <v>52359.958000481129</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5">
       <c r="A266" s="3" t="s">
         <v>15</v>
       </c>
@@ -6894,7 +6962,7 @@
         <v>52513.032000465319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5">
       <c r="A267" s="3" t="s">
         <v>18</v>
       </c>
@@ -6911,7 +6979,7 @@
         <v>52659.117000061087</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +6996,7 @@
         <v>52726.137000275776</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5">
       <c r="A269" s="3" t="s">
         <v>5</v>
       </c>
@@ -6945,7 +7013,7 @@
         <v>52883.19000012707</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5">
       <c r="A270" s="3" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +7030,7 @@
         <v>53102.302000019699</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5">
       <c r="A271" s="3" t="s">
         <v>18</v>
       </c>
@@ -6979,7 +7047,7 @@
         <v>53237.575000198558</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5">
       <c r="A272" s="3" t="s">
         <v>18</v>
       </c>
@@ -6996,7 +7064,7 @@
         <v>53420.462000439875</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" s="3" t="s">
         <v>15</v>
       </c>
@@ -7013,7 +7081,7 @@
         <v>53580.744000454433</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5">
       <c r="A274" s="3" t="s">
         <v>5</v>
       </c>
@@ -7030,7 +7098,7 @@
         <v>53618.560000578873</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5">
       <c r="A275" s="3" t="s">
         <v>18</v>
       </c>
@@ -7047,7 +7115,7 @@
         <v>54078.96800043527</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5">
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +7132,7 @@
         <v>54318.875000439584</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5">
       <c r="A277" s="3" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7149,7 @@
         <v>54546.178000210784</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5">
       <c r="A278" s="3" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7166,7 @@
         <v>54702.043999987654</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" s="3" t="s">
         <v>5</v>
       </c>
@@ -7115,7 +7183,7 @@
         <v>54926.117000053637</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5">
       <c r="A280" s="3" t="s">
         <v>18</v>
       </c>
@@ -7132,7 +7200,7 @@
         <v>55156.21200024616</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
@@ -7149,7 +7217,7 @@
         <v>55291.50100001134</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5">
       <c r="A282" s="3" t="s">
         <v>18</v>
       </c>
@@ -7166,7 +7234,7 @@
         <v>55423.358000186272</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" s="3" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7251,7 @@
         <v>55803.547000559047</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5">
       <c r="A284" s="3" t="s">
         <v>15</v>
       </c>
@@ -7200,7 +7268,7 @@
         <v>55804.54599999357</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" s="3" t="s">
         <v>5</v>
       </c>
@@ -7217,7 +7285,7 @@
         <v>55918.602000363171</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5">
       <c r="A286" s="3" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +7302,7 @@
         <v>56095.686000119895</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5">
       <c r="A287" s="3" t="s">
         <v>15</v>
       </c>
@@ -7251,7 +7319,7 @@
         <v>56503.863000590354</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5">
       <c r="A288" s="3" t="s">
         <v>18</v>
       </c>
@@ -7268,7 +7336,7 @@
         <v>56607.904000463895</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5">
       <c r="A289" s="3" t="s">
         <v>15</v>
       </c>
@@ -7285,7 +7353,7 @@
         <v>56835.034000268206</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5">
       <c r="A290" s="3" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7370,7 @@
         <v>57019.107000413351</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5">
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
@@ -7319,7 +7387,7 @@
         <v>57080.12100008782</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5">
       <c r="A292" s="3" t="s">
         <v>18</v>
       </c>
@@ -7336,7 +7404,7 @@
         <v>57157.173000555485</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5">
       <c r="A293" s="3" t="s">
         <v>5</v>
       </c>
@@ -7353,7 +7421,7 @@
         <v>57404.288000590168</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5">
       <c r="A294" s="3" t="s">
         <v>18</v>
       </c>
@@ -7370,7 +7438,7 @@
         <v>57623.369000223465</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5">
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
@@ -7387,7 +7455,7 @@
         <v>57919.53300058376</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5">
       <c r="A296" s="3" t="s">
         <v>18</v>
       </c>
@@ -7404,7 +7472,7 @@
         <v>57984.790000529028</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5">
       <c r="A297" s="3" t="s">
         <v>15</v>
       </c>
@@ -7421,7 +7489,7 @@
         <v>58365.713000390679</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5">
       <c r="A298" s="3" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7506,7 @@
         <v>58576.8210002454</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5">
       <c r="A299" s="3" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +7523,7 @@
         <v>58710.894000018016</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5">
       <c r="A300" s="3" t="s">
         <v>18</v>
       </c>
@@ -7472,7 +7540,7 @@
         <v>59023.251000582241</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5">
       <c r="A301" s="3" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7557,7 @@
         <v>59131.098000355996</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5">
       <c r="A302" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7574,7 @@
         <v>59305.155000463128</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5">
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
@@ -7523,7 +7591,7 @@
         <v>59430.242000520229</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5">
       <c r="A304" s="3" t="s">
         <v>5</v>
       </c>
@@ -7540,7 +7608,7 @@
         <v>59683.363000466488</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5">
       <c r="A305" s="3" t="s">
         <v>15</v>
       </c>
@@ -7557,7 +7625,7 @@
         <v>59781.398000428453</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5">
       <c r="A306" s="3" t="s">
         <v>225</v>
       </c>
@@ -7574,7 +7642,7 @@
         <v>59875.439000478946</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5">
       <c r="A307" s="3" t="s">
         <v>18</v>
       </c>
@@ -7591,7 +7659,7 @@
         <v>59953.47400016617</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5">
       <c r="A308" s="3" t="s">
         <v>18</v>
       </c>
@@ -7608,7 +7676,7 @@
         <v>60261.822000145912</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +7693,7 @@
         <v>60440.684000216424</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5">
       <c r="A310" s="3" t="s">
         <v>5</v>
       </c>
@@ -7642,7 +7710,7 @@
         <v>60740.794000471942</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5">
       <c r="A311" s="3" t="s">
         <v>18</v>
       </c>
@@ -7659,7 +7727,7 @@
         <v>60876.864000200294</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5">
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +7744,7 @@
         <v>60931.887000007555</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -7693,7 +7761,7 @@
         <v>61056.178000057116</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -7710,7 +7778,7 @@
         <v>61531.173000228591</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -7727,7 +7795,7 @@
         <v>61732.468000100926</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5">
       <c r="A316" s="3" t="s">
         <v>18</v>
       </c>
@@ -7744,7 +7812,7 @@
         <v>61806.322000036016</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -7761,7 +7829,7 @@
         <v>61904.356999997981</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -7778,7 +7846,7 @@
         <v>62270.521000376903</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5">
       <c r="A319" s="3" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7863,7 @@
         <v>62421.707000141032</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5">
       <c r="A320" s="3" t="s">
         <v>18</v>
       </c>
@@ -7812,7 +7880,7 @@
         <v>62767.731000250205</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5">
       <c r="A321" s="3" t="s">
         <v>5</v>
       </c>
@@ -7829,7 +7897,7 @@
         <v>62812.754000234418</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +7914,7 @@
         <v>62870.789000275545</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5">
       <c r="A323" s="3" t="s">
         <v>18</v>
       </c>
@@ -7863,7 +7931,7 @@
         <v>62986.843000142835</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5">
       <c r="A324" s="3" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +7948,7 @@
         <v>63140.135000227019</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5">
       <c r="A325" s="3" t="s">
         <v>15</v>
       </c>
@@ -7897,7 +7965,7 @@
         <v>63562.321000476368</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5">
       <c r="A326" s="3" t="s">
         <v>5</v>
       </c>
@@ -7914,7 +7982,7 @@
         <v>63646.144000603817</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5">
       <c r="A327" s="3" t="s">
         <v>15</v>
       </c>
@@ -7931,7 +7999,7 @@
         <v>63723.19600044284</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5">
       <c r="A328" s="3" t="s">
         <v>18</v>
       </c>
@@ -7948,7 +8016,7 @@
         <v>63819.218000234105</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5">
       <c r="A329" s="3" t="s">
         <v>5</v>
       </c>
@@ -7965,7 +8033,7 @@
         <v>64041.310000559315</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5">
       <c r="A330" s="3" t="s">
         <v>15</v>
       </c>
@@ -7982,7 +8050,7 @@
         <v>64228.393000597134</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5">
       <c r="A331" s="3" t="s">
         <v>18</v>
       </c>
@@ -7999,7 +8067,7 @@
         <v>64253.417000477202</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5">
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8084,7 @@
         <v>64397.474000486545</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5">
       <c r="A333" s="3" t="s">
         <v>15</v>
       </c>
@@ -8033,7 +8101,7 @@
         <v>64585.55600058753</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5">
       <c r="A334" s="3" t="s">
         <v>18</v>
       </c>
@@ -8050,7 +8118,7 @@
         <v>64725.853000371717</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5">
       <c r="A335" s="3" t="s">
         <v>15</v>
       </c>
@@ -8067,7 +8135,7 @@
         <v>64879.691000562161</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5">
       <c r="A336" s="3" t="s">
         <v>5</v>
       </c>
@@ -8084,7 +8152,7 @@
         <v>65048.756000236608</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5">
       <c r="A337" s="3" t="s">
         <v>18</v>
       </c>
@@ -8101,7 +8169,7 @@
         <v>65380.895000346936</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5">
       <c r="A338" s="3" t="s">
         <v>15</v>
       </c>
@@ -8118,7 +8186,7 @@
         <v>65517.183000175282</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5">
       <c r="A339" s="3" t="s">
         <v>5</v>
       </c>
@@ -8135,7 +8203,7 @@
         <v>65627.043000119738</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5">
       <c r="A340" s="3" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +8220,7 @@
         <v>65903.16000035964</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5">
       <c r="A341" s="3" t="s">
         <v>5</v>
       </c>
@@ -8169,7 +8237,7 @@
         <v>66181.289000599645</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5">
       <c r="A342" s="3" t="s">
         <v>5</v>
       </c>
@@ -8186,7 +8254,7 @@
         <v>66460.432000318542</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5">
       <c r="A343" s="3" t="s">
         <v>15</v>
       </c>
@@ -8203,7 +8271,7 @@
         <v>66649.528000527062</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5">
       <c r="A344" s="3" t="s">
         <v>5</v>
       </c>
@@ -8220,7 +8288,7 @@
         <v>66818.593000201508</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5">
       <c r="A345" s="3" t="s">
         <v>18</v>
       </c>
@@ -8237,7 +8305,7 @@
         <v>66942.650000564754</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5">
       <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
@@ -8254,7 +8322,7 @@
         <v>67039.702000049874</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5">
       <c r="A347" s="3" t="s">
         <v>5</v>
       </c>
@@ -8271,7 +8339,7 @@
         <v>67207.79900054913</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5">
       <c r="A348" s="3" t="s">
         <v>15</v>
       </c>
@@ -8288,7 +8356,7 @@
         <v>67642.029000422917</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5">
       <c r="A349" s="3" t="s">
         <v>18</v>
       </c>
@@ -8305,7 +8373,7 @@
         <v>67736.055000429042</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5">
       <c r="A350" s="3" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +8390,7 @@
         <v>67782.07700047642</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5">
       <c r="A351" s="3" t="s">
         <v>18</v>
       </c>
@@ -8339,7 +8407,7 @@
         <v>67880.143000069074</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5">
       <c r="A352" s="3" t="s">
         <v>15</v>
       </c>
@@ -8356,7 +8424,7 @@
         <v>68232.313000084832</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5">
       <c r="A353" s="3" t="s">
         <v>15</v>
       </c>
@@ -8373,7 +8441,7 @@
         <v>68550.723000406288</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5">
       <c r="A354" s="3" t="s">
         <v>5</v>
       </c>
@@ -8390,7 +8458,7 @@
         <v>68594.514000182971</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5">
       <c r="A355" s="3" t="s">
         <v>15</v>
       </c>
@@ -8407,7 +8475,7 @@
         <v>68721.566000394523</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5">
       <c r="A356" s="3" t="s">
         <v>18</v>
       </c>
@@ -8424,7 +8492,7 @@
         <v>68803.610000037588</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5">
       <c r="A357" s="3" t="s">
         <v>5</v>
       </c>
@@ -8441,7 +8509,7 @@
         <v>69033.721000445075</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5">
       <c r="A358" s="3" t="s">
         <v>15</v>
       </c>
@@ -8458,7 +8526,7 @@
         <v>69175.001000077464</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5">
       <c r="A359" s="3" t="s">
         <v>18</v>
       </c>
@@ -8475,7 +8543,7 @@
         <v>69257.825000141747</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5">
       <c r="A360" s="3" t="s">
         <v>5</v>
       </c>
@@ -8492,7 +8560,7 @@
         <v>69501.960000372492</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5">
       <c r="A361" s="3" t="s">
         <v>15</v>
       </c>
@@ -8509,7 +8577,7 @@
         <v>69579.995000059716</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5">
       <c r="A362" s="3" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8594,7 @@
         <v>69853.116000280716</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5">
       <c r="A363" s="3" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +8611,7 @@
         <v>70019.217000366189</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5">
       <c r="A364" s="3" t="s">
         <v>15</v>
       </c>
@@ -8560,7 +8628,7 @@
         <v>70350.372999999672</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5">
       <c r="A365" s="3" t="s">
         <v>5</v>
       </c>
@@ -8577,7 +8645,7 @@
         <v>70372.386000445113</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5">
       <c r="A366" s="3" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8662,7 @@
         <v>70566.490000043996</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5">
       <c r="A367" s="3" t="s">
         <v>5</v>
       </c>
@@ -8611,7 +8679,7 @@
         <v>70742.575000366196</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5">
       <c r="A368" s="3" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8696,7 @@
         <v>70959.674000088125</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5">
       <c r="A369" s="3" t="s">
         <v>15</v>
       </c>
@@ -8645,7 +8713,7 @@
         <v>71122.982000210322</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5">
       <c r="A370" s="3" t="s">
         <v>5</v>
       </c>
@@ -8662,7 +8730,7 @@
         <v>71291.844000457786</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5">
       <c r="A371" s="3" t="s">
         <v>15</v>
       </c>
@@ -8679,7 +8747,7 @@
         <v>71456.931000435725</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5">
       <c r="A372" s="3" t="s">
         <v>18</v>
       </c>
@@ -8696,7 +8764,7 @@
         <v>71620.020000287332</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5">
       <c r="A373" s="3" t="s">
         <v>5</v>
       </c>
@@ -8713,7 +8781,7 @@
         <v>71621.019000350498</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5">
       <c r="A374" s="3" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8798,7 @@
         <v>71815.154000208713</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5">
       <c r="A375" s="3" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8815,7 @@
         <v>72164.298000116833</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5">
       <c r="A376" s="3" t="s">
         <v>5</v>
       </c>
@@ -8764,7 +8832,7 @@
         <v>72179.352000262588</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5">
       <c r="A377" s="3" t="s">
         <v>18</v>
       </c>
@@ -8781,7 +8849,7 @@
         <v>72588.51200058125</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5">
       <c r="A378" s="3" t="s">
         <v>18</v>
       </c>
@@ -8798,7 +8866,7 @@
         <v>72733.832000428811</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5">
       <c r="A379" s="3" t="s">
         <v>5</v>
       </c>
@@ -8815,7 +8883,7 @@
         <v>72748.591000540182</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5">
       <c r="A380" s="3" t="s">
         <v>15</v>
       </c>
@@ -8832,7 +8900,7 @@
         <v>72888.669000053778</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5">
       <c r="A381" s="3" t="s">
         <v>5</v>
       </c>
@@ -8849,7 +8917,7 @@
         <v>73059.981000213884</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5">
       <c r="A382" s="3" t="s">
         <v>15</v>
       </c>
@@ -8866,7 +8934,7 @@
         <v>73507.061000168324</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5">
       <c r="A383" s="3" t="s">
         <v>5</v>
       </c>
@@ -8883,7 +8951,7 @@
         <v>73674.976000422612</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5">
       <c r="A384" s="3" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8968,7 @@
         <v>73861.972000077367</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5">
       <c r="A385" s="3" t="s">
         <v>15</v>
       </c>
@@ -8917,7 +8985,7 @@
         <v>74055.223000003025</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5">
       <c r="A386" s="3" t="s">
         <v>15</v>
       </c>
@@ -8934,7 +9002,7 @@
         <v>74381.133000506088</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5">
       <c r="A387" s="3" t="s">
         <v>5</v>
       </c>
@@ -8951,7 +9019,7 @@
         <v>74698.485000128858</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5">
       <c r="A388" s="3" t="s">
         <v>5</v>
       </c>
@@ -8968,7 +9036,7 @@
         <v>74944.378000404686</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5">
       <c r="A389" s="3" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +9053,7 @@
         <v>74992.396000237204</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5">
       <c r="A390" s="3" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9070,7 @@
         <v>75328.806000365876</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5">
       <c r="A391" s="3" t="s">
         <v>18</v>
       </c>
@@ -9019,7 +9087,7 @@
         <v>75410.600000107661</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5">
       <c r="A392" s="3" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9104,7 @@
         <v>75483.64200044889</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5">
       <c r="A393" s="3" t="s">
         <v>18</v>
       </c>
@@ -9053,7 +9121,7 @@
         <v>75628.712000395171</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5">
       <c r="A394" s="3" t="s">
         <v>5</v>
       </c>
@@ -9070,7 +9138,7 @@
         <v>75684.936000150628</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5">
       <c r="A395" s="3" t="s">
         <v>15</v>
       </c>
@@ -9087,7 +9155,7 @@
         <v>75804.780000331812</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5">
       <c r="A396" s="3" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9172,7 @@
         <v>76191.971000167541</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5">
       <c r="A397" s="3" t="s">
         <v>15</v>
       </c>
@@ -9121,7 +9189,7 @@
         <v>76526.121000107378</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5">
       <c r="A398" s="3" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +9206,7 @@
         <v>76846.245000511408</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5">
       <c r="A399" s="3" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +9223,7 @@
         <v>76900.364000117406</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5">
       <c r="A400" s="3" t="s">
         <v>5</v>
       </c>
@@ -9172,7 +9240,7 @@
         <v>77106.588000361808</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5">
       <c r="A401" s="3" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +9257,7 @@
         <v>77235.433000302874</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5">
       <c r="A402" s="3" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9274,7 @@
         <v>77365.4950004071</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5">
       <c r="A403" s="3" t="s">
         <v>15</v>
       </c>
@@ -9223,7 +9291,7 @@
         <v>77581.595000065863</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5">
       <c r="A404" s="3" t="s">
         <v>18</v>
       </c>
@@ -9240,7 +9308,7 @@
         <v>77741.647000447847</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5">
       <c r="A405" s="3" t="s">
         <v>5</v>
       </c>
@@ -9257,7 +9325,7 @@
         <v>77748.65800018888</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5">
       <c r="A406" s="3" t="s">
         <v>15</v>
       </c>
@@ -9274,7 +9342,7 @@
         <v>77991.97500043083</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5">
       <c r="A407" s="3" t="s">
         <v>5</v>
       </c>
@@ -9291,7 +9359,7 @@
         <v>78216.904000053182</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5">
       <c r="A408" s="3" t="s">
         <v>18</v>
       </c>
@@ -9308,7 +9376,7 @@
         <v>78465.234000538476</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5">
       <c r="A409" s="3" t="s">
         <v>15</v>
       </c>
@@ -9325,7 +9393,7 @@
         <v>78516.061000549234</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5">
       <c r="A410" s="3" t="s">
         <v>5</v>
       </c>
@@ -9342,7 +9410,7 @@
         <v>78944.251000368968</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5">
       <c r="A411" s="3" t="s">
         <v>15</v>
       </c>
@@ -9359,7 +9427,7 @@
         <v>79133.346000406891</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5">
       <c r="A412" s="3" t="s">
         <v>5</v>
       </c>
@@ -9376,7 +9444,7 @@
         <v>79299.414000520483</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5">
       <c r="A413" s="3" t="s">
         <v>15</v>
       </c>
@@ -9393,7 +9461,7 @@
         <v>79515.560000482947</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5">
       <c r="A414" s="3" t="s">
         <v>5</v>
       </c>
@@ -9410,7 +9478,7 @@
         <v>79848.727000574581</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5">
       <c r="A415" s="3" t="s">
         <v>18</v>
       </c>
@@ -9427,7 +9495,7 @@
         <v>79938.742000283673</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5">
       <c r="A416" s="3" t="s">
         <v>15</v>
       </c>
@@ -9444,7 +9512,7 @@
         <v>79943.75000030268</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5">
       <c r="A417" s="3" t="s">
         <v>5</v>
       </c>
@@ -9461,7 +9529,7 @@
         <v>80125.87099999655</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5">
       <c r="A418" s="3" t="s">
         <v>15</v>
       </c>
@@ -9478,7 +9546,7 @@
         <v>80464.03000052087</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5">
       <c r="A419" s="3" t="s">
         <v>5</v>
       </c>
@@ -9495,7 +9563,7 @@
         <v>80628.117000265047</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5">
       <c r="A420" s="3" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9580,7 @@
         <v>80984.310000110418</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5">
       <c r="A421" s="3" t="s">
         <v>5</v>
       </c>
@@ -9529,7 +9597,7 @@
         <v>81127.383000100963</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5">
       <c r="A422" s="3" t="s">
         <v>18</v>
       </c>
@@ -9546,7 +9614,7 @@
         <v>81459.551000129431</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5">
       <c r="A423" s="3" t="s">
         <v>15</v>
       </c>
@@ -9563,7 +9631,7 @@
         <v>81509.567000088282</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5">
       <c r="A424" s="3" t="s">
         <v>5</v>
       </c>
@@ -9580,7 +9648,7 @@
         <v>81514.715000102296</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5">
       <c r="A425" s="3" t="s">
         <v>15</v>
       </c>
@@ -9597,7 +9665,7 @@
         <v>81787.71000020206</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5">
       <c r="A426" s="3" t="s">
         <v>5</v>
       </c>
@@ -9614,7 +9682,7 @@
         <v>81906.805000221357</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5">
       <c r="A427" s="3" t="s">
         <v>15</v>
       </c>
@@ -9631,7 +9699,7 @@
         <v>82095.868000457995</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5">
       <c r="A428" s="3" t="s">
         <v>18</v>
       </c>
@@ -9648,7 +9716,7 @@
         <v>82317.974000028335</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5">
       <c r="A429" s="3" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +9733,7 @@
         <v>82394.01100021787</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5">
       <c r="A430" s="3" t="s">
         <v>15</v>
       </c>
@@ -9682,7 +9750,7 @@
         <v>82763.200000533834</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5">
       <c r="A431" s="3" t="s">
         <v>296</v>
       </c>
@@ -9699,7 +9767,7 @@
         <v>83258.441000198945</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5">
       <c r="A432" s="3" t="s">
         <v>298</v>
       </c>
@@ -9716,7 +9784,7 @@
         <v>83290.656000352465</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5">
       <c r="A433" s="3" t="s">
         <v>300</v>
       </c>
@@ -9733,7 +9801,7 @@
         <v>83327.48900000006</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5">
       <c r="A434" s="3" t="s">
         <v>5</v>
       </c>
@@ -9750,7 +9818,7 @@
         <v>84295.603000558913</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5">
       <c r="A435" s="3" t="s">
         <v>18</v>
       </c>
@@ -9767,7 +9835,7 @@
         <v>84534.932000027038</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5">
       <c r="A436" s="3" t="s">
         <v>5</v>
       </c>
@@ -9784,7 +9852,7 @@
         <v>85368.316000001505</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5">
       <c r="A437" s="3" t="s">
         <v>5</v>
       </c>
@@ -9801,7 +9869,7 @@
         <v>85747.31700012926</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5">
       <c r="A438" s="3" t="s">
         <v>18</v>
       </c>
@@ -9818,7 +9886,7 @@
         <v>85967.426000372507</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5">
       <c r="A439" s="3" t="s">
         <v>5</v>
       </c>
@@ -9835,7 +9903,7 @@
         <v>86017.441000160761</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5">
       <c r="A440" s="3" t="s">
         <v>5</v>
       </c>
@@ -9852,7 +9920,7 @@
         <v>86502.682000002824</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5">
       <c r="A441" s="3" t="s">
         <v>5</v>
       </c>
@@ -9869,7 +9937,7 @@
         <v>86744.008000055328</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5">
       <c r="A442" s="3" t="s">
         <v>15</v>
       </c>
@@ -9886,7 +9954,7 @@
         <v>86813.025000225753</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5">
       <c r="A443" s="3" t="s">
         <v>15</v>
       </c>
@@ -9903,7 +9971,7 @@
         <v>86967.877000523731</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5">
       <c r="A444" s="3" t="s">
         <v>18</v>
       </c>
@@ -9920,7 +9988,7 @@
         <v>87125.942000141367</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5">
       <c r="A445" s="3" t="s">
         <v>5</v>
       </c>
@@ -9937,7 +10005,7 @@
         <v>87127.939000097103</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5">
       <c r="A446" s="3" t="s">
         <v>15</v>
       </c>
@@ -9954,7 +10022,7 @@
         <v>87341.230000206269</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5">
       <c r="A447" s="3" t="s">
         <v>15</v>
       </c>
@@ -9971,7 +10039,7 @@
         <v>87619.139000005089</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5">
       <c r="A448" s="3" t="s">
         <v>5</v>
       </c>
@@ -9988,7 +10056,7 @@
         <v>87781.432000477798</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5">
       <c r="A449" s="3" t="s">
         <v>15</v>
       </c>
@@ -10005,7 +10073,7 @@
         <v>87968.281000200659</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5">
       <c r="A450" s="3" t="s">
         <v>5</v>
       </c>
@@ -10022,7 +10090,7 @@
         <v>88244.411000143737</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5">
       <c r="A451" s="3" t="s">
         <v>15</v>
       </c>
@@ -10039,7 +10107,7 @@
         <v>88310.652000107802</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5">
       <c r="A452" s="3" t="s">
         <v>15</v>
       </c>
@@ -10056,7 +10124,7 @@
         <v>88682.585000200197</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5">
       <c r="A453" s="3" t="s">
         <v>15</v>
       </c>
@@ -10073,7 +10141,7 @@
         <v>88841.665000095963</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5">
       <c r="A454" s="3" t="s">
         <v>15</v>
       </c>
@@ -10090,7 +10158,7 @@
         <v>89041.758000478148</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5">
       <c r="A455" s="3" t="s">
         <v>18</v>
       </c>
@@ -10107,7 +10175,7 @@
         <v>89154.831000370905</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5">
       <c r="A456" s="3" t="s">
         <v>5</v>
       </c>
@@ -10124,7 +10192,7 @@
         <v>89183.833000576124</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5">
       <c r="A457" s="3" t="s">
         <v>15</v>
       </c>
@@ -10141,7 +10209,7 @@
         <v>89463.988000061363</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5">
       <c r="A458" s="3" t="s">
         <v>5</v>
       </c>
@@ -10158,7 +10226,7 @@
         <v>89496.219000429846</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5">
       <c r="A459" s="3" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10243,7 @@
         <v>89807.123000174761</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5">
       <c r="A460" s="3" t="s">
         <v>15</v>
       </c>
@@ -10192,7 +10260,7 @@
         <v>90042.427000100724</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5">
       <c r="A461" s="3" t="s">
         <v>5</v>
       </c>
@@ -10209,7 +10277,7 @@
         <v>90377.35700046178</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5">
       <c r="A462" s="3" t="s">
         <v>15</v>
       </c>
@@ -10226,7 +10294,7 @@
         <v>90938.588000019081</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5">
       <c r="A463" s="3" t="s">
         <v>15</v>
       </c>
@@ -10243,7 +10311,7 @@
         <v>91077.652000053786</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5">
       <c r="A464" s="3" t="s">
         <v>18</v>
       </c>
@@ -10260,7 +10328,7 @@
         <v>91092.660000524484</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5">
       <c r="A465" s="3" t="s">
         <v>18</v>
       </c>
@@ -10277,7 +10345,7 @@
         <v>91324.765000375919</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5">
       <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
@@ -10294,7 +10362,7 @@
         <v>91402.815000107512</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5">
       <c r="A467" s="3" t="s">
         <v>5</v>
       </c>
@@ -10311,7 +10379,7 @@
         <v>91553.876000549644</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10396,7 @@
         <v>91610.912000527605</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5">
       <c r="A469" s="3" t="s">
         <v>15</v>
       </c>
@@ -10345,7 +10413,7 @@
         <v>91909.024000028148</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5">
       <c r="A470" s="3" t="s">
         <v>15</v>
       </c>
@@ -10362,7 +10430,7 @@
         <v>92284.156000195071</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5">
       <c r="A471" s="3" t="s">
         <v>5</v>
       </c>
@@ -10379,7 +10447,7 @@
         <v>92490.271000075154</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5">
       <c r="A472" s="3" t="s">
         <v>15</v>
       </c>
@@ -10396,7 +10464,7 @@
         <v>92552.314000530168</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5">
       <c r="A473" s="3" t="s">
         <v>18</v>
       </c>
@@ -10413,7 +10481,7 @@
         <v>92565.528000472113</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5">
       <c r="A474" s="3" t="s">
         <v>15</v>
       </c>
@@ -10430,7 +10498,7 @@
         <v>92857.462000264786</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5">
       <c r="A475" s="3" t="s">
         <v>5</v>
       </c>
@@ -10447,7 +10515,7 @@
         <v>93065.543000469916</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5">
       <c r="A476" s="3" t="s">
         <v>15</v>
       </c>
@@ -10464,7 +10532,7 @@
         <v>93180.597000103444</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5">
       <c r="A477" s="3" t="s">
         <v>5</v>
       </c>
@@ -10481,7 +10549,7 @@
         <v>93329.69200022053</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5">
       <c r="A478" s="3" t="s">
         <v>18</v>
       </c>
@@ -10498,7 +10566,7 @@
         <v>93501.767000416294</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5">
       <c r="A479" s="3" t="s">
         <v>5</v>
       </c>
@@ -10515,7 +10583,7 @@
         <v>93875.947000365704</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5">
       <c r="A480" s="3" t="s">
         <v>15</v>
       </c>
@@ -10532,7 +10600,7 @@
         <v>93993.014000169933</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5">
       <c r="A481" s="3" t="s">
         <v>5</v>
       </c>
@@ -10549,7 +10617,7 @@
         <v>94152.296000579372</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5">
       <c r="A482" s="3" t="s">
         <v>15</v>
       </c>
@@ -10566,7 +10634,7 @@
         <v>94339.378999988548</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5">
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
@@ -10583,7 +10651,7 @@
         <v>94474.230000469834</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5">
       <c r="A484" s="3" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +10668,7 @@
         <v>94746.554000512697</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5">
       <c r="A485" s="3" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +10685,7 @@
         <v>95101.546000409871</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5">
       <c r="A486" s="3" t="s">
         <v>331</v>
       </c>
@@ -10634,7 +10702,7 @@
         <v>95171.780000114813</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5">
       <c r="A487" s="3" t="s">
         <v>333</v>
       </c>
@@ -10651,7 +10719,7 @@
         <v>95239.596000337042</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5">
       <c r="A488" s="3" t="s">
         <v>15</v>
       </c>
@@ -10668,7 +10736,7 @@
         <v>95339.627000084147</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5">
       <c r="A489" s="3" t="s">
         <v>18</v>
       </c>
@@ -10685,7 +10753,7 @@
         <v>95348.628000472672</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5">
       <c r="A490" s="3" t="s">
         <v>5</v>
       </c>
@@ -10702,7 +10770,7 @@
         <v>95757.00500048697</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5">
       <c r="A491" s="3" t="s">
         <v>337</v>
       </c>
@@ -10719,7 +10787,7 @@
         <v>96026.942000049166</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5">
       <c r="A492" s="3" t="s">
         <v>339</v>
       </c>
@@ -10736,7 +10804,7 @@
         <v>97230.046000401489</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5">
       <c r="A493" s="3" t="s">
         <v>15</v>
       </c>
@@ -10753,7 +10821,7 @@
         <v>97793.306000344455</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5">
       <c r="A494" s="3" t="s">
         <v>5</v>
       </c>
@@ -10770,7 +10838,7 @@
         <v>97950.38800011389</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5">
       <c r="A495" s="3" t="s">
         <v>15</v>
       </c>
@@ -10787,7 +10855,7 @@
         <v>98128.46900022123</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5">
       <c r="A496" s="3" t="s">
         <v>5</v>
       </c>
@@ -10804,7 +10872,7 @@
         <v>98284.569000313058</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5">
       <c r="A497" s="3" t="s">
         <v>15</v>
       </c>
@@ -10821,7 +10889,7 @@
         <v>98499.639000277966</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5">
       <c r="A498" s="3" t="s">
         <v>343</v>
       </c>
@@ -10838,7 +10906,7 @@
         <v>98625.692000426352</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5">
       <c r="A499" s="3" t="s">
         <v>18</v>
       </c>
@@ -10855,7 +10923,7 @@
         <v>98640.699000097811</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5">
       <c r="A500" s="3" t="s">
         <v>346</v>
       </c>
@@ -10872,7 +10940,7 @@
         <v>98667.704000347294</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5">
       <c r="A501" s="3" t="s">
         <v>15</v>
       </c>
@@ -10889,7 +10957,7 @@
         <v>98799.778999993578</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5">
       <c r="A502" s="3" t="s">
         <v>5</v>
       </c>
@@ -10906,7 +10974,7 @@
         <v>99060.886000050232</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5">
       <c r="A503" s="3" t="s">
         <v>15</v>
       </c>
@@ -10923,7 +10991,7 @@
         <v>99404.052000422962</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5">
       <c r="A504" s="3" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +11008,7 @@
         <v>99721.399999991991</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5">
       <c r="A505" s="3" t="s">
         <v>5</v>
       </c>
@@ -10957,7 +11025,7 @@
         <v>99892.242000438273</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5">
       <c r="A506" s="3" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +11042,7 @@
         <v>100119.35600002762</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5">
       <c r="A507" s="3" t="s">
         <v>5</v>
       </c>
@@ -10991,7 +11059,7 @@
         <v>100284.42500007804</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5">
       <c r="A508" s="3" t="s">
         <v>15</v>
       </c>
@@ -11008,7 +11076,7 @@
         <v>100508.54400044773</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5">
       <c r="A509" s="3" t="s">
         <v>5</v>
       </c>
@@ -11025,7 +11093,7 @@
         <v>100679.63499999605</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5">
       <c r="A510" s="3" t="s">
         <v>18</v>
       </c>
@@ -11042,7 +11110,7 @@
         <v>100751.66300022975</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5">
       <c r="A511" s="3" t="s">
         <v>15</v>
       </c>
@@ -11059,7 +11127,7 @@
         <v>100872.72400057409</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5">
       <c r="A512" s="3" t="s">
         <v>5</v>
       </c>
@@ -11076,7 +11144,7 @@
         <v>101041.78800007794</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5">
       <c r="A513" s="3" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11161,7 @@
         <v>101261.89700032119</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5">
       <c r="A514" s="3" t="s">
         <v>18</v>
       </c>
@@ -11110,7 +11178,7 @@
         <v>101416.9510005042</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5">
       <c r="A515" s="3" t="s">
         <v>15</v>
       </c>
@@ -11127,7 +11195,7 @@
         <v>101561.03800060228</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5">
       <c r="A516" s="3" t="s">
         <v>5</v>
       </c>
@@ -11144,7 +11212,7 @@
         <v>101728.10500015039</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5">
       <c r="A517" s="3" t="s">
         <v>18</v>
       </c>
@@ -11161,7 +11229,7 @@
         <v>101977.41800048389</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5">
       <c r="A518" s="3" t="s">
         <v>5</v>
       </c>
@@ -11178,7 +11246,7 @@
         <v>102231.31800005212</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5">
       <c r="A519" s="3" t="s">
         <v>15</v>
       </c>
@@ -11195,7 +11263,7 @@
         <v>102419.39900061116</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5">
       <c r="A520" s="3" t="s">
         <v>5</v>
       </c>
@@ -11212,7 +11280,7 @@
         <v>102593.50100022275</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5">
       <c r="A521" s="3" t="s">
         <v>15</v>
       </c>
@@ -11229,7 +11297,7 @@
         <v>102811.58200025093</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5">
       <c r="A522" s="3" t="s">
         <v>5</v>
       </c>
@@ -11246,7 +11314,7 @@
         <v>103090.70800021291</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5">
       <c r="A523" s="3" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +11331,7 @@
         <v>103203.7660000613</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5">
       <c r="A524" s="3" t="s">
         <v>5</v>
       </c>
@@ -11280,7 +11348,7 @@
         <v>103373.85900034569</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5">
       <c r="A525" s="3" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +11365,7 @@
         <v>103557.94600036461</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5">
       <c r="A526" s="3" t="s">
         <v>15</v>
       </c>
@@ -11314,7 +11382,7 @@
         <v>103720.00500052236</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5">
       <c r="A527" s="3" t="s">
         <v>5</v>
       </c>
@@ -11331,7 +11399,7 @@
         <v>103851.06600006111</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5">
       <c r="A528" s="3" t="s">
         <v>15</v>
       </c>
@@ -11348,7 +11416,7 @@
         <v>104036.15100060124</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5">
       <c r="A529" s="3" t="s">
         <v>18</v>
       </c>
@@ -11365,7 +11433,7 @@
         <v>104177.19600037672</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5">
       <c r="A530" s="3" t="s">
         <v>15</v>
       </c>
@@ -11382,7 +11450,7 @@
         <v>104357.29000002611</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5">
       <c r="A531" s="3" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +11467,7 @@
         <v>104528.36600015871</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5">
       <c r="A532" s="3" t="s">
         <v>18</v>
       </c>
@@ -11416,7 +11484,7 @@
         <v>104780.50300008617</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5">
       <c r="A533" s="3" t="s">
         <v>15</v>
       </c>
@@ -11433,7 +11501,7 @@
         <v>105103.66900018416</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5">
       <c r="A534" s="3" t="s">
         <v>15</v>
       </c>
@@ -11450,7 +11518,7 @@
         <v>105417.80300026294</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5">
       <c r="A535" s="3" t="s">
         <v>15</v>
       </c>
@@ -11467,7 +11535,7 @@
         <v>105586.08700060286</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5">
       <c r="A536" s="3" t="s">
         <v>18</v>
       </c>
@@ -11484,7 +11552,7 @@
         <v>105678.14600011334</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5">
       <c r="A537" s="3" t="s">
         <v>15</v>
       </c>
@@ -11501,7 +11569,7 @@
         <v>105790.98500031978</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5">
       <c r="A538" s="3" t="s">
         <v>18</v>
       </c>
@@ -11518,7 +11586,7 @@
         <v>105972.06100027543</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5">
       <c r="A539" s="3" t="s">
         <v>15</v>
       </c>
@@ -11535,7 +11603,7 @@
         <v>106146.13200025633</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5">
       <c r="A540" s="3" t="s">
         <v>15</v>
       </c>
@@ -11552,7 +11620,7 @@
         <v>106446.27200060058</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5">
       <c r="A541" s="3" t="s">
         <v>18</v>
       </c>
@@ -11569,7 +11637,7 @@
         <v>106549.34600021224</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5">
       <c r="A542" s="3" t="s">
         <v>15</v>
       </c>
@@ -11586,7 +11654,7 @@
         <v>106653.3550002845</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5">
       <c r="A543" s="3" t="s">
         <v>5</v>
       </c>
@@ -11603,7 +11671,7 @@
         <v>106923.479000316</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5">
       <c r="A544" s="3" t="s">
         <v>368</v>
       </c>
@@ -11620,7 +11688,7 @@
         <v>107816.89400011674</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5">
       <c r="A545" s="3" t="s">
         <v>18</v>
       </c>
@@ -11637,7 +11705,7 @@
         <v>108947.3550003022</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5">
       <c r="A546" s="3" t="s">
         <v>15</v>
       </c>
@@ -11654,7 +11722,7 @@
         <v>109068.36900017224</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5">
       <c r="A547" s="3" t="s">
         <v>18</v>
       </c>
@@ -11671,7 +11739,7 @@
         <v>109235.23300029337</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5">
       <c r="A548" s="3" t="s">
         <v>5</v>
       </c>
@@ -11688,7 +11756,7 @@
         <v>109353.28200040385</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5">
       <c r="A549" s="3" t="s">
         <v>15</v>
       </c>
@@ -11705,7 +11773,7 @@
         <v>109654.436000227</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5">
       <c r="A550" s="3" t="s">
         <v>5</v>
       </c>
@@ -11722,7 +11790,7 @@
         <v>109808.50800010376</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5">
       <c r="A551" s="3" t="s">
         <v>5</v>
       </c>
@@ -11739,7 +11807,7 @@
         <v>110363.76400000881</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5">
       <c r="A552" s="3" t="s">
         <v>15</v>
       </c>
@@ -11756,7 +11824,7 @@
         <v>110468.00800056662</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5">
       <c r="A553" s="3" t="s">
         <v>18</v>
       </c>
@@ -11773,7 +11841,7 @@
         <v>110476.79100022651</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5">
       <c r="A554" s="3" t="s">
         <v>5</v>
       </c>
@@ -11790,7 +11858,7 @@
         <v>110687.89800053928</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5">
       <c r="A555" s="3" t="s">
         <v>18</v>
       </c>
@@ -11807,7 +11875,7 @@
         <v>110783.99800043553</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5">
       <c r="A556" s="3" t="s">
         <v>5</v>
       </c>
@@ -11824,7 +11892,7 @@
         <v>110887.97600024845</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5">
       <c r="A557" s="3" t="s">
         <v>18</v>
       </c>
@@ -11841,7 +11909,7 @@
         <v>111234.12200042512</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5">
       <c r="A558" s="3" t="s">
         <v>5</v>
       </c>
@@ -11858,7 +11926,7 @@
         <v>111441.22000015341</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5">
       <c r="A559" s="3" t="s">
         <v>15</v>
       </c>
@@ -11875,7 +11943,7 @@
         <v>111557.27300047874</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5">
       <c r="A560" s="3" t="s">
         <v>376</v>
       </c>
@@ -11892,7 +11960,7 @@
         <v>111807.36600060482</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5">
       <c r="A561" s="3" t="s">
         <v>15</v>
       </c>
@@ -11909,7 +11977,7 @@
         <v>111841.3750000298</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5">
       <c r="A562" s="3" t="s">
         <v>378</v>
       </c>
@@ -11926,7 +11994,7 @@
         <v>111842.38900013734</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5">
       <c r="A563" s="3" t="s">
         <v>5</v>
       </c>
@@ -11943,7 +12011,7 @@
         <v>111970.43900024146</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5">
       <c r="A564" s="3" t="s">
         <v>15</v>
       </c>
@@ -11960,7 +12028,7 @@
         <v>112143.51200032979</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5">
       <c r="A565" s="3" t="s">
         <v>5</v>
       </c>
@@ -11977,7 +12045,7 @@
         <v>112304.57300059497</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5">
       <c r="A566" s="3" t="s">
         <v>5</v>
       </c>
@@ -11994,7 +12062,7 @@
         <v>112635.74200056028</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5">
       <c r="A567" s="3" t="s">
         <v>18</v>
       </c>
@@ -12011,7 +12079,7 @@
         <v>112966.0850004293</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5">
       <c r="A568" s="3" t="s">
         <v>15</v>
       </c>
@@ -12028,7 +12096,7 @@
         <v>113101.93500034511</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5">
       <c r="A569" s="3" t="s">
         <v>5</v>
       </c>
@@ -12045,7 +12113,7 @@
         <v>113250.01600035466</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5">
       <c r="A570" s="3" t="s">
         <v>5</v>
       </c>
@@ -12062,7 +12130,7 @@
         <v>113519.12600027863</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5">
       <c r="A571" s="3" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12147,7 @@
         <v>113957.31600055005</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5">
       <c r="A572" s="3" t="s">
         <v>5</v>
       </c>
@@ -12096,7 +12164,7 @@
         <v>114052.35500049312</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5">
       <c r="A573" s="3" t="s">
         <v>18</v>
       </c>
@@ -12113,7 +12181,7 @@
         <v>114078.57900015078</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5">
       <c r="A574" s="3" t="s">
         <v>15</v>
       </c>
@@ -12130,7 +12198,7 @@
         <v>114260.4360000696</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5">
       <c r="A575" s="3" t="s">
         <v>5</v>
       </c>
@@ -12147,7 +12215,7 @@
         <v>114389.4840000663</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5">
       <c r="A576" s="3" t="s">
         <v>15</v>
       </c>
@@ -12164,7 +12232,7 @@
         <v>114766.64400044829</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5">
       <c r="A577" s="3" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +12249,7 @@
         <v>115172.80500023626</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5">
       <c r="A578" s="3" t="s">
         <v>18</v>
       </c>
@@ -12198,7 +12266,7 @@
         <v>115263.07000047527</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5">
       <c r="A579" s="3" t="s">
         <v>5</v>
       </c>
@@ -12215,7 +12283,7 @@
         <v>115307.86000031512</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
         <v>15</v>
       </c>
@@ -12232,7 +12300,7 @@
         <v>115323.89700030908</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5">
       <c r="A581" s="3" t="s">
         <v>18</v>
       </c>
@@ -12249,7 +12317,7 @@
         <v>115830.10600022972</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5">
       <c r="A582" s="3" t="s">
         <v>18</v>
       </c>
@@ -12266,7 +12334,7 @@
         <v>115968.38900030125</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5">
       <c r="A583" s="3" t="s">
         <v>5</v>
       </c>
@@ -12283,7 +12351,7 @@
         <v>116004.19300042558</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5">
       <c r="A584" s="3" t="s">
         <v>15</v>
       </c>
@@ -12300,7 +12368,7 @@
         <v>116054.19300016947</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5">
       <c r="A585" s="3" t="s">
         <v>18</v>
       </c>
@@ -12317,7 +12385,7 @@
         <v>116183.44300005119</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5">
       <c r="A586" s="3" t="s">
         <v>15</v>
       </c>
@@ -12334,7 +12402,7 @@
         <v>116739.73000044934</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5">
       <c r="A587" s="3" t="s">
         <v>5</v>
       </c>
@@ -12351,7 +12419,7 @@
         <v>116807.54500050098</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5">
       <c r="A588" s="3" t="s">
         <v>5</v>
       </c>
@@ -12368,7 +12436,7 @@
         <v>117055.6259999983</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5">
       <c r="A589" s="3" t="s">
         <v>15</v>
       </c>
@@ -12385,7 +12453,7 @@
         <v>117288.71500049718</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5">
       <c r="A590" s="3" t="s">
         <v>5</v>
       </c>
@@ -12402,7 +12470,7 @@
         <v>117319.72900007386</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
         <v>18</v>
       </c>
@@ -12419,7 +12487,7 @@
         <v>117429.79100053199</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5">
       <c r="A592" s="3" t="s">
         <v>18</v>
       </c>
@@ -12436,7 +12504,7 @@
         <v>117838.9320001239</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5">
       <c r="A593" s="3" t="s">
         <v>18</v>
       </c>
@@ -12453,7 +12521,7 @@
         <v>118015.0160002755</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5">
       <c r="A594" s="3" t="s">
         <v>5</v>
       </c>
@@ -12470,7 +12538,7 @@
         <v>118333.14400026575</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5">
       <c r="A595" s="3" t="s">
         <v>15</v>
       </c>
@@ -12487,7 +12555,7 @@
         <v>118398.18300011102</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5">
       <c r="A596" s="3" t="s">
         <v>15</v>
       </c>
@@ -12504,7 +12572,7 @@
         <v>118696.29500024021</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5">
       <c r="A597" s="3" t="s">
         <v>5</v>
       </c>
@@ -12521,7 +12589,7 @@
         <v>118789.57100054249</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5">
       <c r="A598" s="3" t="s">
         <v>5</v>
       </c>
@@ -12538,7 +12606,7 @@
         <v>119081.4890001202</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5">
       <c r="A599" s="3" t="s">
         <v>15</v>
       </c>
@@ -12555,7 +12623,7 @@
         <v>119166.52800024021</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5">
       <c r="A600" s="3" t="s">
         <v>5</v>
       </c>
@@ -12572,7 +12640,7 @@
         <v>119346.60600030329</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5">
       <c r="A601" s="3" t="s">
         <v>15</v>
       </c>
@@ -12589,7 +12657,7 @@
         <v>119546.69900005683</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
         <v>15</v>
       </c>
@@ -12606,7 +12674,7 @@
         <v>119893.84300012607</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5">
       <c r="A603" s="3" t="s">
         <v>5</v>
       </c>
@@ -12623,7 +12691,7 @@
         <v>120240.02100010403</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5">
       <c r="A604" s="3" t="s">
         <v>18</v>
       </c>
@@ -12640,7 +12708,7 @@
         <v>120340.08300011046</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5">
       <c r="A605" s="3" t="s">
         <v>5</v>
       </c>
@@ -12657,7 +12725,7 @@
         <v>120515.15300015453</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5">
       <c r="A606" s="3" t="s">
         <v>15</v>
       </c>
@@ -12674,7 +12742,7 @@
         <v>120518.14800000284</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5">
       <c r="A607" s="3" t="s">
         <v>5</v>
       </c>
@@ -12691,7 +12759,7 @@
         <v>120897.3360005999</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5">
       <c r="A608" s="3" t="s">
         <v>5</v>
       </c>
@@ -12708,7 +12776,7 @@
         <v>121141.43900040071</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5">
       <c r="A609" s="3" t="s">
         <v>15</v>
       </c>
@@ -12725,7 +12793,7 @@
         <v>121598.63000025507</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5">
       <c r="A610" s="3" t="s">
         <v>5</v>
       </c>
@@ -12742,7 +12810,7 @@
         <v>121680.67400052678</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5">
       <c r="A611" s="3" t="s">
         <v>15</v>
       </c>
@@ -12759,7 +12827,7 @@
         <v>121863.96500053816</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5">
       <c r="A612" s="3" t="s">
         <v>5</v>
       </c>
@@ -12776,7 +12844,7 @@
         <v>122025.82100001164</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5">
       <c r="A613" s="3" t="s">
         <v>15</v>
       </c>
@@ -12793,7 +12861,7 @@
         <v>122206.91300018225</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5">
       <c r="A614" s="3" t="s">
         <v>5</v>
       </c>
@@ -12810,7 +12878,7 @@
         <v>122368.97200034</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5">
       <c r="A615" s="3" t="s">
         <v>5</v>
       </c>
@@ -12827,7 +12895,7 @@
         <v>122640.0790002197</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5">
       <c r="A616" s="3" t="s">
         <v>15</v>
       </c>
@@ -12844,7 +12912,7 @@
         <v>122824.16600023862</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5">
       <c r="A617" s="3" t="s">
         <v>18</v>
       </c>
@@ -12861,7 +12929,7 @@
         <v>122935.2120000869</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5">
       <c r="A618" s="3" t="s">
         <v>5</v>
       </c>
@@ -12878,7 +12946,7 @@
         <v>122989.25200004596</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5">
       <c r="A619" s="3" t="s">
         <v>15</v>
       </c>
@@ -12895,7 +12963,7 @@
         <v>123177.31700039003</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5">
       <c r="A620" s="3" t="s">
         <v>5</v>
       </c>
@@ -12912,7 +12980,7 @@
         <v>123347.39500000142</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5">
       <c r="A621" s="3" t="s">
         <v>18</v>
       </c>
@@ -12929,7 +12997,7 @@
         <v>123493.47900005523</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5">
       <c r="A622" s="3" t="s">
         <v>5</v>
       </c>
@@ -12946,7 +13014,7 @@
         <v>123623.54100015946</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5">
       <c r="A623" s="3" t="s">
         <v>15</v>
       </c>
@@ -12963,7 +13031,7 @@
         <v>123810.63900024164</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5">
       <c r="A624" s="3" t="s">
         <v>5</v>
       </c>
@@ -12980,7 +13048,7 @@
         <v>124003.71200060472</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5">
       <c r="A625" s="3" t="s">
         <v>5</v>
       </c>
@@ -12997,7 +13065,7 @@
         <v>124259.81200018432</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5">
       <c r="A626" s="3" t="s">
         <v>15</v>
       </c>
@@ -13014,7 +13082,7 @@
         <v>124426.89400040545</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5">
       <c r="A627" s="3" t="s">
         <v>5</v>
       </c>
@@ -13031,7 +13099,7 @@
         <v>124596.95600043051</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5">
       <c r="A628" s="3" t="s">
         <v>18</v>
       </c>
@@ -13048,7 +13116,7 @@
         <v>124883.07100015227</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5">
       <c r="A629" s="3" t="s">
         <v>5</v>
       </c>
@@ -13065,7 +13133,7 @@
         <v>125110.38800042588</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5">
       <c r="A630" s="3" t="s">
         <v>18</v>
       </c>
@@ -13082,7 +13150,7 @@
         <v>125191.19900031947</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5">
       <c r="A631" s="3" t="s">
         <v>5</v>
       </c>
@@ -13099,7 +13167,7 @@
         <v>125391.30800028797</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5">
       <c r="A632" s="3" t="s">
         <v>18</v>
       </c>
@@ -13116,7 +13184,7 @@
         <v>125524.38100045547</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5">
       <c r="A633" s="3" t="s">
         <v>15</v>
       </c>
@@ -13133,7 +13201,7 @@
         <v>125799.45099998731</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5">
       <c r="A634" s="3" t="s">
         <v>18</v>
       </c>
@@ -13150,7 +13218,7 @@
         <v>125898.48300029989</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5">
       <c r="A635" s="3" t="s">
         <v>15</v>
       </c>
@@ -13167,7 +13235,7 @@
         <v>125979.51300046407</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5">
       <c r="A636" s="3" t="s">
         <v>15</v>
       </c>
@@ -13184,7 +13252,7 @@
         <v>126191.60299999639</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5">
       <c r="A637" s="3" t="s">
         <v>15</v>
       </c>
@@ -13201,7 +13269,7 @@
         <v>126401.67999998666</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5">
       <c r="A638" s="3" t="s">
         <v>5</v>
       </c>
@@ -13218,7 +13286,7 @@
         <v>126595.76799999923</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5">
       <c r="A639" s="3" t="s">
         <v>15</v>
       </c>
@@ -13235,7 +13303,7 @@
         <v>126855.89200020768</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5">
       <c r="A640" s="3" t="s">
         <v>15</v>
       </c>
@@ -13252,7 +13320,7 @@
         <v>127075.97000019159</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5">
       <c r="A641" s="3" t="s">
         <v>5</v>
       </c>
@@ -13269,7 +13337,7 @@
         <v>127154.98700018506</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5">
       <c r="A642" s="3" t="s">
         <v>15</v>
       </c>
@@ -13286,7 +13354,7 @@
         <v>127256.06300029904</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5">
       <c r="A643" s="3" t="s">
         <v>18</v>
       </c>
@@ -13303,7 +13371,7 @@
         <v>127499.15100045037</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5">
       <c r="A644" s="3" t="s">
         <v>5</v>
       </c>
@@ -13320,7 +13388,7 @@
         <v>127675.2200005576</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5">
       <c r="A645" s="3" t="s">
         <v>18</v>
       </c>
@@ -13337,7 +13405,7 @@
         <v>128005.578000471</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5">
       <c r="A646" s="3" t="s">
         <v>15</v>
       </c>
@@ -13354,7 +13422,7 @@
         <v>128022.38000021316</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5">
       <c r="A647" s="3" t="s">
         <v>5</v>
       </c>
@@ -13371,7 +13439,7 @@
         <v>128109.43100033328</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5">
       <c r="A648" s="3" t="s">
         <v>15</v>
       </c>
@@ -13388,7 +13456,7 @@
         <v>128481.55200043693</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5">
       <c r="A649" s="3" t="s">
         <v>18</v>
       </c>
@@ -13405,7 +13473,7 @@
         <v>128745.90500041377</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5">
       <c r="A650" s="3" t="s">
         <v>15</v>
       </c>
@@ -13422,7 +13490,7 @@
         <v>128763.67400041781</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5">
       <c r="A651" s="3" t="s">
         <v>18</v>
       </c>
@@ -13439,7 +13507,7 @@
         <v>128891.75500015263</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5">
       <c r="A652" s="3" t="s">
         <v>15</v>
       </c>
@@ -13456,7 +13524,7 @@
         <v>129028.80600001663</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5">
       <c r="A653" s="3" t="s">
         <v>15</v>
       </c>
@@ -13473,7 +13541,7 @@
         <v>129297.91600056924</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5">
       <c r="A654" s="3" t="s">
         <v>15</v>
       </c>
@@ -13490,7 +13558,7 @@
         <v>129642.08100037649</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5">
       <c r="A655" s="3" t="s">
         <v>15</v>
       </c>
@@ -13507,7 +13575,7 @@
         <v>129830.16200030688</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5">
       <c r="A656" s="3" t="s">
         <v>18</v>
       </c>
@@ -13524,7 +13592,7 @@
         <v>130238.35200048052</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5">
       <c r="A657" s="3" t="s">
         <v>15</v>
       </c>
@@ -13541,7 +13609,7 @@
         <v>130433.40600058436</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5">
       <c r="A658" s="3" t="s">
         <v>15</v>
       </c>
@@ -13558,7 +13626,7 @@
         <v>130671.51800051797</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5">
       <c r="A659" s="3" t="s">
         <v>15</v>
       </c>
@@ -13575,7 +13643,7 @@
         <v>130878.61600024626</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5">
       <c r="A660" s="3" t="s">
         <v>15</v>
       </c>
@@ -13592,7 +13660,7 @@
         <v>131031.89200011548</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5">
       <c r="A661" s="3" t="s">
         <v>18</v>
       </c>
@@ -13609,7 +13677,7 @@
         <v>131305.80700000282</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5">
       <c r="A662" s="3" t="s">
         <v>5</v>
       </c>
@@ -13626,7 +13694,7 @@
         <v>132141.344000143</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5">
       <c r="A663" s="3" t="s">
         <v>5</v>
       </c>
@@ -13643,7 +13711,7 @@
         <v>132452.26400010288</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5">
       <c r="A664" s="3" t="s">
         <v>18</v>
       </c>
@@ -13660,7 +13728,7 @@
         <v>132694.38499999233</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5">
       <c r="A665" s="3" t="s">
         <v>18</v>
       </c>
@@ -13677,7 +13745,7 @@
         <v>132855.46100030188</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5">
       <c r="A666" s="3" t="s">
         <v>5</v>
       </c>
@@ -13694,7 +13762,7 @@
         <v>133061.54500055127</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5">
       <c r="A667" s="3" t="s">
         <v>15</v>
       </c>
@@ -13711,7 +13779,7 @@
         <v>133789.87500008661</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5">
       <c r="A668" s="3" t="s">
         <v>15</v>
       </c>
@@ -13728,7 +13796,7 @@
         <v>133984.96099999174</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5">
       <c r="A669" s="3" t="s">
         <v>5</v>
       </c>
@@ -13745,7 +13813,7 @@
         <v>134324.10200019367</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5">
       <c r="A670" s="3" t="s">
         <v>18</v>
       </c>
@@ -13762,7 +13830,7 @@
         <v>134391.15300003905</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5">
       <c r="A671" s="3" t="s">
         <v>5</v>
       </c>
@@ -13779,7 +13847,7 @@
         <v>134496.20800002012</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5">
       <c r="A672" s="3" t="s">
         <v>15</v>
       </c>
@@ -13796,7 +13864,7 @@
         <v>134558.23600043077</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5">
       <c r="A673" s="3" t="s">
         <v>18</v>
       </c>
@@ -13813,7 +13881,7 @@
         <v>134715.28700056951</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5">
       <c r="A674" s="3" t="s">
         <v>15</v>
       </c>
@@ -13830,7 +13898,7 @@
         <v>134880.37300037686</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5">
       <c r="A675" s="3" t="s">
         <v>18</v>
       </c>
@@ -13847,7 +13915,7 @@
         <v>135301.77600032184</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5">
       <c r="A676" s="3" t="s">
         <v>18</v>
       </c>
@@ -13864,7 +13932,7 @@
         <v>135530.85500006564</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5">
       <c r="A677" s="3" t="s">
         <v>15</v>
       </c>
@@ -13881,7 +13949,7 @@
         <v>135725.75300058816</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5">
       <c r="A678" s="3" t="s">
         <v>15</v>
       </c>
@@ -13898,7 +13966,7 @@
         <v>136042.88200051524</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5">
       <c r="A679" s="3" t="s">
         <v>5</v>
       </c>
@@ -13915,7 +13983,7 @@
         <v>136216.95400003809</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5">
       <c r="A680" s="3" t="s">
         <v>5</v>
       </c>
@@ -13932,7 +14000,7 @@
         <v>136395.0500001898</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5">
       <c r="A681" s="3" t="s">
         <v>18</v>
       </c>
@@ -13949,7 +14017,7 @@
         <v>136464.08300057519</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5">
       <c r="A682" s="3" t="s">
         <v>15</v>
       </c>
@@ -13966,7 +14034,7 @@
         <v>136544.11400004756</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5">
       <c r="A683" s="3" t="s">
         <v>18</v>
       </c>
@@ -13983,7 +14051,7 @@
         <v>137060.52500030492</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5">
       <c r="A684" s="3" t="s">
         <v>5</v>
       </c>
@@ -14000,7 +14068,7 @@
         <v>137406.46900059655</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5">
       <c r="A685" s="3" t="s">
         <v>5</v>
       </c>
@@ -14017,7 +14085,7 @@
         <v>137611.5700003691</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5">
       <c r="A686" s="3" t="s">
         <v>15</v>
       </c>
@@ -14034,7 +14102,7 @@
         <v>137666.57700059004</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5">
       <c r="A687" s="3" t="s">
         <v>18</v>
       </c>
@@ -14051,7 +14119,7 @@
         <v>137690.60200040694</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5">
       <c r="A688" s="3" t="s">
         <v>18</v>
       </c>
@@ -14068,7 +14136,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5">
       <c r="A689" s="3" t="s">
         <v>5</v>
       </c>
@@ -14085,7 +14153,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5">
       <c r="A690" s="3" t="s">
         <v>15</v>
       </c>
@@ -14102,7 +14170,7 @@
         <v>138217.84000012558</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5">
       <c r="A691" s="3" t="s">
         <v>18</v>
       </c>
@@ -14119,7 +14187,7 @@
         <v>138515.00000003725</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5">
       <c r="A692" s="3" t="s">
         <v>5</v>
       </c>
@@ -14136,7 +14204,7 @@
         <v>138650.06100051105</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5">
       <c r="A693" s="3" t="s">
         <v>339</v>
       </c>
@@ -14153,7 +14221,7 @@
         <v>139377.35000036191</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5">
       <c r="A694" s="3" t="s">
         <v>5</v>
       </c>
@@ -14170,7 +14238,7 @@
         <v>139768.4720000485</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5">
       <c r="A695" s="3" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +14255,7 @@
         <v>140050.60900007375</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5">
       <c r="A696" s="3" t="s">
         <v>18</v>
       </c>
@@ -14204,7 +14272,7 @@
         <v>140201.68500056025</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5">
       <c r="A697" s="3" t="s">
         <v>5</v>
       </c>
@@ -14221,7 +14289,7 @@
         <v>140449.76600005757</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5">
       <c r="A698" s="3" t="s">
         <v>18</v>
       </c>
@@ -14238,7 +14306,7 @@
         <v>140597.8310004808</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5">
       <c r="A699" s="3" t="s">
         <v>18</v>
       </c>
@@ -14255,7 +14323,7 @@
         <v>140879.96800050605</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5">
       <c r="A700" s="3" t="s">
         <v>15</v>
       </c>
@@ -14272,7 +14340,7 @@
         <v>141071.06000049971</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5">
       <c r="A701" s="3" t="s">
         <v>15</v>
       </c>
@@ -14289,7 +14357,7 @@
         <v>141286.17700031027</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5">
       <c r="A702" s="3" t="s">
         <v>15</v>
       </c>
@@ -14306,7 +14374,7 @@
         <v>141500.24800021201</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5">
       <c r="A703" s="3" t="s">
         <v>5</v>
       </c>
@@ -14323,7 +14391,7 @@
         <v>141543.25900019612</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5">
       <c r="A704" s="3" t="s">
         <v>18</v>
       </c>
@@ -14340,7 +14408,7 @@
         <v>141925.6300000241</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5">
       <c r="A705" s="3" t="s">
         <v>5</v>
       </c>
@@ -14357,7 +14425,7 @@
         <v>142053.4770000726</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5">
       <c r="A706" s="3" t="s">
         <v>15</v>
       </c>
@@ -14374,7 +14442,7 @@
         <v>142121.51100039482</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5">
       <c r="A707" s="3" t="s">
         <v>15</v>
       </c>
@@ -14391,7 +14459,7 @@
         <v>142421.6660001548</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5">
       <c r="A708" s="3" t="s">
         <v>18</v>
       </c>
@@ -14408,7 +14476,7 @@
         <v>142876.7980001634</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5">
       <c r="A709" s="3" t="s">
         <v>15</v>
       </c>
@@ -14425,7 +14493,7 @@
         <v>142910.80700021703</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5">
       <c r="A710" s="3" t="s">
         <v>5</v>
       </c>
@@ -14442,7 +14510,7 @@
         <v>143091.88400034327</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5">
       <c r="A711" s="3" t="s">
         <v>18</v>
       </c>
@@ -14459,7 +14527,7 @@
         <v>143315.78100055922</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5">
       <c r="A712" s="3" t="s">
         <v>5</v>
       </c>
@@ -14476,7 +14544,7 @@
         <v>143446.76399999298</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5">
       <c r="A713" s="3" t="s">
         <v>18</v>
       </c>
@@ -14493,7 +14561,7 @@
         <v>143590.63299999107</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5">
       <c r="A714" s="3" t="s">
         <v>15</v>
       </c>
@@ -14510,7 +14578,7 @@
         <v>143914.76600035094</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5">
       <c r="A715" s="3" t="s">
         <v>5</v>
       </c>
@@ -14527,7 +14595,7 @@
         <v>143965.00000040978</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5">
       <c r="A716" s="3" t="s">
         <v>18</v>
       </c>
@@ -14544,7 +14612,7 @@
         <v>144333.93900019582</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5">
       <c r="A717" s="3" t="s">
         <v>15</v>
       </c>
@@ -14561,7 +14629,7 @@
         <v>144511.00600019563</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5">
       <c r="A718" s="3" t="s">
         <v>18</v>
       </c>
@@ -14578,7 +14646,7 @@
         <v>144909.19500037562</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5">
       <c r="A719" s="3" t="s">
         <v>15</v>
       </c>
@@ -14595,7 +14663,7 @@
         <v>144957.43200047873</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5">
       <c r="A720" s="3" t="s">
         <v>5</v>
       </c>
@@ -14612,7 +14680,7 @@
         <v>145209.3510003062</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5">
       <c r="A721" s="3" t="s">
         <v>15</v>
       </c>
@@ -14629,7 +14697,7 @@
         <v>145243.36000035983</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5">
       <c r="A722" s="3" t="s">
         <v>5</v>
       </c>
@@ -14646,7 +14714,7 @@
         <v>145524.49900049251</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5">
       <c r="A723" s="3" t="s">
         <v>15</v>
       </c>
@@ -14663,7 +14731,7 @@
         <v>145583.73400031123</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5">
       <c r="A724" s="3" t="s">
         <v>15</v>
       </c>
@@ -14680,7 +14748,7 @@
         <v>145743.60900004394</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5">
       <c r="A725" s="3" t="s">
         <v>5</v>
       </c>
@@ -14697,7 +14765,7 @@
         <v>145915.66800002474</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5">
       <c r="A726" s="3" t="s">
         <v>15</v>
       </c>
@@ -14714,7 +14782,7 @@
         <v>146100.73800052051</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5">
       <c r="A727" s="3" t="s">
         <v>18</v>
       </c>
@@ -14731,7 +14799,7 @@
         <v>146193.99800060783</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5">
       <c r="A728" s="3" t="s">
         <v>15</v>
       </c>
@@ -14748,7 +14816,7 @@
         <v>146605.96300042234</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5">
       <c r="A729" s="3" t="s">
         <v>18</v>
       </c>
@@ -14765,7 +14833,7 @@
         <v>147022.14100041892</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5">
       <c r="A730" s="3" t="s">
         <v>5</v>
       </c>
@@ -14782,7 +14850,7 @@
         <v>147022.20300030895</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5">
       <c r="A731" s="3" t="s">
         <v>15</v>
       </c>
@@ -14799,7 +14867,7 @@
         <v>147086.16600015666</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5">
       <c r="A732" s="3" t="s">
         <v>15</v>
       </c>
@@ -14816,7 +14884,7 @@
         <v>147465.32300049439</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5">
       <c r="A733" s="3" t="s">
         <v>5</v>
       </c>
@@ -14833,7 +14901,7 @@
         <v>147517.33500023838</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5">
       <c r="A734" s="3" t="s">
         <v>15</v>
       </c>
@@ -14850,7 +14918,7 @@
         <v>147675.61900012661</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5">
       <c r="A735" s="3" t="s">
         <v>15</v>
       </c>
@@ -14867,7 +14935,7 @@
         <v>148021.54600003269</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5">
       <c r="A736" s="3" t="s">
         <v>15</v>
       </c>
@@ -14884,7 +14952,7 @@
         <v>148221.65500000119</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5">
       <c r="A737" s="3" t="s">
         <v>5</v>
       </c>
@@ -14901,7 +14969,7 @@
         <v>148536.77200055681</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5">
       <c r="A738" s="3" t="s">
         <v>15</v>
       </c>
@@ -14918,7 +14986,7 @@
         <v>148598.02000054624</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5">
       <c r="A739" s="3" t="s">
         <v>18</v>
       </c>
@@ -14935,7 +15003,7 @@
         <v>148636.02300051134</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5">
       <c r="A740" s="3" t="s">
         <v>5</v>
       </c>
@@ -14952,7 +15020,7 @@
         <v>148796.91200035159</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5">
       <c r="A741" s="3" t="s">
         <v>5</v>
       </c>
@@ -14969,7 +15037,7 @@
         <v>149081.2480002176</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5">
       <c r="A742" s="3" t="s">
         <v>18</v>
       </c>
@@ -14986,7 +15054,7 @@
         <v>149207.09800031036</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5">
       <c r="A743" s="3" t="s">
         <v>18</v>
       </c>
@@ -15003,7 +15071,7 @@
         <v>149688.54800029658</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5">
       <c r="A744" s="3" t="s">
         <v>15</v>
       </c>
@@ -15020,7 +15088,7 @@
         <v>149907.45600059163</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5">
       <c r="A745" s="3" t="s">
         <v>15</v>
       </c>
@@ -15037,7 +15105,7 @@
         <v>150247.61200044304</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5">
       <c r="A746" s="3" t="s">
         <v>5</v>
       </c>
@@ -15054,7 +15122,7 @@
         <v>150337.67399999779</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5">
       <c r="A747" s="3" t="s">
         <v>15</v>
       </c>
@@ -15071,7 +15139,7 @@
         <v>150724.10100025591</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5">
       <c r="A748" s="3" t="s">
         <v>5</v>
       </c>
@@ -15088,7 +15156,7 @@
         <v>150767.89200003259</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5">
       <c r="A749" s="3" t="s">
         <v>15</v>
       </c>
@@ -15105,7 +15173,7 @@
         <v>150855.94100004528</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5">
       <c r="A750" s="3" t="s">
         <v>5</v>
       </c>
@@ -15122,7 +15190,7 @@
         <v>151032.02500019688</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5">
       <c r="A751" s="3" t="s">
         <v>18</v>
       </c>
@@ -15139,7 +15207,7 @@
         <v>151210.09100025985</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5">
       <c r="A752" s="3" t="s">
         <v>5</v>
       </c>
@@ -15156,7 +15224,7 @@
         <v>151368.1710005505</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5">
       <c r="A753" s="3" t="s">
         <v>18</v>
       </c>
@@ -15173,7 +15241,7 @@
         <v>151669.32500037365</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5">
       <c r="A754" s="3" t="s">
         <v>5</v>
       </c>
@@ -15190,7 +15258,7 @@
         <v>151934.44200055674</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5">
       <c r="A755" s="3" t="s">
         <v>15</v>
       </c>
@@ -15207,7 +15275,7 @@
         <v>151962.46100028511</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5">
       <c r="A756" s="3" t="s">
         <v>5</v>
       </c>
@@ -15224,7 +15292,7 @@
         <v>152182.57000052836</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5">
       <c r="A757" s="3" t="s">
         <v>5</v>
       </c>
@@ -15241,7 +15309,7 @@
         <v>152569.74500014912</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5">
       <c r="A758" s="3" t="s">
         <v>18</v>
       </c>
@@ -15258,7 +15326,7 @@
         <v>152686.79700053763</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5">
       <c r="A759" s="3" t="s">
         <v>15</v>
       </c>
@@ -15275,7 +15343,7 @@
         <v>152795.82900004461</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5">
       <c r="A760" s="3" t="s">
         <v>18</v>
       </c>
@@ -15292,7 +15360,7 @@
         <v>152971.13300040364</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5">
       <c r="A761" s="3" t="s">
         <v>15</v>
       </c>
@@ -15309,7 +15377,7 @@
         <v>153128.99600013625</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5">
       <c r="A762" s="3" t="s">
         <v>15</v>
       </c>
@@ -15326,7 +15394,7 @@
         <v>153503.14500045497</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5">
       <c r="A763" s="3" t="s">
         <v>5</v>
       </c>
@@ -15343,7 +15411,7 @@
         <v>153661.22600028757</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5">
       <c r="A764" s="3" t="s">
         <v>15</v>
       </c>
@@ -15360,7 +15428,7 @@
         <v>153682.42700051051</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5">
       <c r="A765" s="3" t="s">
         <v>15</v>
       </c>
@@ -15377,7 +15445,7 @@
         <v>154054.40799999051</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5">
       <c r="A766" s="3" t="s">
         <v>15</v>
       </c>
@@ -15394,7 +15462,7 @@
         <v>154222.4880001042</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5">
       <c r="A767" s="3" t="s">
         <v>18</v>
       </c>
@@ -15411,7 +15479,7 @@
         <v>154357.52700059675</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5">
       <c r="A768" s="3" t="s">
         <v>18</v>
       </c>
@@ -15428,7 +15496,7 @@
         <v>154522.59700018913</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5">
       <c r="A769" s="3" t="s">
         <v>15</v>
       </c>
@@ -15445,7 +15513,7 @@
         <v>154583.62700007856</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5">
       <c r="A770" s="3" t="s">
         <v>5</v>
       </c>
@@ -15462,7 +15530,7 @@
         <v>154693.68900053669</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5">
       <c r="A771" s="3" t="s">
         <v>18</v>
       </c>
@@ -15479,7 +15547,7 @@
         <v>154750.70900029968</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5">
       <c r="A772" s="3" t="s">
         <v>15</v>
       </c>
@@ -15496,7 +15564,7 @@
         <v>154818.72800057754</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5">
       <c r="A773" s="3" t="s">
         <v>5</v>
       </c>
@@ -15513,7 +15581,7 @@
         <v>154989.81900012586</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5">
       <c r="A774" s="3" t="s">
         <v>15</v>
       </c>
@@ -15530,7 +15598,7 @@
         <v>155646.15200031549</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5">
       <c r="A775" s="3" t="s">
         <v>15</v>
       </c>
@@ -15547,7 +15615,7 @@
         <v>156015.32500041649</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5">
       <c r="A776" s="3" t="s">
         <v>18</v>
       </c>
@@ -15564,7 +15632,7 @@
         <v>156035.34100027755</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5">
       <c r="A777" s="3" t="s">
         <v>15</v>
       </c>
@@ -15581,7 +15649,7 @@
         <v>156236.65100019425</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5">
       <c r="A778" s="3" t="s">
         <v>18</v>
       </c>
@@ -15598,7 +15666,7 @@
         <v>156348.49100033753</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5">
       <c r="A779" s="3" t="s">
         <v>5</v>
       </c>
@@ -15615,7 +15683,7 @@
         <v>156443.60800038557</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5">
       <c r="A780" s="3" t="s">
         <v>18</v>
       </c>
@@ -15632,7 +15700,7 @@
         <v>156494.56000034697</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5">
       <c r="A781" s="3" t="s">
         <v>15</v>
       </c>
@@ -15649,7 +15717,7 @@
         <v>156850.73700060602</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5">
       <c r="A782" s="3" t="s">
         <v>5</v>
       </c>
@@ -15666,7 +15734,7 @@
         <v>156863.95100054797</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5">
       <c r="A783" s="3" t="s">
         <v>5</v>
       </c>
@@ -15683,7 +15751,7 @@
         <v>157207.88200004026</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5">
       <c r="A784" s="3" t="s">
         <v>15</v>
       </c>
@@ -15700,7 +15768,7 @@
         <v>157559.05100028031</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5">
       <c r="A785" s="3" t="s">
         <v>18</v>
       </c>
@@ -15717,7 +15785,7 @@
         <v>157593.0760005489</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5">
       <c r="A786" s="3" t="s">
         <v>5</v>
       </c>
@@ -15734,7 +15802,7 @@
         <v>157687.16300027445</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5">
       <c r="A787" s="3" t="s">
         <v>15</v>
       </c>
@@ -15751,7 +15819,7 @@
         <v>157771.17200007197</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5">
       <c r="A788" s="3" t="s">
         <v>18</v>
       </c>
@@ -15768,7 +15836,7 @@
         <v>157913.2630003849</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5">
       <c r="A789" s="3" t="s">
         <v>5</v>
       </c>
@@ -15785,7 +15853,7 @@
         <v>158058.33300033119</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5">
       <c r="A790" s="3" t="s">
         <v>18</v>
       </c>
@@ -15802,7 +15870,7 @@
         <v>158395.46200053301</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5">
       <c r="A791" s="3" t="s">
         <v>5</v>
       </c>
@@ -15819,7 +15887,7 @@
         <v>158519.51800009701</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5">
       <c r="A792" s="3" t="s">
         <v>15</v>
       </c>
@@ -15836,7 +15904,7 @@
         <v>158728.61200023908</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5">
       <c r="A793" s="3" t="s">
         <v>5</v>
       </c>
@@ -15853,7 +15921,7 @@
         <v>158889.70400013495</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5">
       <c r="A794" s="3" t="s">
         <v>5</v>
       </c>
@@ -15870,7 +15938,7 @@
         <v>159170.81100046635</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5">
       <c r="A795" s="3" t="s">
         <v>15</v>
       </c>
@@ -15887,7 +15955,7 @@
         <v>159360.90500056744</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5">
       <c r="A796" s="3" t="s">
         <v>5</v>
       </c>
@@ -15904,7 +15972,7 @@
         <v>159533.02600043826</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5">
       <c r="A797" s="3" t="s">
         <v>15</v>
       </c>
@@ -15921,7 +15989,7 @@
         <v>159720.31100036111</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5">
       <c r="A798" s="3" t="s">
         <v>18</v>
       </c>
@@ -15938,7 +16006,7 @@
         <v>159802.13700053282</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5">
       <c r="A799" s="3" t="s">
         <v>5</v>
       </c>
@@ -15955,7 +16023,7 @@
         <v>159885.19400011282</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5">
       <c r="A800" s="3" t="s">
         <v>5</v>
       </c>
@@ -15972,7 +16040,7 @@
         <v>160246.34800013155</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5">
       <c r="A801" s="3" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +16057,7 @@
         <v>160518.48500033375</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5">
       <c r="A802" s="3" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +16074,7 @@
         <v>160532.49400011264</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5">
       <c r="A803" s="3" t="s">
         <v>5</v>
       </c>
@@ -16023,7 +16091,7 @@
         <v>160883.66400052328</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5">
       <c r="A804" s="3" t="s">
         <v>18</v>
       </c>
@@ -16040,7 +16108,7 @@
         <v>161028.74900051393</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5">
       <c r="A805" s="3" t="s">
         <v>5</v>
       </c>
@@ -16057,7 +16125,7 @@
         <v>161176.81500047911</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5">
       <c r="A806" s="3" t="s">
         <v>15</v>
       </c>
@@ -16074,7 +16142,7 @@
         <v>161330.09100034833</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5">
       <c r="A807" s="3" t="s">
         <v>18</v>
       </c>
@@ -16091,7 +16159,7 @@
         <v>161416.14300040528</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5">
       <c r="A808" s="3" t="s">
         <v>5</v>
       </c>
@@ -16108,7 +16176,7 @@
         <v>161743.10100052971</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5">
       <c r="A809" s="3" t="s">
         <v>18</v>
       </c>
@@ -16125,7 +16193,7 @@
         <v>162189.32500029914</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5">
       <c r="A810" s="3" t="s">
         <v>5</v>
       </c>
@@ -16142,7 +16210,7 @@
         <v>162226.34500041604</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5">
       <c r="A811" s="3" t="s">
         <v>15</v>
       </c>
@@ -16159,7 +16227,7 @@
         <v>162401.41500046011</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5">
       <c r="A812" s="3" t="s">
         <v>5</v>
       </c>
@@ -16176,7 +16244,7 @@
         <v>162500.46300035901</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5">
       <c r="A813" s="3" t="s">
         <v>18</v>
       </c>
@@ -16193,7 +16261,7 @@
         <v>162680.55600046646</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5">
       <c r="A814" s="3" t="s">
         <v>5</v>
       </c>
@@ -16210,7 +16278,7 @@
         <v>162689.5740006119</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5">
       <c r="A815" s="3" t="s">
         <v>15</v>
       </c>
@@ -16227,7 +16295,7 @@
         <v>162867.63900050428</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5">
       <c r="A816" s="3" t="s">
         <v>5</v>
       </c>
@@ -16244,7 +16312,7 @@
         <v>163028.71500018518</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5">
       <c r="A817" s="3" t="s">
         <v>5</v>
       </c>
@@ -16261,7 +16329,7 @@
         <v>163422.88000036497</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5">
       <c r="A818" s="3" t="s">
         <v>15</v>
       </c>
@@ -16278,7 +16346,7 @@
         <v>163741.28800034523</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5">
       <c r="A819" s="3" t="s">
         <v>5</v>
       </c>
@@ -16295,7 +16363,7 @@
         <v>163930.11800043751</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5">
       <c r="A820" s="3" t="s">
         <v>15</v>
       </c>
@@ -16312,7 +16380,7 @@
         <v>164284.56300005782</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5">
       <c r="A821" s="3" t="s">
         <v>18</v>
       </c>
@@ -16329,7 +16397,7 @@
         <v>164460.41300052311</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5">
       <c r="A822" s="3" t="s">
         <v>15</v>
       </c>
@@ -16346,7 +16414,7 @@
         <v>164498.41600048821</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5">
       <c r="A823" s="3" t="s">
         <v>5</v>
       </c>
@@ -16363,7 +16431,7 @@
         <v>164610.71000013035</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5">
       <c r="A824" s="3" t="s">
         <v>15</v>
       </c>
@@ -16380,7 +16448,7 @@
         <v>164716.54400036205</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5">
       <c r="A825" s="3" t="s">
         <v>5</v>
       </c>
@@ -16397,7 +16465,7 @@
         <v>164854.60900033358</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5">
       <c r="A826" s="3" t="s">
         <v>15</v>
       </c>
@@ -16414,7 +16482,7 @@
         <v>165079.69500033651</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5">
       <c r="A827" s="3" t="s">
         <v>18</v>
       </c>
@@ -16431,7 +16499,7 @@
         <v>165221.97200031951</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5">
       <c r="A828" s="3" t="s">
         <v>18</v>
       </c>
@@ -16448,7 +16516,7 @@
         <v>165556.90200005192</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5">
       <c r="A829" s="3" t="s">
         <v>5</v>
       </c>
@@ -16465,7 +16533,7 @@
         <v>165649.95900008362</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5">
       <c r="A830" s="3" t="s">
         <v>15</v>
       </c>
@@ -16482,7 +16550,7 @@
         <v>165870.08400054183</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5">
       <c r="A831" s="3" t="s">
         <v>18</v>
       </c>
@@ -16499,7 +16567,7 @@
         <v>165899.08500057645</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5">
       <c r="A832" s="3" t="s">
         <v>5</v>
       </c>
@@ -16516,7 +16584,7 @@
         <v>165920.09900033008</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5">
       <c r="A833" s="3" t="s">
         <v>15</v>
       </c>
@@ -16533,7 +16601,7 @@
         <v>166138.22700020391</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5">
       <c r="A834" s="3" t="s">
         <v>5</v>
       </c>
@@ -16550,7 +16618,7 @@
         <v>166306.32300053257</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5">
       <c r="A835" s="3" t="s">
         <v>15</v>
       </c>
@@ -16567,7 +16635,7 @@
         <v>166530.62900011428</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5">
       <c r="A836" s="3" t="s">
         <v>5</v>
       </c>
@@ -16584,7 +16652,7 @@
         <v>166698.49100012798</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5">
       <c r="A837" s="3" t="s">
         <v>18</v>
       </c>
@@ -16601,7 +16669,7 @@
         <v>167122.68700003624</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5">
       <c r="A838" s="3" t="s">
         <v>18</v>
       </c>
@@ -16618,7 +16686,7 @@
         <v>167269.76900061127</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5">
       <c r="A839" s="3" t="s">
         <v>15</v>
       </c>
@@ -16635,7 +16703,7 @@
         <v>167525.88400023524</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5">
       <c r="A840" s="3" t="s">
         <v>18</v>
       </c>
@@ -16652,7 +16720,7 @@
         <v>167667.95900033321</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5">
       <c r="A841" s="3" t="s">
         <v>5</v>
       </c>
@@ -16669,7 +16737,7 @@
         <v>167808.02100026049</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5">
       <c r="A842" s="3" t="s">
         <v>18</v>
       </c>
@@ -16686,7 +16754,7 @@
         <v>167874.04300058261</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5">
       <c r="A843" s="3" t="s">
         <v>5</v>
       </c>
@@ -16703,7 +16771,7 @@
         <v>168064.1360005131</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5">
       <c r="A844" s="3" t="s">
         <v>15</v>
       </c>
@@ -16720,7 +16788,7 @@
         <v>168287.25600019097</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5">
       <c r="A845" s="3" t="s">
         <v>18</v>
       </c>
@@ -16737,7 +16805,7 @@
         <v>168430.32900018152</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5">
       <c r="A846" s="3" t="s">
         <v>15</v>
       </c>
@@ -16754,7 +16822,7 @@
         <v>168619.40800000448</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5">
       <c r="A847" s="3" t="s">
         <v>5</v>
       </c>
@@ -16771,7 +16839,7 @@
         <v>169005.58600053191</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5">
       <c r="A848" s="3" t="s">
         <v>15</v>
       </c>
@@ -16788,7 +16856,7 @@
         <v>169007.58300048765</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5">
       <c r="A849" s="3" t="s">
         <v>15</v>
       </c>
@@ -16805,7 +16873,7 @@
         <v>169399.7500005411</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5">
       <c r="A850" s="3" t="s">
         <v>15</v>
       </c>
@@ -16822,7 +16890,7 @@
         <v>169615.07000040729</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5">
       <c r="A851" s="3" t="s">
         <v>15</v>
       </c>
@@ -16839,7 +16907,7 @@
         <v>169836.95700033568</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5">
       <c r="A852" s="3" t="s">
         <v>18</v>
       </c>
@@ -16856,7 +16924,7 @@
         <v>169973.01000030711</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5">
       <c r="A853" s="3" t="s">
         <v>15</v>
       </c>
@@ -16873,7 +16941,7 @@
         <v>170130.07700003218</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5">
       <c r="A854" s="3" t="s">
         <v>18</v>
       </c>
@@ -16890,7 +16958,7 @@
         <v>170309.17200024705</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5">
       <c r="A855" s="3" t="s">
         <v>5</v>
       </c>
@@ -16907,7 +16975,7 @@
         <v>170476.23900042381</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5">
       <c r="A856" s="3" t="s">
         <v>15</v>
       </c>
@@ -16924,7 +16992,7 @@
         <v>170507.25300000049</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5">
       <c r="A857" s="3" t="s">
         <v>15</v>
       </c>
@@ -16941,7 +17009,7 @@
         <v>170803.38300021831</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5">
       <c r="A858" s="3" t="s">
         <v>131</v>
       </c>
@@ -16958,7 +17026,7 @@
         <v>170868.40700001922</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5">
       <c r="A859" s="3" t="s">
         <v>15</v>
       </c>
@@ -16975,7 +17043,7 @@
         <v>170982.47800043318</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5">
       <c r="A860" s="3" t="s">
         <v>5</v>
       </c>
@@ -16992,7 +17060,7 @@
         <v>171133.53900024667</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5">
       <c r="A861" s="3" t="s">
         <v>15</v>
       </c>
@@ -17009,7 +17077,7 @@
         <v>171503.62000060268</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5">
       <c r="A862" s="3" t="s">
         <v>5</v>
       </c>
@@ -17026,7 +17094,7 @@
         <v>171671.50100008585</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5">
       <c r="A863" s="3" t="s">
         <v>15</v>
       </c>
@@ -17043,7 +17111,7 @@
         <v>171843.45900043845</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5">
       <c r="A864" s="3" t="s">
         <v>15</v>
       </c>
@@ -17060,7 +17128,7 @@
         <v>172006.47800029255</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5">
       <c r="A865" s="3" t="s">
         <v>5</v>
       </c>
@@ -17077,7 +17145,7 @@
         <v>172171.50300038047</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5">
       <c r="A866" s="3" t="s">
         <v>15</v>
       </c>
@@ -17094,7 +17162,7 @@
         <v>172343.56900029816</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5">
       <c r="A867" s="3" t="s">
         <v>18</v>
       </c>
@@ -17111,7 +17179,7 @@
         <v>172415.59300047811</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5">
       <c r="A868" s="3" t="s">
         <v>5</v>
       </c>
@@ -17128,7 +17196,7 @@
         <v>172512.64000036754</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5">
       <c r="A869" s="3" t="s">
         <v>18</v>
       </c>

--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB7C1D32-0BED-F441-81F4-7D8D1E344251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="527">
   <si>
     <t>HOSTSOURCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1599,12 +1600,20 @@
   </si>
   <si>
     <t xml:space="preserve">AA1100                                  </t>
+  </si>
+  <si>
+    <t>STKT1300-B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STKT1400-B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1943,478 +1952,82 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C1" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D1" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10004</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10005</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10006</v>
-      </c>
-      <c r="H1" s="1">
-        <v>10007</v>
-      </c>
-      <c r="I1" s="1">
-        <v>10008</v>
-      </c>
-      <c r="J1" s="1">
-        <v>10009</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10010</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>10001</v>
+      <c r="B1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2424,20 +2037,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB7C1D32-0BED-F441-81F4-7D8D1E344251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="525">
   <si>
     <t>HOSTSOURCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1600,20 +1599,12 @@
   </si>
   <si>
     <t xml:space="preserve">AA1100                                  </t>
-  </si>
-  <si>
-    <t>STKT1300-B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STKT1400-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1952,82 +1943,478 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.19921875" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>525</v>
+      <c r="B1" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C1" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10004</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10005</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10006</v>
+      </c>
+      <c r="H1" s="1">
+        <v>10007</v>
+      </c>
+      <c r="I1" s="1">
+        <v>10008</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10009</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10010</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>10001</v>
       </c>
       <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>526</v>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>10002</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2037,20 +2424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1604,11 +1604,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,7 +1731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1766,7 +1766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1943,29 +1943,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>10001</v>
@@ -1997,12 +1997,8 @@
       <c r="K1" s="1">
         <v>10010</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
@@ -2010,139 +2006,139 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
@@ -2150,112 +2146,104 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10008</v>
       </c>
@@ -2263,73 +2251,69 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10009</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
@@ -2337,84 +2321,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2424,23 +2356,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2423,7 @@
         <v>269.11300043575466</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2440,7 @@
         <v>543.46900011878461</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2457,7 @@
         <v>796.35800009127706</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +2474,7 @@
         <v>1075.5190003663301</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2491,7 @@
         <v>1356.6610003821552</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2508,7 @@
         <v>1460.7180004706606</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2593,7 +2525,7 @@
         <v>1502.7310005621985</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +2542,7 @@
         <v>1831.8770005367696</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +2559,7 @@
         <v>1864.1080002766103</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2644,7 +2576,7 @@
         <v>2087.2310004662722</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2661,7 +2593,7 @@
         <v>2249.2760001216084</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2678,7 +2610,7 @@
         <v>2416.1420005839318</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2695,7 +2627,7 @@
         <v>2672.4950005766004</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2644,7 @@
         <v>2830.3280002204701</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2661,7 @@
         <v>2994.4170003058389</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +2678,7 @@
         <v>3250.7700002985075</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2695,7 @@
         <v>3387.8540001343936</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2780,7 +2712,7 @@
         <v>3638.7460001511499</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +2729,7 @@
         <v>3837.8590005682781</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2746,7 @@
         <v>3979.1240001562983</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2763,7 @@
         <v>4170.9980002837256</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2848,7 +2780,7 @@
         <v>4317.0840000500903</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2865,7 +2797,7 @@
         <v>4505.1680004922673</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2814,7 @@
         <v>4846.3260002899915</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +2831,7 @@
         <v>5012.6300004310906</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2916,7 +2848,7 @@
         <v>5250.5270001478493</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2933,7 +2865,7 @@
         <v>5404.6160004101694</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2950,7 +2882,7 @@
         <v>5790.8140005776659</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +2899,7 @@
         <v>5983.999000559561</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2916,7 @@
         <v>6064.9509999901056</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +2933,7 @@
         <v>6255.047000432387</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3018,7 +2950,7 @@
         <v>6441.1180000752211</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +2967,7 @@
         <v>6617.1880003530532</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +2984,7 @@
         <v>6808.2980002742261</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +3001,7 @@
         <v>6915.3510003816336</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3018,7 @@
         <v>7079.6270003076643</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -3103,7 +3035,7 @@
         <v>7180.6580002885312</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3120,7 +3052,7 @@
         <v>7407.5720003340393</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3069,7 @@
         <v>7589.6420001285151</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +3086,7 @@
         <v>7995.708000054583</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3103,7 @@
         <v>8202.7820000890642</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3120,7 @@
         <v>8243.8099999912083</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3137,7 @@
         <v>8567.154000280425</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3154,7 @@
         <v>8754.2510001920164</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3171,7 @@
         <v>9012.1620000572875</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -3256,7 +3188,7 @@
         <v>9048.2930000172928</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -3273,7 +3205,7 @@
         <v>9324.3180002784356</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +3222,7 @@
         <v>9535.4280004743487</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3307,7 +3239,7 @@
         <v>9597.4570004269481</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3324,7 +3256,7 @@
         <v>9966.6489999974146</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -3341,7 +3273,7 @@
         <v>10078.913000179455</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -3358,7 +3290,7 @@
         <v>10147.744000051171</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3307,7 @@
         <v>10356.841000076383</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -3392,7 +3324,7 @@
         <v>10583.942000591196</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -3409,7 +3341,7 @@
         <v>10598.950000433251</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
@@ -3426,7 +3358,7 @@
         <v>10737.017000117339</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3375,7 @@
         <v>11053.16700024996</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -3460,7 +3392,7 @@
         <v>11141.21800060384</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -3477,7 +3409,7 @@
         <v>11383.342000376433</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +3426,7 @@
         <v>11463.37500018999</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3443,7 @@
         <v>11626.450000167824</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3460,7 @@
         <v>11789.571999991313</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -3545,7 +3477,7 @@
         <v>11984.660000237636</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -3562,7 +3494,7 @@
         <v>12129.716000310145</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +3511,7 @@
         <v>12450.094000040554</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +3528,7 @@
         <v>12487.910000164993</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -3613,7 +3545,7 @@
         <v>12762.016000575386</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +3562,7 @@
         <v>12981.130000180565</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +3579,7 @@
         <v>13196.218000072986</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -3664,7 +3596,7 @@
         <v>13212.224000436254</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +3613,7 @@
         <v>13258.247000025585</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +3630,7 @@
         <v>13412.305000028573</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3647,7 @@
         <v>13869.533000537194</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -3732,7 +3664,7 @@
         <v>14085.666000167839</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -3749,7 +3681,7 @@
         <v>14517.840000079013</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +3698,7 @@
         <v>14525.843000574969</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -3783,7 +3715,7 @@
         <v>14748.965000594035</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -3800,7 +3732,7 @@
         <v>14840.995000186376</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>18</v>
       </c>
@@ -3817,7 +3749,7 @@
         <v>15016.067000571638</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -3834,7 +3766,7 @@
         <v>15230.359000456519</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -3851,7 +3783,7 @@
         <v>15564.310000394471</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>18</v>
       </c>
@@ -3868,7 +3800,7 @@
         <v>15743.423000536859</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3817,7 @@
         <v>15776.403000438586</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +3834,7 @@
         <v>15844.438000302762</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +3851,7 @@
         <v>16275.644000410102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3936,7 +3868,7 @@
         <v>16432.71300047636</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3885,7 @@
         <v>16836.867000488564</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +3902,7 @@
         <v>17079.975000279956</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +3919,7 @@
         <v>17234.048000327311</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +3936,7 @@
         <v>17488.154000462964</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +3953,7 @@
         <v>17501.181000564247</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>15</v>
       </c>
@@ -4038,7 +3970,7 @@
         <v>17658.234000415541</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +3987,7 @@
         <v>18045.41500043124</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -4072,7 +4004,7 @@
         <v>18369.771000486799</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -4089,7 +4021,7 @@
         <v>18513.626000611112</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -4106,7 +4038,7 @@
         <v>18531.629000301473</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4055,7 @@
         <v>18580.677999998443</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4072,7 @@
         <v>18759.744000295177</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -4157,7 +4089,7 @@
         <v>19107.907000067644</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -4174,7 +4106,7 @@
         <v>19248.189000436105</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4191,7 +4123,7 @@
         <v>19438.051000563428</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -4208,7 +4140,7 @@
         <v>19581.126000266522</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4157,7 @@
         <v>19873.267000168562</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -4242,7 +4174,7 @@
         <v>19936.512000113726</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4191,7 @@
         <v>19964.329000585712</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -4276,7 +4208,7 @@
         <v>20160.399000509642</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -4293,7 +4225,7 @@
         <v>20336.486000544392</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -4310,7 +4242,7 @@
         <v>20506.566000496969</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -4327,7 +4259,7 @@
         <v>20774.665000196546</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -4344,7 +4276,7 @@
         <v>20863.683000183664</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -4361,7 +4293,7 @@
         <v>21172.829000512138</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -4378,7 +4310,7 @@
         <v>21499.182000523433</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -4395,7 +4327,7 @@
         <v>21821.307000308298</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -4412,7 +4344,7 @@
         <v>22206.49100036826</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4361,7 @@
         <v>22220.313000306487</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>18</v>
       </c>
@@ -4446,7 +4378,7 @@
         <v>22602.471000258811</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +4395,7 @@
         <v>22653.470000065863</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>18</v>
       </c>
@@ -4480,7 +4412,7 @@
         <v>22877.68400029745</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4429,7 @@
         <v>22911.834000516683</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -4514,7 +4446,7 @@
         <v>23233.757000416517</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -4531,7 +4463,7 @@
         <v>23396.817000349984</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -4548,7 +4480,7 @@
         <v>23734.964000084437</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>15</v>
       </c>
@@ -4565,7 +4497,7 @@
         <v>23751.969000510871</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +4514,7 @@
         <v>24070.116000599228</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4531,7 @@
         <v>24097.136000264436</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>18</v>
       </c>
@@ -4616,7 +4548,7 @@
         <v>24343.28600037843</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>15</v>
       </c>
@@ -4633,7 +4565,7 @@
         <v>24369.308000151068</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -4650,7 +4582,7 @@
         <v>24663.617000263184</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4599,7 @@
         <v>24980.532000144012</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -4684,7 +4616,7 @@
         <v>25161.610000440851</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +4633,7 @@
         <v>25359.725000336766</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
@@ -4718,7 +4650,7 @@
         <v>25670.86700045038</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
@@ -4735,7 +4667,7 @@
         <v>25821.930000605062</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +4684,7 @@
         <v>26327.162000443786</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4701,7 @@
         <v>26337.177000311203</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +4718,7 @@
         <v>26453.23200034909</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -4803,7 +4735,7 @@
         <v>27096.515000285581</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
@@ -4820,7 +4752,7 @@
         <v>27140.775000234134</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4769,7 @@
         <v>27395.692000421695</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +4786,7 @@
         <v>27596.786000579596</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -4871,7 +4803,7 @@
         <v>27812.093000113964</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -4888,7 +4820,7 @@
         <v>28361.146999988705</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
@@ -4905,7 +4837,7 @@
         <v>28515.189000405371</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4854,7 @@
         <v>28692.243000073358</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
@@ -4939,7 +4871,7 @@
         <v>28881.465000403114</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
@@ -4956,7 +4888,7 @@
         <v>29157.459000404924</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
@@ -4973,7 +4905,7 @@
         <v>29292.49900043942</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -4990,7 +4922,7 @@
         <v>29350.534000480548</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>18</v>
       </c>
@@ -5007,7 +4939,7 @@
         <v>29402.78100008145</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>18</v>
       </c>
@@ -5024,7 +4956,7 @@
         <v>29818.745000031777</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +4973,7 @@
         <v>29863.754000142217</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>18</v>
       </c>
@@ -5058,7 +4990,7 @@
         <v>29994.816000480205</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5075,7 +5007,7 @@
         <v>30128.874000208452</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -5092,7 +5024,7 @@
         <v>30266.941000521183</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5041,7 @@
         <v>30276.941000344232</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
@@ -5126,7 +5058,7 @@
         <v>30744.154000002891</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>18</v>
       </c>
@@ -5143,7 +5075,7 @@
         <v>30888.41400006786</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5160,7 +5092,7 @@
         <v>31176.311000157148</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>18</v>
       </c>
@@ -5177,7 +5109,7 @@
         <v>31231.351000349969</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +5126,7 @@
         <v>31278.575000516139</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5211,7 +5143,7 @@
         <v>31387.624000408687</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>131</v>
       </c>
@@ -5228,7 +5160,7 @@
         <v>31449.435000261292</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>133</v>
       </c>
@@ -5245,7 +5177,7 @@
         <v>31511.463000043295</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
@@ -5262,7 +5194,7 @@
         <v>31544.490000419319</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -5279,7 +5211,7 @@
         <v>31847.723000356928</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -5296,7 +5228,7 @@
         <v>32364.85800028313</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
@@ -5313,7 +5245,7 @@
         <v>32471.911000390537</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -5330,7 +5262,7 @@
         <v>32748.123000492342</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -5347,7 +5279,7 @@
         <v>33079.203000362031</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>15</v>
       </c>
@@ -5364,7 +5296,7 @@
         <v>33192.278000595979</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>139</v>
       </c>
@@ -5381,7 +5313,7 @@
         <v>33467.383000440896</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>18</v>
       </c>
@@ -5398,7 +5330,7 @@
         <v>33498.397000017576</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -5415,7 +5347,7 @@
         <v>33585.44900030829</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>142</v>
       </c>
@@ -5432,7 +5364,7 @@
         <v>33603.468000213616</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -5449,7 +5381,7 @@
         <v>33642.673000297509</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>18</v>
       </c>
@@ -5466,7 +5398,7 @@
         <v>33766.559000406414</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -5483,7 +5415,7 @@
         <v>33959.650000068359</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +5432,7 @@
         <v>34483.899000333622</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>15</v>
       </c>
@@ -5517,7 +5449,7 @@
         <v>34861.064000311308</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -5534,7 +5466,7 @@
         <v>35031.191000109538</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>15</v>
       </c>
@@ -5551,7 +5483,7 @@
         <v>35217.293000011705</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -5568,7 +5500,7 @@
         <v>35473.47400020808</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>15</v>
       </c>
@@ -5585,7 +5517,7 @@
         <v>35604.661000496708</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>18</v>
       </c>
@@ -5602,7 +5534,7 @@
         <v>35748.515999992378</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>18</v>
       </c>
@@ -5619,7 +5551,7 @@
         <v>35974.821000499651</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>15</v>
       </c>
@@ -5636,7 +5568,7 @@
         <v>36168.708000169136</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
@@ -5653,7 +5585,7 @@
         <v>36470.864000567235</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>15</v>
       </c>
@@ -5670,7 +5602,7 @@
         <v>36525.919000175782</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>18</v>
       </c>
@@ -5687,7 +5619,7 @@
         <v>36663.95500022918</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -5704,7 +5636,7 @@
         <v>36796.032000216655</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>18</v>
       </c>
@@ -5721,7 +5653,7 @@
         <v>37217.456000600941</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -5738,7 +5670,7 @@
         <v>37305.289000226185</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>15</v>
       </c>
@@ -5755,7 +5687,7 @@
         <v>37414.338000118732</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>18</v>
       </c>
@@ -5772,7 +5704,7 @@
         <v>37554.402000387199</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>15</v>
       </c>
@@ -5789,7 +5721,7 @@
         <v>37728.491000295617</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -5806,7 +5738,7 @@
         <v>37894.562000292353</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>15</v>
       </c>
@@ -5823,7 +5755,7 @@
         <v>38087.653000582941</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -5840,7 +5772,7 @@
         <v>38255.736000579782</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +5789,7 @@
         <v>38511.043000034988</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -5874,7 +5806,7 @@
         <v>38764.946000115015</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>18</v>
       </c>
@@ -5891,7 +5823,7 @@
         <v>38899.222000571899</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -5908,7 +5840,7 @@
         <v>39158.35200031288</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>15</v>
       </c>
@@ -5925,7 +5857,7 @@
         <v>39215.185000235215</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +5874,7 @@
         <v>39452.302000159398</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>15</v>
       </c>
@@ -5959,7 +5891,7 @@
         <v>39695.409000408836</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -5976,7 +5908,7 @@
         <v>39740.433000563644</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -5993,7 +5925,7 @@
         <v>39940.529000200331</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -6010,7 +5942,7 @@
         <v>40109.610000089742</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -6027,7 +5959,7 @@
         <v>40465.425000200048</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +5976,7 @@
         <v>40490.360000613146</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -6061,7 +5993,7 @@
         <v>40714.942000131123</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -6078,7 +6010,7 @@
         <v>40973.041000007652</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6027,7 @@
         <v>41307.896000146866</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
@@ -6112,7 +6044,7 @@
         <v>41476.986000314355</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>15</v>
       </c>
@@ -6129,7 +6061,7 @@
         <v>41641.248000366613</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +6078,7 @@
         <v>42072.251000418328</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +6095,7 @@
         <v>42414.403000054881</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -6180,7 +6112,7 @@
         <v>42699.536000099033</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
@@ -6197,7 +6129,7 @@
         <v>42818.601000029594</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -6214,7 +6146,7 @@
         <v>42853.625000361353</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -6231,7 +6163,7 @@
         <v>43067.729000234976</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -6248,7 +6180,7 @@
         <v>43441.911000525579</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
@@ -6265,7 +6197,7 @@
         <v>43628.97900051903</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
@@ -6282,7 +6214,7 @@
         <v>43831.0710005695</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>18</v>
       </c>
@@ -6299,7 +6231,7 @@
         <v>43948.341000429355</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -6316,7 +6248,7 @@
         <v>44014.1610002378</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>15</v>
       </c>
@@ -6333,7 +6265,7 @@
         <v>44032.164000556804</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
@@ -6350,7 +6282,7 @@
         <v>44352.306000259705</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -6367,7 +6299,7 @@
         <v>44596.441000490449</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -6384,7 +6316,7 @@
         <v>44753.509000386111</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -6401,7 +6333,7 @@
         <v>44906.567000155337</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>18</v>
       </c>
@@ -6418,7 +6350,7 @@
         <v>45091.888000094332</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -6435,7 +6367,7 @@
         <v>45402.826000610366</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>18</v>
       </c>
@@ -6452,7 +6384,7 @@
         <v>45545.884000556543</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>15</v>
       </c>
@@ -6469,7 +6401,7 @@
         <v>45722.983000357635</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
@@ -6486,7 +6418,7 @@
         <v>45855.059000174515</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>18</v>
       </c>
@@ -6503,7 +6435,7 @@
         <v>45953.312000236474</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -6520,7 +6452,7 @@
         <v>46056.152000161819</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>18</v>
       </c>
@@ -6537,7 +6469,7 @@
         <v>46404.515000106767</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>5</v>
       </c>
@@ -6554,7 +6486,7 @@
         <v>46451.349000376649</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
@@ -6571,7 +6503,7 @@
         <v>47293.709000246599</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -6588,7 +6520,7 @@
         <v>47577.048000390641</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6537,7 @@
         <v>47852.962000574917</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>15</v>
       </c>
@@ -6622,7 +6554,7 @@
         <v>48074.056000378914</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>15</v>
       </c>
@@ -6639,7 +6571,7 @@
         <v>48393.215000233613</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -6656,7 +6588,7 @@
         <v>48564.308000123128</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -6673,7 +6605,7 @@
         <v>48786.384000233375</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6690,7 +6622,7 @@
         <v>48954.465000517666</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>15</v>
       </c>
@@ -6707,7 +6639,7 @@
         <v>49176.573000429198</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
@@ -6724,7 +6656,7 @@
         <v>49348.664000211284</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -6741,7 +6673,7 @@
         <v>49572.737000277266</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6690,7 @@
         <v>49736.794000561349</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>18</v>
       </c>
@@ -6775,7 +6707,7 @@
         <v>49897.871000412852</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>5</v>
       </c>
@@ -6792,7 +6724,7 @@
         <v>50191.991000343114</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>15</v>
       </c>
@@ -6809,7 +6741,7 @@
         <v>50394.06700017862</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -6826,7 +6758,7 @@
         <v>50465.097000519745</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>18</v>
       </c>
@@ -6843,7 +6775,7 @@
         <v>50489.106000121683</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>15</v>
       </c>
@@ -6860,7 +6792,7 @@
         <v>50719.435000000522</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>18</v>
       </c>
@@ -6877,7 +6809,7 @@
         <v>50729.232000396587</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
@@ -6894,7 +6826,7 @@
         <v>51167.440000595525</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>15</v>
       </c>
@@ -6911,7 +6843,7 @@
         <v>51421.763000031933</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +6860,7 @@
         <v>52099.847000604495</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>15</v>
       </c>
@@ -6945,7 +6877,7 @@
         <v>52359.958000481129</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +6894,7 @@
         <v>52513.032000465319</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>18</v>
       </c>
@@ -6979,7 +6911,7 @@
         <v>52659.117000061087</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -6996,7 +6928,7 @@
         <v>52726.137000275776</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>5</v>
       </c>
@@ -7013,7 +6945,7 @@
         <v>52883.19000012707</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>15</v>
       </c>
@@ -7030,7 +6962,7 @@
         <v>53102.302000019699</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>18</v>
       </c>
@@ -7047,7 +6979,7 @@
         <v>53237.575000198558</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>18</v>
       </c>
@@ -7064,7 +6996,7 @@
         <v>53420.462000439875</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7013,7 @@
         <v>53580.744000454433</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>5</v>
       </c>
@@ -7098,7 +7030,7 @@
         <v>53618.560000578873</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>18</v>
       </c>
@@ -7115,7 +7047,7 @@
         <v>54078.96800043527</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7064,7 @@
         <v>54318.875000439584</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>15</v>
       </c>
@@ -7149,7 +7081,7 @@
         <v>54546.178000210784</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>15</v>
       </c>
@@ -7166,7 +7098,7 @@
         <v>54702.043999987654</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7115,7 @@
         <v>54926.117000053637</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>18</v>
       </c>
@@ -7200,7 +7132,7 @@
         <v>55156.21200024616</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
@@ -7217,7 +7149,7 @@
         <v>55291.50100001134</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>18</v>
       </c>
@@ -7234,7 +7166,7 @@
         <v>55423.358000186272</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>5</v>
       </c>
@@ -7251,7 +7183,7 @@
         <v>55803.547000559047</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7200,7 @@
         <v>55804.54599999357</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>5</v>
       </c>
@@ -7285,7 +7217,7 @@
         <v>55918.602000363171</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>5</v>
       </c>
@@ -7302,7 +7234,7 @@
         <v>56095.686000119895</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>15</v>
       </c>
@@ -7319,7 +7251,7 @@
         <v>56503.863000590354</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>18</v>
       </c>
@@ -7336,7 +7268,7 @@
         <v>56607.904000463895</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>15</v>
       </c>
@@ -7353,7 +7285,7 @@
         <v>56835.034000268206</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7302,7 @@
         <v>57019.107000413351</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
@@ -7387,7 +7319,7 @@
         <v>57080.12100008782</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>18</v>
       </c>
@@ -7404,7 +7336,7 @@
         <v>57157.173000555485</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>5</v>
       </c>
@@ -7421,7 +7353,7 @@
         <v>57404.288000590168</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>18</v>
       </c>
@@ -7438,7 +7370,7 @@
         <v>57623.369000223465</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
@@ -7455,7 +7387,7 @@
         <v>57919.53300058376</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>18</v>
       </c>
@@ -7472,7 +7404,7 @@
         <v>57984.790000529028</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7421,7 @@
         <v>58365.713000390679</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7438,7 @@
         <v>58576.8210002454</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>15</v>
       </c>
@@ -7523,7 +7455,7 @@
         <v>58710.894000018016</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>18</v>
       </c>
@@ -7540,7 +7472,7 @@
         <v>59023.251000582241</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>15</v>
       </c>
@@ -7557,7 +7489,7 @@
         <v>59131.098000355996</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>15</v>
       </c>
@@ -7574,7 +7506,7 @@
         <v>59305.155000463128</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
@@ -7591,7 +7523,7 @@
         <v>59430.242000520229</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>5</v>
       </c>
@@ -7608,7 +7540,7 @@
         <v>59683.363000466488</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +7557,7 @@
         <v>59781.398000428453</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>225</v>
       </c>
@@ -7642,7 +7574,7 @@
         <v>59875.439000478946</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>18</v>
       </c>
@@ -7659,7 +7591,7 @@
         <v>59953.47400016617</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>18</v>
       </c>
@@ -7676,7 +7608,7 @@
         <v>60261.822000145912</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -7693,7 +7625,7 @@
         <v>60440.684000216424</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>5</v>
       </c>
@@ -7710,7 +7642,7 @@
         <v>60740.794000471942</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>18</v>
       </c>
@@ -7727,7 +7659,7 @@
         <v>60876.864000200294</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
@@ -7744,7 +7676,7 @@
         <v>60931.887000007555</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -7761,7 +7693,7 @@
         <v>61056.178000057116</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -7778,7 +7710,7 @@
         <v>61531.173000228591</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -7795,7 +7727,7 @@
         <v>61732.468000100926</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>18</v>
       </c>
@@ -7812,7 +7744,7 @@
         <v>61806.322000036016</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -7829,7 +7761,7 @@
         <v>61904.356999997981</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +7778,7 @@
         <v>62270.521000376903</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>5</v>
       </c>
@@ -7863,7 +7795,7 @@
         <v>62421.707000141032</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +7812,7 @@
         <v>62767.731000250205</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>5</v>
       </c>
@@ -7897,7 +7829,7 @@
         <v>62812.754000234418</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -7914,7 +7846,7 @@
         <v>62870.789000275545</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>18</v>
       </c>
@@ -7931,7 +7863,7 @@
         <v>62986.843000142835</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>18</v>
       </c>
@@ -7948,7 +7880,7 @@
         <v>63140.135000227019</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>15</v>
       </c>
@@ -7965,7 +7897,7 @@
         <v>63562.321000476368</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>5</v>
       </c>
@@ -7982,7 +7914,7 @@
         <v>63646.144000603817</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>15</v>
       </c>
@@ -7999,7 +7931,7 @@
         <v>63723.19600044284</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>18</v>
       </c>
@@ -8016,7 +7948,7 @@
         <v>63819.218000234105</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>5</v>
       </c>
@@ -8033,7 +7965,7 @@
         <v>64041.310000559315</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>15</v>
       </c>
@@ -8050,7 +7982,7 @@
         <v>64228.393000597134</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>18</v>
       </c>
@@ -8067,7 +7999,7 @@
         <v>64253.417000477202</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
@@ -8084,7 +8016,7 @@
         <v>64397.474000486545</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>15</v>
       </c>
@@ -8101,7 +8033,7 @@
         <v>64585.55600058753</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>18</v>
       </c>
@@ -8118,7 +8050,7 @@
         <v>64725.853000371717</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>15</v>
       </c>
@@ -8135,7 +8067,7 @@
         <v>64879.691000562161</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +8084,7 @@
         <v>65048.756000236608</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>18</v>
       </c>
@@ -8169,7 +8101,7 @@
         <v>65380.895000346936</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>15</v>
       </c>
@@ -8186,7 +8118,7 @@
         <v>65517.183000175282</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>5</v>
       </c>
@@ -8203,7 +8135,7 @@
         <v>65627.043000119738</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>5</v>
       </c>
@@ -8220,7 +8152,7 @@
         <v>65903.16000035964</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>5</v>
       </c>
@@ -8237,7 +8169,7 @@
         <v>66181.289000599645</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>5</v>
       </c>
@@ -8254,7 +8186,7 @@
         <v>66460.432000318542</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>15</v>
       </c>
@@ -8271,7 +8203,7 @@
         <v>66649.528000527062</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>5</v>
       </c>
@@ -8288,7 +8220,7 @@
         <v>66818.593000201508</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>18</v>
       </c>
@@ -8305,7 +8237,7 @@
         <v>66942.650000564754</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8254,7 @@
         <v>67039.702000049874</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>5</v>
       </c>
@@ -8339,7 +8271,7 @@
         <v>67207.79900054913</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>15</v>
       </c>
@@ -8356,7 +8288,7 @@
         <v>67642.029000422917</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>18</v>
       </c>
@@ -8373,7 +8305,7 @@
         <v>67736.055000429042</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>5</v>
       </c>
@@ -8390,7 +8322,7 @@
         <v>67782.07700047642</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>18</v>
       </c>
@@ -8407,7 +8339,7 @@
         <v>67880.143000069074</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8356,7 @@
         <v>68232.313000084832</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>15</v>
       </c>
@@ -8441,7 +8373,7 @@
         <v>68550.723000406288</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>5</v>
       </c>
@@ -8458,7 +8390,7 @@
         <v>68594.514000182971</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>15</v>
       </c>
@@ -8475,7 +8407,7 @@
         <v>68721.566000394523</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>18</v>
       </c>
@@ -8492,7 +8424,7 @@
         <v>68803.610000037588</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>5</v>
       </c>
@@ -8509,7 +8441,7 @@
         <v>69033.721000445075</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>15</v>
       </c>
@@ -8526,7 +8458,7 @@
         <v>69175.001000077464</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>18</v>
       </c>
@@ -8543,7 +8475,7 @@
         <v>69257.825000141747</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>5</v>
       </c>
@@ -8560,7 +8492,7 @@
         <v>69501.960000372492</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>15</v>
       </c>
@@ -8577,7 +8509,7 @@
         <v>69579.995000059716</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>5</v>
       </c>
@@ -8594,7 +8526,7 @@
         <v>69853.116000280716</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>15</v>
       </c>
@@ -8611,7 +8543,7 @@
         <v>70019.217000366189</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8560,7 @@
         <v>70350.372999999672</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>5</v>
       </c>
@@ -8645,7 +8577,7 @@
         <v>70372.386000445113</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>15</v>
       </c>
@@ -8662,7 +8594,7 @@
         <v>70566.490000043996</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>5</v>
       </c>
@@ -8679,7 +8611,7 @@
         <v>70742.575000366196</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>15</v>
       </c>
@@ -8696,7 +8628,7 @@
         <v>70959.674000088125</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>15</v>
       </c>
@@ -8713,7 +8645,7 @@
         <v>71122.982000210322</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>5</v>
       </c>
@@ -8730,7 +8662,7 @@
         <v>71291.844000457786</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8679,7 @@
         <v>71456.931000435725</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>18</v>
       </c>
@@ -8764,7 +8696,7 @@
         <v>71620.020000287332</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>5</v>
       </c>
@@ -8781,7 +8713,7 @@
         <v>71621.019000350498</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>15</v>
       </c>
@@ -8798,7 +8730,7 @@
         <v>71815.154000208713</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>15</v>
       </c>
@@ -8815,7 +8747,7 @@
         <v>72164.298000116833</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>5</v>
       </c>
@@ -8832,7 +8764,7 @@
         <v>72179.352000262588</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>18</v>
       </c>
@@ -8849,7 +8781,7 @@
         <v>72588.51200058125</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>18</v>
       </c>
@@ -8866,7 +8798,7 @@
         <v>72733.832000428811</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>5</v>
       </c>
@@ -8883,7 +8815,7 @@
         <v>72748.591000540182</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +8832,7 @@
         <v>72888.669000053778</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>5</v>
       </c>
@@ -8917,7 +8849,7 @@
         <v>73059.981000213884</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>15</v>
       </c>
@@ -8934,7 +8866,7 @@
         <v>73507.061000168324</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>5</v>
       </c>
@@ -8951,7 +8883,7 @@
         <v>73674.976000422612</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>15</v>
       </c>
@@ -8968,7 +8900,7 @@
         <v>73861.972000077367</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +8917,7 @@
         <v>74055.223000003025</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +8934,7 @@
         <v>74381.133000506088</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>5</v>
       </c>
@@ -9019,7 +8951,7 @@
         <v>74698.485000128858</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>5</v>
       </c>
@@ -9036,7 +8968,7 @@
         <v>74944.378000404686</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>15</v>
       </c>
@@ -9053,7 +8985,7 @@
         <v>74992.396000237204</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>15</v>
       </c>
@@ -9070,7 +9002,7 @@
         <v>75328.806000365876</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>18</v>
       </c>
@@ -9087,7 +9019,7 @@
         <v>75410.600000107661</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9036,7 @@
         <v>75483.64200044889</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>18</v>
       </c>
@@ -9121,7 +9053,7 @@
         <v>75628.712000395171</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +9070,7 @@
         <v>75684.936000150628</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +9087,7 @@
         <v>75804.780000331812</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>15</v>
       </c>
@@ -9172,7 +9104,7 @@
         <v>76191.971000167541</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +9121,7 @@
         <v>76526.121000107378</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9138,7 @@
         <v>76846.245000511408</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>15</v>
       </c>
@@ -9223,7 +9155,7 @@
         <v>76900.364000117406</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>5</v>
       </c>
@@ -9240,7 +9172,7 @@
         <v>77106.588000361808</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>15</v>
       </c>
@@ -9257,7 +9189,7 @@
         <v>77235.433000302874</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>5</v>
       </c>
@@ -9274,7 +9206,7 @@
         <v>77365.4950004071</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>15</v>
       </c>
@@ -9291,7 +9223,7 @@
         <v>77581.595000065863</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>18</v>
       </c>
@@ -9308,7 +9240,7 @@
         <v>77741.647000447847</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>5</v>
       </c>
@@ -9325,7 +9257,7 @@
         <v>77748.65800018888</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>15</v>
       </c>
@@ -9342,7 +9274,7 @@
         <v>77991.97500043083</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>5</v>
       </c>
@@ -9359,7 +9291,7 @@
         <v>78216.904000053182</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>18</v>
       </c>
@@ -9376,7 +9308,7 @@
         <v>78465.234000538476</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>15</v>
       </c>
@@ -9393,7 +9325,7 @@
         <v>78516.061000549234</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>5</v>
       </c>
@@ -9410,7 +9342,7 @@
         <v>78944.251000368968</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>15</v>
       </c>
@@ -9427,7 +9359,7 @@
         <v>79133.346000406891</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>5</v>
       </c>
@@ -9444,7 +9376,7 @@
         <v>79299.414000520483</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>15</v>
       </c>
@@ -9461,7 +9393,7 @@
         <v>79515.560000482947</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>5</v>
       </c>
@@ -9478,7 +9410,7 @@
         <v>79848.727000574581</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>18</v>
       </c>
@@ -9495,7 +9427,7 @@
         <v>79938.742000283673</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +9444,7 @@
         <v>79943.75000030268</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>5</v>
       </c>
@@ -9529,7 +9461,7 @@
         <v>80125.87099999655</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>15</v>
       </c>
@@ -9546,7 +9478,7 @@
         <v>80464.03000052087</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>5</v>
       </c>
@@ -9563,7 +9495,7 @@
         <v>80628.117000265047</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>15</v>
       </c>
@@ -9580,7 +9512,7 @@
         <v>80984.310000110418</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>5</v>
       </c>
@@ -9597,7 +9529,7 @@
         <v>81127.383000100963</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>18</v>
       </c>
@@ -9614,7 +9546,7 @@
         <v>81459.551000129431</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>15</v>
       </c>
@@ -9631,7 +9563,7 @@
         <v>81509.567000088282</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>5</v>
       </c>
@@ -9648,7 +9580,7 @@
         <v>81514.715000102296</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>15</v>
       </c>
@@ -9665,7 +9597,7 @@
         <v>81787.71000020206</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>5</v>
       </c>
@@ -9682,7 +9614,7 @@
         <v>81906.805000221357</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>15</v>
       </c>
@@ -9699,7 +9631,7 @@
         <v>82095.868000457995</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>18</v>
       </c>
@@ -9716,7 +9648,7 @@
         <v>82317.974000028335</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>5</v>
       </c>
@@ -9733,7 +9665,7 @@
         <v>82394.01100021787</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>15</v>
       </c>
@@ -9750,7 +9682,7 @@
         <v>82763.200000533834</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
         <v>296</v>
       </c>
@@ -9767,7 +9699,7 @@
         <v>83258.441000198945</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>298</v>
       </c>
@@ -9784,7 +9716,7 @@
         <v>83290.656000352465</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>300</v>
       </c>
@@ -9801,7 +9733,7 @@
         <v>83327.48900000006</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>5</v>
       </c>
@@ -9818,7 +9750,7 @@
         <v>84295.603000558913</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>18</v>
       </c>
@@ -9835,7 +9767,7 @@
         <v>84534.932000027038</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>5</v>
       </c>
@@ -9852,7 +9784,7 @@
         <v>85368.316000001505</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>5</v>
       </c>
@@ -9869,7 +9801,7 @@
         <v>85747.31700012926</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>18</v>
       </c>
@@ -9886,7 +9818,7 @@
         <v>85967.426000372507</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>5</v>
       </c>
@@ -9903,7 +9835,7 @@
         <v>86017.441000160761</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
         <v>5</v>
       </c>
@@ -9920,7 +9852,7 @@
         <v>86502.682000002824</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
         <v>5</v>
       </c>
@@ -9937,7 +9869,7 @@
         <v>86744.008000055328</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
         <v>15</v>
       </c>
@@ -9954,7 +9886,7 @@
         <v>86813.025000225753</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
         <v>15</v>
       </c>
@@ -9971,7 +9903,7 @@
         <v>86967.877000523731</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
         <v>18</v>
       </c>
@@ -9988,7 +9920,7 @@
         <v>87125.942000141367</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
         <v>5</v>
       </c>
@@ -10005,7 +9937,7 @@
         <v>87127.939000097103</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
         <v>15</v>
       </c>
@@ -10022,7 +9954,7 @@
         <v>87341.230000206269</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
         <v>15</v>
       </c>
@@ -10039,7 +9971,7 @@
         <v>87619.139000005089</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
         <v>5</v>
       </c>
@@ -10056,7 +9988,7 @@
         <v>87781.432000477798</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
         <v>15</v>
       </c>
@@ -10073,7 +10005,7 @@
         <v>87968.281000200659</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
         <v>5</v>
       </c>
@@ -10090,7 +10022,7 @@
         <v>88244.411000143737</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
         <v>15</v>
       </c>
@@ -10107,7 +10039,7 @@
         <v>88310.652000107802</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
         <v>15</v>
       </c>
@@ -10124,7 +10056,7 @@
         <v>88682.585000200197</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
         <v>15</v>
       </c>
@@ -10141,7 +10073,7 @@
         <v>88841.665000095963</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>15</v>
       </c>
@@ -10158,7 +10090,7 @@
         <v>89041.758000478148</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
         <v>18</v>
       </c>
@@ -10175,7 +10107,7 @@
         <v>89154.831000370905</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
         <v>5</v>
       </c>
@@ -10192,7 +10124,7 @@
         <v>89183.833000576124</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
         <v>15</v>
       </c>
@@ -10209,7 +10141,7 @@
         <v>89463.988000061363</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>5</v>
       </c>
@@ -10226,7 +10158,7 @@
         <v>89496.219000429846</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>15</v>
       </c>
@@ -10243,7 +10175,7 @@
         <v>89807.123000174761</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
         <v>15</v>
       </c>
@@ -10260,7 +10192,7 @@
         <v>90042.427000100724</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
         <v>5</v>
       </c>
@@ -10277,7 +10209,7 @@
         <v>90377.35700046178</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
         <v>15</v>
       </c>
@@ -10294,7 +10226,7 @@
         <v>90938.588000019081</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
         <v>15</v>
       </c>
@@ -10311,7 +10243,7 @@
         <v>91077.652000053786</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
         <v>18</v>
       </c>
@@ -10328,7 +10260,7 @@
         <v>91092.660000524484</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
         <v>18</v>
       </c>
@@ -10345,7 +10277,7 @@
         <v>91324.765000375919</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
@@ -10362,7 +10294,7 @@
         <v>91402.815000107512</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
         <v>5</v>
       </c>
@@ -10379,7 +10311,7 @@
         <v>91553.876000549644</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -10396,7 +10328,7 @@
         <v>91610.912000527605</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
         <v>15</v>
       </c>
@@ -10413,7 +10345,7 @@
         <v>91909.024000028148</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
         <v>15</v>
       </c>
@@ -10430,7 +10362,7 @@
         <v>92284.156000195071</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
         <v>5</v>
       </c>
@@ -10447,7 +10379,7 @@
         <v>92490.271000075154</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
         <v>15</v>
       </c>
@@ -10464,7 +10396,7 @@
         <v>92552.314000530168</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
         <v>18</v>
       </c>
@@ -10481,7 +10413,7 @@
         <v>92565.528000472113</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
         <v>15</v>
       </c>
@@ -10498,7 +10430,7 @@
         <v>92857.462000264786</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
         <v>5</v>
       </c>
@@ -10515,7 +10447,7 @@
         <v>93065.543000469916</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>15</v>
       </c>
@@ -10532,7 +10464,7 @@
         <v>93180.597000103444</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
         <v>5</v>
       </c>
@@ -10549,7 +10481,7 @@
         <v>93329.69200022053</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
         <v>18</v>
       </c>
@@ -10566,7 +10498,7 @@
         <v>93501.767000416294</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>5</v>
       </c>
@@ -10583,7 +10515,7 @@
         <v>93875.947000365704</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
         <v>15</v>
       </c>
@@ -10600,7 +10532,7 @@
         <v>93993.014000169933</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
         <v>5</v>
       </c>
@@ -10617,7 +10549,7 @@
         <v>94152.296000579372</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
         <v>15</v>
       </c>
@@ -10634,7 +10566,7 @@
         <v>94339.378999988548</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
@@ -10651,7 +10583,7 @@
         <v>94474.230000469834</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>5</v>
       </c>
@@ -10668,7 +10600,7 @@
         <v>94746.554000512697</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
         <v>15</v>
       </c>
@@ -10685,7 +10617,7 @@
         <v>95101.546000409871</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
         <v>331</v>
       </c>
@@ -10702,7 +10634,7 @@
         <v>95171.780000114813</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>333</v>
       </c>
@@ -10719,7 +10651,7 @@
         <v>95239.596000337042</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +10668,7 @@
         <v>95339.627000084147</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
         <v>18</v>
       </c>
@@ -10753,7 +10685,7 @@
         <v>95348.628000472672</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
         <v>5</v>
       </c>
@@ -10770,7 +10702,7 @@
         <v>95757.00500048697</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
         <v>337</v>
       </c>
@@ -10787,7 +10719,7 @@
         <v>96026.942000049166</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
         <v>339</v>
       </c>
@@ -10804,7 +10736,7 @@
         <v>97230.046000401489</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
         <v>15</v>
       </c>
@@ -10821,7 +10753,7 @@
         <v>97793.306000344455</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
         <v>5</v>
       </c>
@@ -10838,7 +10770,7 @@
         <v>97950.38800011389</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
         <v>15</v>
       </c>
@@ -10855,7 +10787,7 @@
         <v>98128.46900022123</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>5</v>
       </c>
@@ -10872,7 +10804,7 @@
         <v>98284.569000313058</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>15</v>
       </c>
@@ -10889,7 +10821,7 @@
         <v>98499.639000277966</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>343</v>
       </c>
@@ -10906,7 +10838,7 @@
         <v>98625.692000426352</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>18</v>
       </c>
@@ -10923,7 +10855,7 @@
         <v>98640.699000097811</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>346</v>
       </c>
@@ -10940,7 +10872,7 @@
         <v>98667.704000347294</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>15</v>
       </c>
@@ -10957,7 +10889,7 @@
         <v>98799.778999993578</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>5</v>
       </c>
@@ -10974,7 +10906,7 @@
         <v>99060.886000050232</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>15</v>
       </c>
@@ -10991,7 +10923,7 @@
         <v>99404.052000422962</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>15</v>
       </c>
@@ -11008,7 +10940,7 @@
         <v>99721.399999991991</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>5</v>
       </c>
@@ -11025,7 +10957,7 @@
         <v>99892.242000438273</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>15</v>
       </c>
@@ -11042,7 +10974,7 @@
         <v>100119.35600002762</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>5</v>
       </c>
@@ -11059,7 +10991,7 @@
         <v>100284.42500007804</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>15</v>
       </c>
@@ -11076,7 +11008,7 @@
         <v>100508.54400044773</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>5</v>
       </c>
@@ -11093,7 +11025,7 @@
         <v>100679.63499999605</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>18</v>
       </c>
@@ -11110,7 +11042,7 @@
         <v>100751.66300022975</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>15</v>
       </c>
@@ -11127,7 +11059,7 @@
         <v>100872.72400057409</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>5</v>
       </c>
@@ -11144,7 +11076,7 @@
         <v>101041.78800007794</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
         <v>15</v>
       </c>
@@ -11161,7 +11093,7 @@
         <v>101261.89700032119</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
         <v>18</v>
       </c>
@@ -11178,7 +11110,7 @@
         <v>101416.9510005042</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
         <v>15</v>
       </c>
@@ -11195,7 +11127,7 @@
         <v>101561.03800060228</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
         <v>5</v>
       </c>
@@ -11212,7 +11144,7 @@
         <v>101728.10500015039</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
         <v>18</v>
       </c>
@@ -11229,7 +11161,7 @@
         <v>101977.41800048389</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
         <v>5</v>
       </c>
@@ -11246,7 +11178,7 @@
         <v>102231.31800005212</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +11195,7 @@
         <v>102419.39900061116</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
         <v>5</v>
       </c>
@@ -11280,7 +11212,7 @@
         <v>102593.50100022275</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +11229,7 @@
         <v>102811.58200025093</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
         <v>5</v>
       </c>
@@ -11314,7 +11246,7 @@
         <v>103090.70800021291</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
         <v>15</v>
       </c>
@@ -11331,7 +11263,7 @@
         <v>103203.7660000613</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>5</v>
       </c>
@@ -11348,7 +11280,7 @@
         <v>103373.85900034569</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
         <v>15</v>
       </c>
@@ -11365,7 +11297,7 @@
         <v>103557.94600036461</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
         <v>15</v>
       </c>
@@ -11382,7 +11314,7 @@
         <v>103720.00500052236</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +11331,7 @@
         <v>103851.06600006111</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
         <v>15</v>
       </c>
@@ -11416,7 +11348,7 @@
         <v>104036.15100060124</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
         <v>18</v>
       </c>
@@ -11433,7 +11365,7 @@
         <v>104177.19600037672</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
         <v>15</v>
       </c>
@@ -11450,7 +11382,7 @@
         <v>104357.29000002611</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
         <v>5</v>
       </c>
@@ -11467,7 +11399,7 @@
         <v>104528.36600015871</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
         <v>18</v>
       </c>
@@ -11484,7 +11416,7 @@
         <v>104780.50300008617</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
         <v>15</v>
       </c>
@@ -11501,7 +11433,7 @@
         <v>105103.66900018416</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
         <v>15</v>
       </c>
@@ -11518,7 +11450,7 @@
         <v>105417.80300026294</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
         <v>15</v>
       </c>
@@ -11535,7 +11467,7 @@
         <v>105586.08700060286</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
         <v>18</v>
       </c>
@@ -11552,7 +11484,7 @@
         <v>105678.14600011334</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
         <v>15</v>
       </c>
@@ -11569,7 +11501,7 @@
         <v>105790.98500031978</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
         <v>18</v>
       </c>
@@ -11586,7 +11518,7 @@
         <v>105972.06100027543</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
         <v>15</v>
       </c>
@@ -11603,7 +11535,7 @@
         <v>106146.13200025633</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
         <v>15</v>
       </c>
@@ -11620,7 +11552,7 @@
         <v>106446.27200060058</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
         <v>18</v>
       </c>
@@ -11637,7 +11569,7 @@
         <v>106549.34600021224</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
         <v>15</v>
       </c>
@@ -11654,7 +11586,7 @@
         <v>106653.3550002845</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
         <v>5</v>
       </c>
@@ -11671,7 +11603,7 @@
         <v>106923.479000316</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
         <v>368</v>
       </c>
@@ -11688,7 +11620,7 @@
         <v>107816.89400011674</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
         <v>18</v>
       </c>
@@ -11705,7 +11637,7 @@
         <v>108947.3550003022</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
         <v>15</v>
       </c>
@@ -11722,7 +11654,7 @@
         <v>109068.36900017224</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
         <v>18</v>
       </c>
@@ -11739,7 +11671,7 @@
         <v>109235.23300029337</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
         <v>5</v>
       </c>
@@ -11756,7 +11688,7 @@
         <v>109353.28200040385</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
         <v>15</v>
       </c>
@@ -11773,7 +11705,7 @@
         <v>109654.436000227</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
         <v>5</v>
       </c>
@@ -11790,7 +11722,7 @@
         <v>109808.50800010376</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
         <v>5</v>
       </c>
@@ -11807,7 +11739,7 @@
         <v>110363.76400000881</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
         <v>15</v>
       </c>
@@ -11824,7 +11756,7 @@
         <v>110468.00800056662</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
         <v>18</v>
       </c>
@@ -11841,7 +11773,7 @@
         <v>110476.79100022651</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
         <v>5</v>
       </c>
@@ -11858,7 +11790,7 @@
         <v>110687.89800053928</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
         <v>18</v>
       </c>
@@ -11875,7 +11807,7 @@
         <v>110783.99800043553</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
         <v>5</v>
       </c>
@@ -11892,7 +11824,7 @@
         <v>110887.97600024845</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
         <v>18</v>
       </c>
@@ -11909,7 +11841,7 @@
         <v>111234.12200042512</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
         <v>5</v>
       </c>
@@ -11926,7 +11858,7 @@
         <v>111441.22000015341</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
         <v>15</v>
       </c>
@@ -11943,7 +11875,7 @@
         <v>111557.27300047874</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
         <v>376</v>
       </c>
@@ -11960,7 +11892,7 @@
         <v>111807.36600060482</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
         <v>15</v>
       </c>
@@ -11977,7 +11909,7 @@
         <v>111841.3750000298</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
         <v>378</v>
       </c>
@@ -11994,7 +11926,7 @@
         <v>111842.38900013734</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
         <v>5</v>
       </c>
@@ -12011,7 +11943,7 @@
         <v>111970.43900024146</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
         <v>15</v>
       </c>
@@ -12028,7 +11960,7 @@
         <v>112143.51200032979</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
         <v>5</v>
       </c>
@@ -12045,7 +11977,7 @@
         <v>112304.57300059497</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>5</v>
       </c>
@@ -12062,7 +11994,7 @@
         <v>112635.74200056028</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
         <v>18</v>
       </c>
@@ -12079,7 +12011,7 @@
         <v>112966.0850004293</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
         <v>15</v>
       </c>
@@ -12096,7 +12028,7 @@
         <v>113101.93500034511</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
         <v>5</v>
       </c>
@@ -12113,7 +12045,7 @@
         <v>113250.01600035466</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
         <v>5</v>
       </c>
@@ -12130,7 +12062,7 @@
         <v>113519.12600027863</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
         <v>15</v>
       </c>
@@ -12147,7 +12079,7 @@
         <v>113957.31600055005</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
         <v>5</v>
       </c>
@@ -12164,7 +12096,7 @@
         <v>114052.35500049312</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
         <v>18</v>
       </c>
@@ -12181,7 +12113,7 @@
         <v>114078.57900015078</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
         <v>15</v>
       </c>
@@ -12198,7 +12130,7 @@
         <v>114260.4360000696</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
         <v>5</v>
       </c>
@@ -12215,7 +12147,7 @@
         <v>114389.4840000663</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
         <v>15</v>
       </c>
@@ -12232,7 +12164,7 @@
         <v>114766.64400044829</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
         <v>15</v>
       </c>
@@ -12249,7 +12181,7 @@
         <v>115172.80500023626</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
         <v>18</v>
       </c>
@@ -12266,7 +12198,7 @@
         <v>115263.07000047527</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
         <v>5</v>
       </c>
@@ -12283,7 +12215,7 @@
         <v>115307.86000031512</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="3" t="s">
         <v>15</v>
       </c>
@@ -12300,7 +12232,7 @@
         <v>115323.89700030908</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
         <v>18</v>
       </c>
@@ -12317,7 +12249,7 @@
         <v>115830.10600022972</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
         <v>18</v>
       </c>
@@ -12334,7 +12266,7 @@
         <v>115968.38900030125</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
         <v>5</v>
       </c>
@@ -12351,7 +12283,7 @@
         <v>116004.19300042558</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
         <v>15</v>
       </c>
@@ -12368,7 +12300,7 @@
         <v>116054.19300016947</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
         <v>18</v>
       </c>
@@ -12385,7 +12317,7 @@
         <v>116183.44300005119</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
         <v>15</v>
       </c>
@@ -12402,7 +12334,7 @@
         <v>116739.73000044934</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
         <v>5</v>
       </c>
@@ -12419,7 +12351,7 @@
         <v>116807.54500050098</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
         <v>5</v>
       </c>
@@ -12436,7 +12368,7 @@
         <v>117055.6259999983</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
         <v>15</v>
       </c>
@@ -12453,7 +12385,7 @@
         <v>117288.71500049718</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
         <v>5</v>
       </c>
@@ -12470,7 +12402,7 @@
         <v>117319.72900007386</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
         <v>18</v>
       </c>
@@ -12487,7 +12419,7 @@
         <v>117429.79100053199</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
         <v>18</v>
       </c>
@@ -12504,7 +12436,7 @@
         <v>117838.9320001239</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
         <v>18</v>
       </c>
@@ -12521,7 +12453,7 @@
         <v>118015.0160002755</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>5</v>
       </c>
@@ -12538,7 +12470,7 @@
         <v>118333.14400026575</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
         <v>15</v>
       </c>
@@ -12555,7 +12487,7 @@
         <v>118398.18300011102</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
         <v>15</v>
       </c>
@@ -12572,7 +12504,7 @@
         <v>118696.29500024021</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
         <v>5</v>
       </c>
@@ -12589,7 +12521,7 @@
         <v>118789.57100054249</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
         <v>5</v>
       </c>
@@ -12606,7 +12538,7 @@
         <v>119081.4890001202</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
         <v>15</v>
       </c>
@@ -12623,7 +12555,7 @@
         <v>119166.52800024021</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
         <v>5</v>
       </c>
@@ -12640,7 +12572,7 @@
         <v>119346.60600030329</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +12589,7 @@
         <v>119546.69900005683</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
         <v>15</v>
       </c>
@@ -12674,7 +12606,7 @@
         <v>119893.84300012607</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
         <v>5</v>
       </c>
@@ -12691,7 +12623,7 @@
         <v>120240.02100010403</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
         <v>18</v>
       </c>
@@ -12708,7 +12640,7 @@
         <v>120340.08300011046</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
         <v>5</v>
       </c>
@@ -12725,7 +12657,7 @@
         <v>120515.15300015453</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
         <v>15</v>
       </c>
@@ -12742,7 +12674,7 @@
         <v>120518.14800000284</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
         <v>5</v>
       </c>
@@ -12759,7 +12691,7 @@
         <v>120897.3360005999</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
         <v>5</v>
       </c>
@@ -12776,7 +12708,7 @@
         <v>121141.43900040071</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
         <v>15</v>
       </c>
@@ -12793,7 +12725,7 @@
         <v>121598.63000025507</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
         <v>5</v>
       </c>
@@ -12810,7 +12742,7 @@
         <v>121680.67400052678</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
         <v>15</v>
       </c>
@@ -12827,7 +12759,7 @@
         <v>121863.96500053816</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
         <v>5</v>
       </c>
@@ -12844,7 +12776,7 @@
         <v>122025.82100001164</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
         <v>15</v>
       </c>
@@ -12861,7 +12793,7 @@
         <v>122206.91300018225</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
         <v>5</v>
       </c>
@@ -12878,7 +12810,7 @@
         <v>122368.97200034</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
         <v>5</v>
       </c>
@@ -12895,7 +12827,7 @@
         <v>122640.0790002197</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
         <v>15</v>
       </c>
@@ -12912,7 +12844,7 @@
         <v>122824.16600023862</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
         <v>18</v>
       </c>
@@ -12929,7 +12861,7 @@
         <v>122935.2120000869</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
         <v>5</v>
       </c>
@@ -12946,7 +12878,7 @@
         <v>122989.25200004596</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
         <v>15</v>
       </c>
@@ -12963,7 +12895,7 @@
         <v>123177.31700039003</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
         <v>5</v>
       </c>
@@ -12980,7 +12912,7 @@
         <v>123347.39500000142</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
         <v>18</v>
       </c>
@@ -12997,7 +12929,7 @@
         <v>123493.47900005523</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
         <v>5</v>
       </c>
@@ -13014,7 +12946,7 @@
         <v>123623.54100015946</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
         <v>15</v>
       </c>
@@ -13031,7 +12963,7 @@
         <v>123810.63900024164</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
         <v>5</v>
       </c>
@@ -13048,7 +12980,7 @@
         <v>124003.71200060472</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
         <v>5</v>
       </c>
@@ -13065,7 +12997,7 @@
         <v>124259.81200018432</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
         <v>15</v>
       </c>
@@ -13082,7 +13014,7 @@
         <v>124426.89400040545</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
         <v>5</v>
       </c>
@@ -13099,7 +13031,7 @@
         <v>124596.95600043051</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
         <v>18</v>
       </c>
@@ -13116,7 +13048,7 @@
         <v>124883.07100015227</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
         <v>5</v>
       </c>
@@ -13133,7 +13065,7 @@
         <v>125110.38800042588</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
         <v>18</v>
       </c>
@@ -13150,7 +13082,7 @@
         <v>125191.19900031947</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
         <v>5</v>
       </c>
@@ -13167,7 +13099,7 @@
         <v>125391.30800028797</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
         <v>18</v>
       </c>
@@ -13184,7 +13116,7 @@
         <v>125524.38100045547</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
         <v>15</v>
       </c>
@@ -13201,7 +13133,7 @@
         <v>125799.45099998731</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
         <v>18</v>
       </c>
@@ -13218,7 +13150,7 @@
         <v>125898.48300029989</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
         <v>15</v>
       </c>
@@ -13235,7 +13167,7 @@
         <v>125979.51300046407</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
         <v>15</v>
       </c>
@@ -13252,7 +13184,7 @@
         <v>126191.60299999639</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
         <v>15</v>
       </c>
@@ -13269,7 +13201,7 @@
         <v>126401.67999998666</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
         <v>5</v>
       </c>
@@ -13286,7 +13218,7 @@
         <v>126595.76799999923</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
         <v>15</v>
       </c>
@@ -13303,7 +13235,7 @@
         <v>126855.89200020768</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>15</v>
       </c>
@@ -13320,7 +13252,7 @@
         <v>127075.97000019159</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>5</v>
       </c>
@@ -13337,7 +13269,7 @@
         <v>127154.98700018506</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
         <v>15</v>
       </c>
@@ -13354,7 +13286,7 @@
         <v>127256.06300029904</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
         <v>18</v>
       </c>
@@ -13371,7 +13303,7 @@
         <v>127499.15100045037</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
         <v>5</v>
       </c>
@@ -13388,7 +13320,7 @@
         <v>127675.2200005576</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
         <v>18</v>
       </c>
@@ -13405,7 +13337,7 @@
         <v>128005.578000471</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
         <v>15</v>
       </c>
@@ -13422,7 +13354,7 @@
         <v>128022.38000021316</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
         <v>5</v>
       </c>
@@ -13439,7 +13371,7 @@
         <v>128109.43100033328</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
         <v>15</v>
       </c>
@@ -13456,7 +13388,7 @@
         <v>128481.55200043693</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
         <v>18</v>
       </c>
@@ -13473,7 +13405,7 @@
         <v>128745.90500041377</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
         <v>15</v>
       </c>
@@ -13490,7 +13422,7 @@
         <v>128763.67400041781</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
         <v>18</v>
       </c>
@@ -13507,7 +13439,7 @@
         <v>128891.75500015263</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
         <v>15</v>
       </c>
@@ -13524,7 +13456,7 @@
         <v>129028.80600001663</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
         <v>15</v>
       </c>
@@ -13541,7 +13473,7 @@
         <v>129297.91600056924</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
         <v>15</v>
       </c>
@@ -13558,7 +13490,7 @@
         <v>129642.08100037649</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
         <v>15</v>
       </c>
@@ -13575,7 +13507,7 @@
         <v>129830.16200030688</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
         <v>18</v>
       </c>
@@ -13592,7 +13524,7 @@
         <v>130238.35200048052</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
         <v>15</v>
       </c>
@@ -13609,7 +13541,7 @@
         <v>130433.40600058436</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
         <v>15</v>
       </c>
@@ -13626,7 +13558,7 @@
         <v>130671.51800051797</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
         <v>15</v>
       </c>
@@ -13643,7 +13575,7 @@
         <v>130878.61600024626</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
         <v>15</v>
       </c>
@@ -13660,7 +13592,7 @@
         <v>131031.89200011548</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
         <v>18</v>
       </c>
@@ -13677,7 +13609,7 @@
         <v>131305.80700000282</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
         <v>5</v>
       </c>
@@ -13694,7 +13626,7 @@
         <v>132141.344000143</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
         <v>5</v>
       </c>
@@ -13711,7 +13643,7 @@
         <v>132452.26400010288</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>18</v>
       </c>
@@ -13728,7 +13660,7 @@
         <v>132694.38499999233</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
         <v>18</v>
       </c>
@@ -13745,7 +13677,7 @@
         <v>132855.46100030188</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
         <v>5</v>
       </c>
@@ -13762,7 +13694,7 @@
         <v>133061.54500055127</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
         <v>15</v>
       </c>
@@ -13779,7 +13711,7 @@
         <v>133789.87500008661</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
         <v>15</v>
       </c>
@@ -13796,7 +13728,7 @@
         <v>133984.96099999174</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
         <v>5</v>
       </c>
@@ -13813,7 +13745,7 @@
         <v>134324.10200019367</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
         <v>18</v>
       </c>
@@ -13830,7 +13762,7 @@
         <v>134391.15300003905</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
         <v>5</v>
       </c>
@@ -13847,7 +13779,7 @@
         <v>134496.20800002012</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
         <v>15</v>
       </c>
@@ -13864,7 +13796,7 @@
         <v>134558.23600043077</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
         <v>18</v>
       </c>
@@ -13881,7 +13813,7 @@
         <v>134715.28700056951</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
         <v>15</v>
       </c>
@@ -13898,7 +13830,7 @@
         <v>134880.37300037686</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
         <v>18</v>
       </c>
@@ -13915,7 +13847,7 @@
         <v>135301.77600032184</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
         <v>18</v>
       </c>
@@ -13932,7 +13864,7 @@
         <v>135530.85500006564</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
         <v>15</v>
       </c>
@@ -13949,7 +13881,7 @@
         <v>135725.75300058816</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
         <v>15</v>
       </c>
@@ -13966,7 +13898,7 @@
         <v>136042.88200051524</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
         <v>5</v>
       </c>
@@ -13983,7 +13915,7 @@
         <v>136216.95400003809</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
         <v>5</v>
       </c>
@@ -14000,7 +13932,7 @@
         <v>136395.0500001898</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
         <v>18</v>
       </c>
@@ -14017,7 +13949,7 @@
         <v>136464.08300057519</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
         <v>15</v>
       </c>
@@ -14034,7 +13966,7 @@
         <v>136544.11400004756</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
         <v>18</v>
       </c>
@@ -14051,7 +13983,7 @@
         <v>137060.52500030492</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
         <v>5</v>
       </c>
@@ -14068,7 +14000,7 @@
         <v>137406.46900059655</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
         <v>5</v>
       </c>
@@ -14085,7 +14017,7 @@
         <v>137611.5700003691</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
         <v>15</v>
       </c>
@@ -14102,7 +14034,7 @@
         <v>137666.57700059004</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
         <v>18</v>
       </c>
@@ -14119,7 +14051,7 @@
         <v>137690.60200040694</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
         <v>18</v>
       </c>
@@ -14136,7 +14068,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
         <v>5</v>
       </c>
@@ -14153,7 +14085,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
         <v>15</v>
       </c>
@@ -14170,7 +14102,7 @@
         <v>138217.84000012558</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
         <v>18</v>
       </c>
@@ -14187,7 +14119,7 @@
         <v>138515.00000003725</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
         <v>5</v>
       </c>
@@ -14204,7 +14136,7 @@
         <v>138650.06100051105</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
         <v>339</v>
       </c>
@@ -14221,7 +14153,7 @@
         <v>139377.35000036191</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
         <v>5</v>
       </c>
@@ -14238,7 +14170,7 @@
         <v>139768.4720000485</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
         <v>5</v>
       </c>
@@ -14255,7 +14187,7 @@
         <v>140050.60900007375</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
         <v>18</v>
       </c>
@@ -14272,7 +14204,7 @@
         <v>140201.68500056025</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
         <v>5</v>
       </c>
@@ -14289,7 +14221,7 @@
         <v>140449.76600005757</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
         <v>18</v>
       </c>
@@ -14306,7 +14238,7 @@
         <v>140597.8310004808</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
         <v>18</v>
       </c>
@@ -14323,7 +14255,7 @@
         <v>140879.96800050605</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
         <v>15</v>
       </c>
@@ -14340,7 +14272,7 @@
         <v>141071.06000049971</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
         <v>15</v>
       </c>
@@ -14357,7 +14289,7 @@
         <v>141286.17700031027</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
         <v>15</v>
       </c>
@@ -14374,7 +14306,7 @@
         <v>141500.24800021201</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
         <v>5</v>
       </c>
@@ -14391,7 +14323,7 @@
         <v>141543.25900019612</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
         <v>18</v>
       </c>
@@ -14408,7 +14340,7 @@
         <v>141925.6300000241</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
         <v>5</v>
       </c>
@@ -14425,7 +14357,7 @@
         <v>142053.4770000726</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
         <v>15</v>
       </c>
@@ -14442,7 +14374,7 @@
         <v>142121.51100039482</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
         <v>15</v>
       </c>
@@ -14459,7 +14391,7 @@
         <v>142421.6660001548</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
         <v>18</v>
       </c>
@@ -14476,7 +14408,7 @@
         <v>142876.7980001634</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
         <v>15</v>
       </c>
@@ -14493,7 +14425,7 @@
         <v>142910.80700021703</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
         <v>5</v>
       </c>
@@ -14510,7 +14442,7 @@
         <v>143091.88400034327</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
         <v>18</v>
       </c>
@@ -14527,7 +14459,7 @@
         <v>143315.78100055922</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
         <v>5</v>
       </c>
@@ -14544,7 +14476,7 @@
         <v>143446.76399999298</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
         <v>18</v>
       </c>
@@ -14561,7 +14493,7 @@
         <v>143590.63299999107</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
         <v>15</v>
       </c>
@@ -14578,7 +14510,7 @@
         <v>143914.76600035094</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
         <v>5</v>
       </c>
@@ -14595,7 +14527,7 @@
         <v>143965.00000040978</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
         <v>18</v>
       </c>
@@ -14612,7 +14544,7 @@
         <v>144333.93900019582</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
         <v>15</v>
       </c>
@@ -14629,7 +14561,7 @@
         <v>144511.00600019563</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
         <v>18</v>
       </c>
@@ -14646,7 +14578,7 @@
         <v>144909.19500037562</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
         <v>15</v>
       </c>
@@ -14663,7 +14595,7 @@
         <v>144957.43200047873</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
         <v>5</v>
       </c>
@@ -14680,7 +14612,7 @@
         <v>145209.3510003062</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
         <v>15</v>
       </c>
@@ -14697,7 +14629,7 @@
         <v>145243.36000035983</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
         <v>5</v>
       </c>
@@ -14714,7 +14646,7 @@
         <v>145524.49900049251</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
         <v>15</v>
       </c>
@@ -14731,7 +14663,7 @@
         <v>145583.73400031123</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
         <v>15</v>
       </c>
@@ -14748,7 +14680,7 @@
         <v>145743.60900004394</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
         <v>5</v>
       </c>
@@ -14765,7 +14697,7 @@
         <v>145915.66800002474</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
         <v>15</v>
       </c>
@@ -14782,7 +14714,7 @@
         <v>146100.73800052051</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
         <v>18</v>
       </c>
@@ -14799,7 +14731,7 @@
         <v>146193.99800060783</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
         <v>15</v>
       </c>
@@ -14816,7 +14748,7 @@
         <v>146605.96300042234</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
         <v>18</v>
       </c>
@@ -14833,7 +14765,7 @@
         <v>147022.14100041892</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
         <v>5</v>
       </c>
@@ -14850,7 +14782,7 @@
         <v>147022.20300030895</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
         <v>15</v>
       </c>
@@ -14867,7 +14799,7 @@
         <v>147086.16600015666</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
         <v>15</v>
       </c>
@@ -14884,7 +14816,7 @@
         <v>147465.32300049439</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
         <v>5</v>
       </c>
@@ -14901,7 +14833,7 @@
         <v>147517.33500023838</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
         <v>15</v>
       </c>
@@ -14918,7 +14850,7 @@
         <v>147675.61900012661</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
         <v>15</v>
       </c>
@@ -14935,7 +14867,7 @@
         <v>148021.54600003269</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
         <v>15</v>
       </c>
@@ -14952,7 +14884,7 @@
         <v>148221.65500000119</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
         <v>5</v>
       </c>
@@ -14969,7 +14901,7 @@
         <v>148536.77200055681</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
         <v>15</v>
       </c>
@@ -14986,7 +14918,7 @@
         <v>148598.02000054624</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
         <v>18</v>
       </c>
@@ -15003,7 +14935,7 @@
         <v>148636.02300051134</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
         <v>5</v>
       </c>
@@ -15020,7 +14952,7 @@
         <v>148796.91200035159</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
         <v>5</v>
       </c>
@@ -15037,7 +14969,7 @@
         <v>149081.2480002176</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
         <v>18</v>
       </c>
@@ -15054,7 +14986,7 @@
         <v>149207.09800031036</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
         <v>18</v>
       </c>
@@ -15071,7 +15003,7 @@
         <v>149688.54800029658</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
         <v>15</v>
       </c>
@@ -15088,7 +15020,7 @@
         <v>149907.45600059163</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
         <v>15</v>
       </c>
@@ -15105,7 +15037,7 @@
         <v>150247.61200044304</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
         <v>5</v>
       </c>
@@ -15122,7 +15054,7 @@
         <v>150337.67399999779</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
         <v>15</v>
       </c>
@@ -15139,7 +15071,7 @@
         <v>150724.10100025591</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
         <v>5</v>
       </c>
@@ -15156,7 +15088,7 @@
         <v>150767.89200003259</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
         <v>15</v>
       </c>
@@ -15173,7 +15105,7 @@
         <v>150855.94100004528</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
         <v>5</v>
       </c>
@@ -15190,7 +15122,7 @@
         <v>151032.02500019688</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
         <v>18</v>
       </c>
@@ -15207,7 +15139,7 @@
         <v>151210.09100025985</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
         <v>5</v>
       </c>
@@ -15224,7 +15156,7 @@
         <v>151368.1710005505</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
         <v>18</v>
       </c>
@@ -15241,7 +15173,7 @@
         <v>151669.32500037365</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
         <v>5</v>
       </c>
@@ -15258,7 +15190,7 @@
         <v>151934.44200055674</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
         <v>15</v>
       </c>
@@ -15275,7 +15207,7 @@
         <v>151962.46100028511</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
         <v>5</v>
       </c>
@@ -15292,7 +15224,7 @@
         <v>152182.57000052836</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
         <v>5</v>
       </c>
@@ -15309,7 +15241,7 @@
         <v>152569.74500014912</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
         <v>18</v>
       </c>
@@ -15326,7 +15258,7 @@
         <v>152686.79700053763</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
         <v>15</v>
       </c>
@@ -15343,7 +15275,7 @@
         <v>152795.82900004461</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
         <v>18</v>
       </c>
@@ -15360,7 +15292,7 @@
         <v>152971.13300040364</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
         <v>15</v>
       </c>
@@ -15377,7 +15309,7 @@
         <v>153128.99600013625</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
         <v>15</v>
       </c>
@@ -15394,7 +15326,7 @@
         <v>153503.14500045497</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
         <v>5</v>
       </c>
@@ -15411,7 +15343,7 @@
         <v>153661.22600028757</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
         <v>15</v>
       </c>
@@ -15428,7 +15360,7 @@
         <v>153682.42700051051</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
         <v>15</v>
       </c>
@@ -15445,7 +15377,7 @@
         <v>154054.40799999051</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
         <v>15</v>
       </c>
@@ -15462,7 +15394,7 @@
         <v>154222.4880001042</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
         <v>18</v>
       </c>
@@ -15479,7 +15411,7 @@
         <v>154357.52700059675</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
         <v>18</v>
       </c>
@@ -15496,7 +15428,7 @@
         <v>154522.59700018913</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
         <v>15</v>
       </c>
@@ -15513,7 +15445,7 @@
         <v>154583.62700007856</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
         <v>5</v>
       </c>
@@ -15530,7 +15462,7 @@
         <v>154693.68900053669</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
         <v>18</v>
       </c>
@@ -15547,7 +15479,7 @@
         <v>154750.70900029968</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
         <v>15</v>
       </c>
@@ -15564,7 +15496,7 @@
         <v>154818.72800057754</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
         <v>5</v>
       </c>
@@ -15581,7 +15513,7 @@
         <v>154989.81900012586</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
         <v>15</v>
       </c>
@@ -15598,7 +15530,7 @@
         <v>155646.15200031549</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
         <v>15</v>
       </c>
@@ -15615,7 +15547,7 @@
         <v>156015.32500041649</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
         <v>18</v>
       </c>
@@ -15632,7 +15564,7 @@
         <v>156035.34100027755</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
         <v>15</v>
       </c>
@@ -15649,7 +15581,7 @@
         <v>156236.65100019425</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
         <v>18</v>
       </c>
@@ -15666,7 +15598,7 @@
         <v>156348.49100033753</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
         <v>5</v>
       </c>
@@ -15683,7 +15615,7 @@
         <v>156443.60800038557</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
         <v>18</v>
       </c>
@@ -15700,7 +15632,7 @@
         <v>156494.56000034697</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
         <v>15</v>
       </c>
@@ -15717,7 +15649,7 @@
         <v>156850.73700060602</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
         <v>5</v>
       </c>
@@ -15734,7 +15666,7 @@
         <v>156863.95100054797</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
         <v>5</v>
       </c>
@@ -15751,7 +15683,7 @@
         <v>157207.88200004026</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
         <v>15</v>
       </c>
@@ -15768,7 +15700,7 @@
         <v>157559.05100028031</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
         <v>18</v>
       </c>
@@ -15785,7 +15717,7 @@
         <v>157593.0760005489</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
         <v>5</v>
       </c>
@@ -15802,7 +15734,7 @@
         <v>157687.16300027445</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
         <v>15</v>
       </c>
@@ -15819,7 +15751,7 @@
         <v>157771.17200007197</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
         <v>18</v>
       </c>
@@ -15836,7 +15768,7 @@
         <v>157913.2630003849</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
         <v>5</v>
       </c>
@@ -15853,7 +15785,7 @@
         <v>158058.33300033119</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
         <v>18</v>
       </c>
@@ -15870,7 +15802,7 @@
         <v>158395.46200053301</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
         <v>5</v>
       </c>
@@ -15887,7 +15819,7 @@
         <v>158519.51800009701</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
         <v>15</v>
       </c>
@@ -15904,7 +15836,7 @@
         <v>158728.61200023908</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
         <v>5</v>
       </c>
@@ -15921,7 +15853,7 @@
         <v>158889.70400013495</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
         <v>5</v>
       </c>
@@ -15938,7 +15870,7 @@
         <v>159170.81100046635</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
         <v>15</v>
       </c>
@@ -15955,7 +15887,7 @@
         <v>159360.90500056744</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
         <v>5</v>
       </c>
@@ -15972,7 +15904,7 @@
         <v>159533.02600043826</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +15921,7 @@
         <v>159720.31100036111</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
         <v>18</v>
       </c>
@@ -16006,7 +15938,7 @@
         <v>159802.13700053282</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
         <v>5</v>
       </c>
@@ -16023,7 +15955,7 @@
         <v>159885.19400011282</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
         <v>5</v>
       </c>
@@ -16040,7 +15972,7 @@
         <v>160246.34800013155</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
         <v>15</v>
       </c>
@@ -16057,7 +15989,7 @@
         <v>160518.48500033375</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
         <v>5</v>
       </c>
@@ -16074,7 +16006,7 @@
         <v>160532.49400011264</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
         <v>5</v>
       </c>
@@ -16091,7 +16023,7 @@
         <v>160883.66400052328</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
         <v>18</v>
       </c>
@@ -16108,7 +16040,7 @@
         <v>161028.74900051393</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
         <v>5</v>
       </c>
@@ -16125,7 +16057,7 @@
         <v>161176.81500047911</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
         <v>15</v>
       </c>
@@ -16142,7 +16074,7 @@
         <v>161330.09100034833</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
         <v>18</v>
       </c>
@@ -16159,7 +16091,7 @@
         <v>161416.14300040528</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="3" t="s">
         <v>5</v>
       </c>
@@ -16176,7 +16108,7 @@
         <v>161743.10100052971</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="3" t="s">
         <v>18</v>
       </c>
@@ -16193,7 +16125,7 @@
         <v>162189.32500029914</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="3" t="s">
         <v>5</v>
       </c>
@@ -16210,7 +16142,7 @@
         <v>162226.34500041604</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="3" t="s">
         <v>15</v>
       </c>
@@ -16227,7 +16159,7 @@
         <v>162401.41500046011</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="3" t="s">
         <v>5</v>
       </c>
@@ -16244,7 +16176,7 @@
         <v>162500.46300035901</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="3" t="s">
         <v>18</v>
       </c>
@@ -16261,7 +16193,7 @@
         <v>162680.55600046646</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="3" t="s">
         <v>5</v>
       </c>
@@ -16278,7 +16210,7 @@
         <v>162689.5740006119</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="3" t="s">
         <v>15</v>
       </c>
@@ -16295,7 +16227,7 @@
         <v>162867.63900050428</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="3" t="s">
         <v>5</v>
       </c>
@@ -16312,7 +16244,7 @@
         <v>163028.71500018518</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="3" t="s">
         <v>5</v>
       </c>
@@ -16329,7 +16261,7 @@
         <v>163422.88000036497</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="3" t="s">
         <v>15</v>
       </c>
@@ -16346,7 +16278,7 @@
         <v>163741.28800034523</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="3" t="s">
         <v>5</v>
       </c>
@@ -16363,7 +16295,7 @@
         <v>163930.11800043751</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="3" t="s">
         <v>15</v>
       </c>
@@ -16380,7 +16312,7 @@
         <v>164284.56300005782</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="3" t="s">
         <v>18</v>
       </c>
@@ -16397,7 +16329,7 @@
         <v>164460.41300052311</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="3" t="s">
         <v>15</v>
       </c>
@@ -16414,7 +16346,7 @@
         <v>164498.41600048821</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="3" t="s">
         <v>5</v>
       </c>
@@ -16431,7 +16363,7 @@
         <v>164610.71000013035</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="3" t="s">
         <v>15</v>
       </c>
@@ -16448,7 +16380,7 @@
         <v>164716.54400036205</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="3" t="s">
         <v>5</v>
       </c>
@@ -16465,7 +16397,7 @@
         <v>164854.60900033358</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="3" t="s">
         <v>15</v>
       </c>
@@ -16482,7 +16414,7 @@
         <v>165079.69500033651</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="3" t="s">
         <v>18</v>
       </c>
@@ -16499,7 +16431,7 @@
         <v>165221.97200031951</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="3" t="s">
         <v>18</v>
       </c>
@@ -16516,7 +16448,7 @@
         <v>165556.90200005192</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="3" t="s">
         <v>5</v>
       </c>
@@ -16533,7 +16465,7 @@
         <v>165649.95900008362</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="3" t="s">
         <v>15</v>
       </c>
@@ -16550,7 +16482,7 @@
         <v>165870.08400054183</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
         <v>18</v>
       </c>
@@ -16567,7 +16499,7 @@
         <v>165899.08500057645</v>
       </c>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="3" t="s">
         <v>5</v>
       </c>
@@ -16584,7 +16516,7 @@
         <v>165920.09900033008</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="3" t="s">
         <v>15</v>
       </c>
@@ -16601,7 +16533,7 @@
         <v>166138.22700020391</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="3" t="s">
         <v>5</v>
       </c>
@@ -16618,7 +16550,7 @@
         <v>166306.32300053257</v>
       </c>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="3" t="s">
         <v>15</v>
       </c>
@@ -16635,7 +16567,7 @@
         <v>166530.62900011428</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="3" t="s">
         <v>5</v>
       </c>
@@ -16652,7 +16584,7 @@
         <v>166698.49100012798</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="3" t="s">
         <v>18</v>
       </c>
@@ -16669,7 +16601,7 @@
         <v>167122.68700003624</v>
       </c>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="3" t="s">
         <v>18</v>
       </c>
@@ -16686,7 +16618,7 @@
         <v>167269.76900061127</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="3" t="s">
         <v>15</v>
       </c>
@@ -16703,7 +16635,7 @@
         <v>167525.88400023524</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="3" t="s">
         <v>18</v>
       </c>
@@ -16720,7 +16652,7 @@
         <v>167667.95900033321</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="3" t="s">
         <v>5</v>
       </c>
@@ -16737,7 +16669,7 @@
         <v>167808.02100026049</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="3" t="s">
         <v>18</v>
       </c>
@@ -16754,7 +16686,7 @@
         <v>167874.04300058261</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
         <v>5</v>
       </c>
@@ -16771,7 +16703,7 @@
         <v>168064.1360005131</v>
       </c>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="3" t="s">
         <v>15</v>
       </c>
@@ -16788,7 +16720,7 @@
         <v>168287.25600019097</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="3" t="s">
         <v>18</v>
       </c>
@@ -16805,7 +16737,7 @@
         <v>168430.32900018152</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="3" t="s">
         <v>15</v>
       </c>
@@ -16822,7 +16754,7 @@
         <v>168619.40800000448</v>
       </c>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="3" t="s">
         <v>5</v>
       </c>
@@ -16839,7 +16771,7 @@
         <v>169005.58600053191</v>
       </c>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="3" t="s">
         <v>15</v>
       </c>
@@ -16856,7 +16788,7 @@
         <v>169007.58300048765</v>
       </c>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
         <v>15</v>
       </c>
@@ -16873,7 +16805,7 @@
         <v>169399.7500005411</v>
       </c>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
         <v>15</v>
       </c>
@@ -16890,7 +16822,7 @@
         <v>169615.07000040729</v>
       </c>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
         <v>15</v>
       </c>
@@ -16907,7 +16839,7 @@
         <v>169836.95700033568</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
         <v>18</v>
       </c>
@@ -16924,7 +16856,7 @@
         <v>169973.01000030711</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
         <v>15</v>
       </c>
@@ -16941,7 +16873,7 @@
         <v>170130.07700003218</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="3" t="s">
         <v>18</v>
       </c>
@@ -16958,7 +16890,7 @@
         <v>170309.17200024705</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="3" t="s">
         <v>5</v>
       </c>
@@ -16975,7 +16907,7 @@
         <v>170476.23900042381</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="3" t="s">
         <v>15</v>
       </c>
@@ -16992,7 +16924,7 @@
         <v>170507.25300000049</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="3" t="s">
         <v>15</v>
       </c>
@@ -17009,7 +16941,7 @@
         <v>170803.38300021831</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="3" t="s">
         <v>131</v>
       </c>
@@ -17026,7 +16958,7 @@
         <v>170868.40700001922</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="3" t="s">
         <v>15</v>
       </c>
@@ -17043,7 +16975,7 @@
         <v>170982.47800043318</v>
       </c>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="3" t="s">
         <v>5</v>
       </c>
@@ -17060,7 +16992,7 @@
         <v>171133.53900024667</v>
       </c>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="3" t="s">
         <v>15</v>
       </c>
@@ -17077,7 +17009,7 @@
         <v>171503.62000060268</v>
       </c>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="3" t="s">
         <v>5</v>
       </c>
@@ -17094,7 +17026,7 @@
         <v>171671.50100008585</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="3" t="s">
         <v>15</v>
       </c>
@@ -17111,7 +17043,7 @@
         <v>171843.45900043845</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="3" t="s">
         <v>15</v>
       </c>
@@ -17128,7 +17060,7 @@
         <v>172006.47800029255</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="3" t="s">
         <v>5</v>
       </c>
@@ -17145,7 +17077,7 @@
         <v>172171.50300038047</v>
       </c>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="3" t="s">
         <v>15</v>
       </c>
@@ -17162,7 +17094,7 @@
         <v>172343.56900029816</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="3" t="s">
         <v>18</v>
       </c>
@@ -17179,7 +17111,7 @@
         <v>172415.59300047811</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="3" t="s">
         <v>5</v>
       </c>
@@ -17196,7 +17128,7 @@
         <v>172512.64000036754</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="3" t="s">
         <v>18</v>
       </c>

--- a/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
+++ b/BCWinForm/Config/SOUTH_INNOLUX/CSTTranSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -1951,56 +1951,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K11"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.296875" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C1" s="1">
-        <v>10002</v>
-      </c>
-      <c r="D1" s="1">
-        <v>10003</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10004</v>
-      </c>
-      <c r="F1" s="1">
-        <v>10005</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10006</v>
-      </c>
-      <c r="H1" s="1">
-        <v>10007</v>
-      </c>
-      <c r="I1" s="1">
-        <v>10008</v>
-      </c>
-      <c r="J1" s="1">
-        <v>10009</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28006</v>
+      </c>
+      <c r="C1" s="2">
+        <v>20005</v>
+      </c>
+      <c r="D1" s="2">
+        <v>20062</v>
+      </c>
+      <c r="E1" s="2">
+        <v>20008</v>
+      </c>
+      <c r="F1" s="2">
+        <v>20058</v>
+      </c>
+      <c r="G1" s="2">
+        <v>20011</v>
+      </c>
+      <c r="H1" s="2">
+        <v>20053</v>
+      </c>
+      <c r="I1" s="2">
+        <v>20016</v>
+      </c>
+      <c r="J1" s="2">
+        <v>20050</v>
+      </c>
+      <c r="K1" s="2">
+        <v>20021</v>
+      </c>
+      <c r="L1" s="2">
+        <v>20046</v>
+      </c>
+      <c r="M1" s="2">
+        <v>20026</v>
+      </c>
+      <c r="N1" s="2">
+        <v>20042</v>
+      </c>
+      <c r="O1" s="2">
+        <v>20030</v>
+      </c>
+      <c r="P1" s="2">
+        <v>20075</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>20076</v>
+      </c>
+      <c r="R1" s="2">
+        <v>20077</v>
+      </c>
+      <c r="S1" s="2">
+        <v>20038</v>
+      </c>
+      <c r="T1" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>10001</v>
+        <v>28006</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2032,10 +2059,37 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>10002</v>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>20005</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2067,15 +2121,42 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>20062</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
@@ -2102,15 +2183,42 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>20008</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
@@ -2137,15 +2245,42 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20058</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
@@ -2172,15 +2307,42 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>20011</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -2207,15 +2369,42 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>20053</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
@@ -2242,15 +2431,42 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>20016</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
@@ -2277,15 +2493,42 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>20050</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
@@ -2312,15 +2555,42 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>20021</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
@@ -2345,6 +2615,591 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>20046</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>20026</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20042</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>20030</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20075</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>20076</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>20077</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>20038</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2363,16 +3218,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +3278,7 @@
         <v>269.11300043575466</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +3295,7 @@
         <v>543.46900011878461</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2457,7 +3312,7 @@
         <v>796.35800009127706</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +3329,7 @@
         <v>1075.5190003663301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +3346,7 @@
         <v>1356.6610003821552</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2508,7 +3363,7 @@
         <v>1460.7180004706606</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +3380,7 @@
         <v>1502.7310005621985</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +3397,7 @@
         <v>1831.8770005367696</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2559,7 +3414,7 @@
         <v>1864.1080002766103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +3431,7 @@
         <v>2087.2310004662722</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +3448,7 @@
         <v>2249.2760001216084</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2610,7 +3465,7 @@
         <v>2416.1420005839318</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2627,7 +3482,7 @@
         <v>2672.4950005766004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +3499,7 @@
         <v>2830.3280002204701</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +3516,7 @@
         <v>2994.4170003058389</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -2678,7 +3533,7 @@
         <v>3250.7700002985075</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +3550,7 @@
         <v>3387.8540001343936</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +3567,7 @@
         <v>3638.7460001511499</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2729,7 +3584,7 @@
         <v>3837.8590005682781</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +3601,7 @@
         <v>3979.1240001562983</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2763,7 +3618,7 @@
         <v>4170.9980002837256</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -2780,7 +3635,7 @@
         <v>4317.0840000500903</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -2797,7 +3652,7 @@
         <v>4505.1680004922673</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +3669,7 @@
         <v>4846.3260002899915</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +3686,7 @@
         <v>5012.6300004310906</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +3703,7 @@
         <v>5250.5270001478493</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +3720,7 @@
         <v>5404.6160004101694</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2882,7 +3737,7 @@
         <v>5790.8140005776659</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +3754,7 @@
         <v>5983.999000559561</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +3771,7 @@
         <v>6064.9509999901056</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +3788,7 @@
         <v>6255.047000432387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +3805,7 @@
         <v>6441.1180000752211</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +3822,7 @@
         <v>6617.1880003530532</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +3839,7 @@
         <v>6808.2980002742261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3856,7 @@
         <v>6915.3510003816336</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3873,7 @@
         <v>7079.6270003076643</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -3035,7 +3890,7 @@
         <v>7180.6580002885312</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3907,7 @@
         <v>7407.5720003340393</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +3924,7 @@
         <v>7589.6420001285151</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3941,7 @@
         <v>7995.708000054583</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3958,7 @@
         <v>8202.7820000890642</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3975,7 @@
         <v>8243.8099999912083</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3992,7 @@
         <v>8567.154000280425</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +4009,7 @@
         <v>8754.2510001920164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +4026,7 @@
         <v>9012.1620000572875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +4043,7 @@
         <v>9048.2930000172928</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +4060,7 @@
         <v>9324.3180002784356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +4077,7 @@
         <v>9535.4280004743487</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3239,7 +4094,7 @@
         <v>9597.4570004269481</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +4111,7 @@
         <v>9966.6489999974146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -3273,7 +4128,7 @@
         <v>10078.913000179455</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +4145,7 @@
         <v>10147.744000051171</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -3307,7 +4162,7 @@
         <v>10356.841000076383</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -3324,7 +4179,7 @@
         <v>10583.942000591196</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -3341,7 +4196,7 @@
         <v>10598.950000433251</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>18</v>
       </c>
@@ -3358,7 +4213,7 @@
         <v>10737.017000117339</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +4230,7 @@
         <v>11053.16700024996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +4247,7 @@
         <v>11141.21800060384</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +4264,7 @@
         <v>11383.342000376433</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -3426,7 +4281,7 @@
         <v>11463.37500018999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +4298,7 @@
         <v>11626.450000167824</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +4315,7 @@
         <v>11789.571999991313</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +4332,7 @@
         <v>11984.660000237636</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +4349,7 @@
         <v>12129.716000310145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +4366,7 @@
         <v>12450.094000040554</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>18</v>
       </c>
@@ -3528,7 +4383,7 @@
         <v>12487.910000164993</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>15</v>
       </c>
@@ -3545,7 +4400,7 @@
         <v>12762.016000575386</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>15</v>
       </c>
@@ -3562,7 +4417,7 @@
         <v>12981.130000180565</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>15</v>
       </c>
@@ -3579,7 +4434,7 @@
         <v>13196.218000072986</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>18</v>
       </c>
@@ -3596,7 +4451,7 @@
         <v>13212.224000436254</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +4468,7 @@
         <v>13258.247000025585</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>15</v>
       </c>
@@ -3630,7 +4485,7 @@
         <v>13412.305000028573</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +4502,7 @@
         <v>13869.533000537194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +4519,7 @@
         <v>14085.666000167839</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +4536,7 @@
         <v>14517.840000079013</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +4553,7 @@
         <v>14525.843000574969</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -3715,7 +4570,7 @@
         <v>14748.965000594035</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -3732,7 +4587,7 @@
         <v>14840.995000186376</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>18</v>
       </c>
@@ -3749,7 +4604,7 @@
         <v>15016.067000571638</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +4621,7 @@
         <v>15230.359000456519</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +4638,7 @@
         <v>15564.310000394471</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +4655,7 @@
         <v>15743.423000536859</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -3817,7 +4672,7 @@
         <v>15776.403000438586</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3834,7 +4689,7 @@
         <v>15844.438000302762</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -3851,7 +4706,7 @@
         <v>16275.644000410102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +4723,7 @@
         <v>16432.71300047636</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +4740,7 @@
         <v>16836.867000488564</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +4757,7 @@
         <v>17079.975000279956</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>15</v>
       </c>
@@ -3919,7 +4774,7 @@
         <v>17234.048000327311</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>15</v>
       </c>
@@ -3936,7 +4791,7 @@
         <v>17488.154000462964</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +4808,7 @@
         <v>17501.181000564247</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>15</v>
       </c>
@@ -3970,7 +4825,7 @@
         <v>17658.234000415541</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>15</v>
       </c>
@@ -3987,7 +4842,7 @@
         <v>18045.41500043124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4859,7 @@
         <v>18369.771000486799</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +4876,7 @@
         <v>18513.626000611112</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -4038,7 +4893,7 @@
         <v>18531.629000301473</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4910,7 @@
         <v>18580.677999998443</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -4072,7 +4927,7 @@
         <v>18759.744000295177</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>15</v>
       </c>
@@ -4089,7 +4944,7 @@
         <v>19107.907000067644</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -4106,7 +4961,7 @@
         <v>19248.189000436105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4978,7 @@
         <v>19438.051000563428</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4995,7 @@
         <v>19581.126000266522</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +5012,7 @@
         <v>19873.267000168562</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -4174,7 +5029,7 @@
         <v>19936.512000113726</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>15</v>
       </c>
@@ -4191,7 +5046,7 @@
         <v>19964.329000585712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -4208,7 +5063,7 @@
         <v>20160.399000509642</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>15</v>
       </c>
@@ -4225,7 +5080,7 @@
         <v>20336.486000544392</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +5097,7 @@
         <v>20506.566000496969</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +5114,7 @@
         <v>20774.665000196546</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +5131,7 @@
         <v>20863.683000183664</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>15</v>
       </c>
@@ -4293,7 +5148,7 @@
         <v>21172.829000512138</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -4310,7 +5165,7 @@
         <v>21499.182000523433</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +5182,7 @@
         <v>21821.307000308298</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -4344,7 +5199,7 @@
         <v>22206.49100036826</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +5216,7 @@
         <v>22220.313000306487</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>18</v>
       </c>
@@ -4378,7 +5233,7 @@
         <v>22602.471000258811</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +5250,7 @@
         <v>22653.470000065863</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>18</v>
       </c>
@@ -4412,7 +5267,7 @@
         <v>22877.68400029745</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +5284,7 @@
         <v>22911.834000516683</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -4446,7 +5301,7 @@
         <v>23233.757000416517</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +5318,7 @@
         <v>23396.817000349984</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>18</v>
       </c>
@@ -4480,7 +5335,7 @@
         <v>23734.964000084437</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>15</v>
       </c>
@@ -4497,7 +5352,7 @@
         <v>23751.969000510871</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>15</v>
       </c>
@@ -4514,7 +5369,7 @@
         <v>24070.116000599228</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>18</v>
       </c>
@@ -4531,7 +5386,7 @@
         <v>24097.136000264436</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>18</v>
       </c>
@@ -4548,7 +5403,7 @@
         <v>24343.28600037843</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>15</v>
       </c>
@@ -4565,7 +5420,7 @@
         <v>24369.308000151068</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>15</v>
       </c>
@@ -4582,7 +5437,7 @@
         <v>24663.617000263184</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +5454,7 @@
         <v>24980.532000144012</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -4616,7 +5471,7 @@
         <v>25161.610000440851</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +5488,7 @@
         <v>25359.725000336766</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>15</v>
       </c>
@@ -4650,7 +5505,7 @@
         <v>25670.86700045038</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>15</v>
       </c>
@@ -4667,7 +5522,7 @@
         <v>25821.930000605062</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
@@ -4684,7 +5539,7 @@
         <v>26327.162000443786</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +5556,7 @@
         <v>26337.177000311203</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -4718,7 +5573,7 @@
         <v>26453.23200034909</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -4735,7 +5590,7 @@
         <v>27096.515000285581</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
@@ -4752,7 +5607,7 @@
         <v>27140.775000234134</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +5624,7 @@
         <v>27395.692000421695</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +5641,7 @@
         <v>27596.786000579596</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>18</v>
       </c>
@@ -4803,7 +5658,7 @@
         <v>27812.093000113964</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -4820,7 +5675,7 @@
         <v>28361.146999988705</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +5692,7 @@
         <v>28515.189000405371</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +5709,7 @@
         <v>28692.243000073358</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
@@ -4871,7 +5726,7 @@
         <v>28881.465000403114</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>15</v>
       </c>
@@ -4888,7 +5743,7 @@
         <v>29157.459000404924</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
@@ -4905,7 +5760,7 @@
         <v>29292.49900043942</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +5777,7 @@
         <v>29350.534000480548</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +5794,7 @@
         <v>29402.78100008145</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>18</v>
       </c>
@@ -4956,7 +5811,7 @@
         <v>29818.745000031777</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +5828,7 @@
         <v>29863.754000142217</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>18</v>
       </c>
@@ -4990,7 +5845,7 @@
         <v>29994.816000480205</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -5007,7 +5862,7 @@
         <v>30128.874000208452</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -5024,7 +5879,7 @@
         <v>30266.941000521183</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>18</v>
       </c>
@@ -5041,7 +5896,7 @@
         <v>30276.941000344232</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>15</v>
       </c>
@@ -5058,7 +5913,7 @@
         <v>30744.154000002891</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>18</v>
       </c>
@@ -5075,7 +5930,7 @@
         <v>30888.41400006786</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -5092,7 +5947,7 @@
         <v>31176.311000157148</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5964,7 @@
         <v>31231.351000349969</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>15</v>
       </c>
@@ -5126,7 +5981,7 @@
         <v>31278.575000516139</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5998,7 @@
         <v>31387.624000408687</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>131</v>
       </c>
@@ -5160,7 +6015,7 @@
         <v>31449.435000261292</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>133</v>
       </c>
@@ -5177,7 +6032,7 @@
         <v>31511.463000043295</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +6049,7 @@
         <v>31544.490000419319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
@@ -5211,7 +6066,7 @@
         <v>31847.723000356928</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>15</v>
       </c>
@@ -5228,7 +6083,7 @@
         <v>32364.85800028313</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
@@ -5245,7 +6100,7 @@
         <v>32471.911000390537</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +6117,7 @@
         <v>32748.123000492342</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -5279,7 +6134,7 @@
         <v>33079.203000362031</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>15</v>
       </c>
@@ -5296,7 +6151,7 @@
         <v>33192.278000595979</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>139</v>
       </c>
@@ -5313,7 +6168,7 @@
         <v>33467.383000440896</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>18</v>
       </c>
@@ -5330,7 +6185,7 @@
         <v>33498.397000017576</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -5347,7 +6202,7 @@
         <v>33585.44900030829</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>142</v>
       </c>
@@ -5364,7 +6219,7 @@
         <v>33603.468000213616</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -5381,7 +6236,7 @@
         <v>33642.673000297509</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>18</v>
       </c>
@@ -5398,7 +6253,7 @@
         <v>33766.559000406414</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>5</v>
       </c>
@@ -5415,7 +6270,7 @@
         <v>33959.650000068359</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>5</v>
       </c>
@@ -5432,7 +6287,7 @@
         <v>34483.899000333622</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>15</v>
       </c>
@@ -5449,7 +6304,7 @@
         <v>34861.064000311308</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -5466,7 +6321,7 @@
         <v>35031.191000109538</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>15</v>
       </c>
@@ -5483,7 +6338,7 @@
         <v>35217.293000011705</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +6355,7 @@
         <v>35473.47400020808</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>15</v>
       </c>
@@ -5517,7 +6372,7 @@
         <v>35604.661000496708</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +6389,7 @@
         <v>35748.515999992378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>18</v>
       </c>
@@ -5551,7 +6406,7 @@
         <v>35974.821000499651</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>15</v>
       </c>
@@ -5568,7 +6423,7 @@
         <v>36168.708000169136</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>5</v>
       </c>
@@ -5585,7 +6440,7 @@
         <v>36470.864000567235</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>15</v>
       </c>
@@ -5602,7 +6457,7 @@
         <v>36525.919000175782</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>18</v>
       </c>
@@ -5619,7 +6474,7 @@
         <v>36663.95500022918</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>5</v>
       </c>
@@ -5636,7 +6491,7 @@
         <v>36796.032000216655</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>18</v>
       </c>
@@ -5653,7 +6508,7 @@
         <v>37217.456000600941</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>5</v>
       </c>
@@ -5670,7 +6525,7 @@
         <v>37305.289000226185</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>15</v>
       </c>
@@ -5687,7 +6542,7 @@
         <v>37414.338000118732</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>18</v>
       </c>
@@ -5704,7 +6559,7 @@
         <v>37554.402000387199</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>15</v>
       </c>
@@ -5721,7 +6576,7 @@
         <v>37728.491000295617</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
@@ -5738,7 +6593,7 @@
         <v>37894.562000292353</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>15</v>
       </c>
@@ -5755,7 +6610,7 @@
         <v>38087.653000582941</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>5</v>
       </c>
@@ -5772,7 +6627,7 @@
         <v>38255.736000579782</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>18</v>
       </c>
@@ -5789,7 +6644,7 @@
         <v>38511.043000034988</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>5</v>
       </c>
@@ -5806,7 +6661,7 @@
         <v>38764.946000115015</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>18</v>
       </c>
@@ -5823,7 +6678,7 @@
         <v>38899.222000571899</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>5</v>
       </c>
@@ -5840,7 +6695,7 @@
         <v>39158.35200031288</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>15</v>
       </c>
@@ -5857,7 +6712,7 @@
         <v>39215.185000235215</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>5</v>
       </c>
@@ -5874,7 +6729,7 @@
         <v>39452.302000159398</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>15</v>
       </c>
@@ -5891,7 +6746,7 @@
         <v>39695.409000408836</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -5908,7 +6763,7 @@
         <v>39740.433000563644</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -5925,7 +6780,7 @@
         <v>39940.529000200331</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +6797,7 @@
         <v>40109.610000089742</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -5959,7 +6814,7 @@
         <v>40465.425000200048</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +6831,7 @@
         <v>40490.360000613146</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
@@ -5993,7 +6848,7 @@
         <v>40714.942000131123</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -6010,7 +6865,7 @@
         <v>40973.041000007652</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>15</v>
       </c>
@@ -6027,7 +6882,7 @@
         <v>41307.896000146866</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
@@ -6044,7 +6899,7 @@
         <v>41476.986000314355</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>15</v>
       </c>
@@ -6061,7 +6916,7 @@
         <v>41641.248000366613</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>15</v>
       </c>
@@ -6078,7 +6933,7 @@
         <v>42072.251000418328</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6950,7 @@
         <v>42414.403000054881</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>15</v>
       </c>
@@ -6112,7 +6967,7 @@
         <v>42699.536000099033</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6984,7 @@
         <v>42818.601000029594</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>15</v>
       </c>
@@ -6146,7 +7001,7 @@
         <v>42853.625000361353</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +7018,7 @@
         <v>43067.729000234976</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -6180,7 +7035,7 @@
         <v>43441.911000525579</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
@@ -6197,7 +7052,7 @@
         <v>43628.97900051903</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
@@ -6214,7 +7069,7 @@
         <v>43831.0710005695</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>18</v>
       </c>
@@ -6231,7 +7086,7 @@
         <v>43948.341000429355</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
@@ -6248,7 +7103,7 @@
         <v>44014.1610002378</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>15</v>
       </c>
@@ -6265,7 +7120,7 @@
         <v>44032.164000556804</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
@@ -6282,7 +7137,7 @@
         <v>44352.306000259705</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>15</v>
       </c>
@@ -6299,7 +7154,7 @@
         <v>44596.441000490449</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>15</v>
       </c>
@@ -6316,7 +7171,7 @@
         <v>44753.509000386111</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>5</v>
       </c>
@@ -6333,7 +7188,7 @@
         <v>44906.567000155337</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>18</v>
       </c>
@@ -6350,7 +7205,7 @@
         <v>45091.888000094332</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>15</v>
       </c>
@@ -6367,7 +7222,7 @@
         <v>45402.826000610366</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +7239,7 @@
         <v>45545.884000556543</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +7256,7 @@
         <v>45722.983000357635</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
@@ -6418,7 +7273,7 @@
         <v>45855.059000174515</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>18</v>
       </c>
@@ -6435,7 +7290,7 @@
         <v>45953.312000236474</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +7307,7 @@
         <v>46056.152000161819</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>18</v>
       </c>
@@ -6469,7 +7324,7 @@
         <v>46404.515000106767</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>5</v>
       </c>
@@ -6486,7 +7341,7 @@
         <v>46451.349000376649</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
@@ -6503,7 +7358,7 @@
         <v>47293.709000246599</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>5</v>
       </c>
@@ -6520,7 +7375,7 @@
         <v>47577.048000390641</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>5</v>
       </c>
@@ -6537,7 +7392,7 @@
         <v>47852.962000574917</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>15</v>
       </c>
@@ -6554,7 +7409,7 @@
         <v>48074.056000378914</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>15</v>
       </c>
@@ -6571,7 +7426,7 @@
         <v>48393.215000233613</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
@@ -6588,7 +7443,7 @@
         <v>48564.308000123128</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>15</v>
       </c>
@@ -6605,7 +7460,7 @@
         <v>48786.384000233375</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>5</v>
       </c>
@@ -6622,7 +7477,7 @@
         <v>48954.465000517666</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>15</v>
       </c>
@@ -6639,7 +7494,7 @@
         <v>49176.573000429198</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
@@ -6656,7 +7511,7 @@
         <v>49348.664000211284</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -6673,7 +7528,7 @@
         <v>49572.737000277266</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
@@ -6690,7 +7545,7 @@
         <v>49736.794000561349</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>18</v>
       </c>
@@ -6707,7 +7562,7 @@
         <v>49897.871000412852</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>5</v>
       </c>
@@ -6724,7 +7579,7 @@
         <v>50191.991000343114</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>15</v>
       </c>
@@ -6741,7 +7596,7 @@
         <v>50394.06700017862</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
@@ -6758,7 +7613,7 @@
         <v>50465.097000519745</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>18</v>
       </c>
@@ -6775,7 +7630,7 @@
         <v>50489.106000121683</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>15</v>
       </c>
@@ -6792,7 +7647,7 @@
         <v>50719.435000000522</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>18</v>
       </c>
@@ -6809,7 +7664,7 @@
         <v>50729.232000396587</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +7681,7 @@
         <v>51167.440000595525</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>15</v>
       </c>
@@ -6843,7 +7698,7 @@
         <v>51421.763000031933</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>15</v>
       </c>
@@ -6860,7 +7715,7 @@
         <v>52099.847000604495</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>15</v>
       </c>
@@ -6877,7 +7732,7 @@
         <v>52359.958000481129</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>15</v>
       </c>
@@ -6894,7 +7749,7 @@
         <v>52513.032000465319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>18</v>
       </c>
@@ -6911,7 +7766,7 @@
         <v>52659.117000061087</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -6928,7 +7783,7 @@
         <v>52726.137000275776</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>5</v>
       </c>
@@ -6945,7 +7800,7 @@
         <v>52883.19000012707</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +7817,7 @@
         <v>53102.302000019699</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>18</v>
       </c>
@@ -6979,7 +7834,7 @@
         <v>53237.575000198558</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>18</v>
       </c>
@@ -6996,7 +7851,7 @@
         <v>53420.462000439875</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>15</v>
       </c>
@@ -7013,7 +7868,7 @@
         <v>53580.744000454433</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>5</v>
       </c>
@@ -7030,7 +7885,7 @@
         <v>53618.560000578873</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>18</v>
       </c>
@@ -7047,7 +7902,7 @@
         <v>54078.96800043527</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
@@ -7064,7 +7919,7 @@
         <v>54318.875000439584</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7936,7 @@
         <v>54546.178000210784</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7953,7 @@
         <v>54702.043999987654</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>5</v>
       </c>
@@ -7115,7 +7970,7 @@
         <v>54926.117000053637</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>18</v>
       </c>
@@ -7132,7 +7987,7 @@
         <v>55156.21200024616</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>15</v>
       </c>
@@ -7149,7 +8004,7 @@
         <v>55291.50100001134</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>18</v>
       </c>
@@ -7166,7 +8021,7 @@
         <v>55423.358000186272</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +8038,7 @@
         <v>55803.547000559047</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>15</v>
       </c>
@@ -7200,7 +8055,7 @@
         <v>55804.54599999357</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>5</v>
       </c>
@@ -7217,7 +8072,7 @@
         <v>55918.602000363171</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>5</v>
       </c>
@@ -7234,7 +8089,7 @@
         <v>56095.686000119895</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>15</v>
       </c>
@@ -7251,7 +8106,7 @@
         <v>56503.863000590354</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>18</v>
       </c>
@@ -7268,7 +8123,7 @@
         <v>56607.904000463895</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>15</v>
       </c>
@@ -7285,7 +8140,7 @@
         <v>56835.034000268206</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +8157,7 @@
         <v>57019.107000413351</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>5</v>
       </c>
@@ -7319,7 +8174,7 @@
         <v>57080.12100008782</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>18</v>
       </c>
@@ -7336,7 +8191,7 @@
         <v>57157.173000555485</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>5</v>
       </c>
@@ -7353,7 +8208,7 @@
         <v>57404.288000590168</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>18</v>
       </c>
@@ -7370,7 +8225,7 @@
         <v>57623.369000223465</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>5</v>
       </c>
@@ -7387,7 +8242,7 @@
         <v>57919.53300058376</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>18</v>
       </c>
@@ -7404,7 +8259,7 @@
         <v>57984.790000529028</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>15</v>
       </c>
@@ -7421,7 +8276,7 @@
         <v>58365.713000390679</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +8293,7 @@
         <v>58576.8210002454</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>15</v>
       </c>
@@ -7455,7 +8310,7 @@
         <v>58710.894000018016</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>18</v>
       </c>
@@ -7472,7 +8327,7 @@
         <v>59023.251000582241</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +8344,7 @@
         <v>59131.098000355996</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +8361,7 @@
         <v>59305.155000463128</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
@@ -7523,7 +8378,7 @@
         <v>59430.242000520229</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>5</v>
       </c>
@@ -7540,7 +8395,7 @@
         <v>59683.363000466488</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>15</v>
       </c>
@@ -7557,7 +8412,7 @@
         <v>59781.398000428453</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>225</v>
       </c>
@@ -7574,7 +8429,7 @@
         <v>59875.439000478946</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>18</v>
       </c>
@@ -7591,7 +8446,7 @@
         <v>59953.47400016617</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>18</v>
       </c>
@@ -7608,7 +8463,7 @@
         <v>60261.822000145912</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +8480,7 @@
         <v>60440.684000216424</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>5</v>
       </c>
@@ -7642,7 +8497,7 @@
         <v>60740.794000471942</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>18</v>
       </c>
@@ -7659,7 +8514,7 @@
         <v>60876.864000200294</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +8531,7 @@
         <v>60931.887000007555</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
@@ -7693,7 +8548,7 @@
         <v>61056.178000057116</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>15</v>
       </c>
@@ -7710,7 +8565,7 @@
         <v>61531.173000228591</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>15</v>
       </c>
@@ -7727,7 +8582,7 @@
         <v>61732.468000100926</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>18</v>
       </c>
@@ -7744,7 +8599,7 @@
         <v>61806.322000036016</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>15</v>
       </c>
@@ -7761,7 +8616,7 @@
         <v>61904.356999997981</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>15</v>
       </c>
@@ -7778,7 +8633,7 @@
         <v>62270.521000376903</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +8650,7 @@
         <v>62421.707000141032</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>18</v>
       </c>
@@ -7812,7 +8667,7 @@
         <v>62767.731000250205</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>5</v>
       </c>
@@ -7829,7 +8684,7 @@
         <v>62812.754000234418</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>15</v>
       </c>
@@ -7846,7 +8701,7 @@
         <v>62870.789000275545</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>18</v>
       </c>
@@ -7863,7 +8718,7 @@
         <v>62986.843000142835</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +8735,7 @@
         <v>63140.135000227019</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>15</v>
       </c>
@@ -7897,7 +8752,7 @@
         <v>63562.321000476368</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>5</v>
       </c>
@@ -7914,7 +8769,7 @@
         <v>63646.144000603817</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>15</v>
       </c>
@@ -7931,7 +8786,7 @@
         <v>63723.19600044284</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>18</v>
       </c>
@@ -7948,7 +8803,7 @@
         <v>63819.218000234105</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>5</v>
       </c>
@@ -7965,7 +8820,7 @@
         <v>64041.310000559315</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>15</v>
       </c>
@@ -7982,7 +8837,7 @@
         <v>64228.393000597134</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>18</v>
       </c>
@@ -7999,7 +8854,7 @@
         <v>64253.417000477202</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8871,7 @@
         <v>64397.474000486545</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>15</v>
       </c>
@@ -8033,7 +8888,7 @@
         <v>64585.55600058753</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>18</v>
       </c>
@@ -8050,7 +8905,7 @@
         <v>64725.853000371717</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>15</v>
       </c>
@@ -8067,7 +8922,7 @@
         <v>64879.691000562161</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>5</v>
       </c>
@@ -8084,7 +8939,7 @@
         <v>65048.756000236608</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>18</v>
       </c>
@@ -8101,7 +8956,7 @@
         <v>65380.895000346936</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>15</v>
       </c>
@@ -8118,7 +8973,7 @@
         <v>65517.183000175282</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>5</v>
       </c>
@@ -8135,7 +8990,7 @@
         <v>65627.043000119738</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +9007,7 @@
         <v>65903.16000035964</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>5</v>
       </c>
@@ -8169,7 +9024,7 @@
         <v>66181.289000599645</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>5</v>
       </c>
@@ -8186,7 +9041,7 @@
         <v>66460.432000318542</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>15</v>
       </c>
@@ -8203,7 +9058,7 @@
         <v>66649.528000527062</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>5</v>
       </c>
@@ -8220,7 +9075,7 @@
         <v>66818.593000201508</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>18</v>
       </c>
@@ -8237,7 +9092,7 @@
         <v>66942.650000564754</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
@@ -8254,7 +9109,7 @@
         <v>67039.702000049874</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>5</v>
       </c>
@@ -8271,7 +9126,7 @@
         <v>67207.79900054913</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>15</v>
       </c>
@@ -8288,7 +9143,7 @@
         <v>67642.029000422917</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>18</v>
       </c>
@@ -8305,7 +9160,7 @@
         <v>67736.055000429042</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +9177,7 @@
         <v>67782.07700047642</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>18</v>
       </c>
@@ -8339,7 +9194,7 @@
         <v>67880.143000069074</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>15</v>
       </c>
@@ -8356,7 +9211,7 @@
         <v>68232.313000084832</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>15</v>
       </c>
@@ -8373,7 +9228,7 @@
         <v>68550.723000406288</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>5</v>
       </c>
@@ -8390,7 +9245,7 @@
         <v>68594.514000182971</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>15</v>
       </c>
@@ -8407,7 +9262,7 @@
         <v>68721.566000394523</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>18</v>
       </c>
@@ -8424,7 +9279,7 @@
         <v>68803.610000037588</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>5</v>
       </c>
@@ -8441,7 +9296,7 @@
         <v>69033.721000445075</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>15</v>
       </c>
@@ -8458,7 +9313,7 @@
         <v>69175.001000077464</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>18</v>
       </c>
@@ -8475,7 +9330,7 @@
         <v>69257.825000141747</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>5</v>
       </c>
@@ -8492,7 +9347,7 @@
         <v>69501.960000372492</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>15</v>
       </c>
@@ -8509,7 +9364,7 @@
         <v>69579.995000059716</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +9381,7 @@
         <v>69853.116000280716</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>15</v>
       </c>
@@ -8543,7 +9398,7 @@
         <v>70019.217000366189</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>15</v>
       </c>
@@ -8560,7 +9415,7 @@
         <v>70350.372999999672</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>5</v>
       </c>
@@ -8577,7 +9432,7 @@
         <v>70372.386000445113</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +9449,7 @@
         <v>70566.490000043996</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>5</v>
       </c>
@@ -8611,7 +9466,7 @@
         <v>70742.575000366196</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +9483,7 @@
         <v>70959.674000088125</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>15</v>
       </c>
@@ -8645,7 +9500,7 @@
         <v>71122.982000210322</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>5</v>
       </c>
@@ -8662,7 +9517,7 @@
         <v>71291.844000457786</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>15</v>
       </c>
@@ -8679,7 +9534,7 @@
         <v>71456.931000435725</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>18</v>
       </c>
@@ -8696,7 +9551,7 @@
         <v>71620.020000287332</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>5</v>
       </c>
@@ -8713,7 +9568,7 @@
         <v>71621.019000350498</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +9585,7 @@
         <v>71815.154000208713</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +9602,7 @@
         <v>72164.298000116833</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>5</v>
       </c>
@@ -8764,7 +9619,7 @@
         <v>72179.352000262588</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>18</v>
       </c>
@@ -8781,7 +9636,7 @@
         <v>72588.51200058125</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>18</v>
       </c>
@@ -8798,7 +9653,7 @@
         <v>72733.832000428811</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>5</v>
       </c>
@@ -8815,7 +9670,7 @@
         <v>72748.591000540182</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>15</v>
       </c>
@@ -8832,7 +9687,7 @@
         <v>72888.669000053778</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>5</v>
       </c>
@@ -8849,7 +9704,7 @@
         <v>73059.981000213884</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>15</v>
       </c>
@@ -8866,7 +9721,7 @@
         <v>73507.061000168324</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>5</v>
       </c>
@@ -8883,7 +9738,7 @@
         <v>73674.976000422612</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +9755,7 @@
         <v>73861.972000077367</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>15</v>
       </c>
@@ -8917,7 +9772,7 @@
         <v>74055.223000003025</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>15</v>
       </c>
@@ -8934,7 +9789,7 @@
         <v>74381.133000506088</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>5</v>
       </c>
@@ -8951,7 +9806,7 @@
         <v>74698.485000128858</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>5</v>
       </c>
@@ -8968,7 +9823,7 @@
         <v>74944.378000404686</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +9840,7 @@
         <v>74992.396000237204</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9857,7 @@
         <v>75328.806000365876</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>18</v>
       </c>
@@ -9019,7 +9874,7 @@
         <v>75410.600000107661</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9891,7 @@
         <v>75483.64200044889</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>18</v>
       </c>
@@ -9053,7 +9908,7 @@
         <v>75628.712000395171</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>5</v>
       </c>
@@ -9070,7 +9925,7 @@
         <v>75684.936000150628</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>15</v>
       </c>
@@ -9087,7 +9942,7 @@
         <v>75804.780000331812</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9959,7 @@
         <v>76191.971000167541</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>15</v>
       </c>
@@ -9121,7 +9976,7 @@
         <v>76526.121000107378</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +9993,7 @@
         <v>76846.245000511408</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +10010,7 @@
         <v>76900.364000117406</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>5</v>
       </c>
@@ -9172,7 +10027,7 @@
         <v>77106.588000361808</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +10044,7 @@
         <v>77235.433000302874</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +10061,7 @@
         <v>77365.4950004071</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>15</v>
       </c>
@@ -9223,7 +10078,7 @@
         <v>77581.595000065863</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>18</v>
       </c>
@@ -9240,7 +10095,7 @@
         <v>77741.647000447847</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>5</v>
       </c>
@@ -9257,7 +10112,7 @@
         <v>77748.65800018888</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>15</v>
       </c>
@@ -9274,7 +10129,7 @@
         <v>77991.97500043083</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>5</v>
       </c>
@@ -9291,7 +10146,7 @@
         <v>78216.904000053182</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>18</v>
       </c>
@@ -9308,7 +10163,7 @@
         <v>78465.234000538476</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>15</v>
       </c>
@@ -9325,7 +10180,7 @@
         <v>78516.061000549234</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>5</v>
       </c>
@@ -9342,7 +10197,7 @@
         <v>78944.251000368968</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>15</v>
       </c>
@@ -9359,7 +10214,7 @@
         <v>79133.346000406891</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>5</v>
       </c>
@@ -9376,7 +10231,7 @@
         <v>79299.414000520483</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>15</v>
       </c>
@@ -9393,7 +10248,7 @@
         <v>79515.560000482947</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>5</v>
       </c>
@@ -9410,7 +10265,7 @@
         <v>79848.727000574581</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>18</v>
       </c>
@@ -9427,7 +10282,7 @@
         <v>79938.742000283673</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>15</v>
       </c>
@@ -9444,7 +10299,7 @@
         <v>79943.75000030268</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>5</v>
       </c>
@@ -9461,7 +10316,7 @@
         <v>80125.87099999655</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>15</v>
       </c>
@@ -9478,7 +10333,7 @@
         <v>80464.03000052087</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>5</v>
       </c>
@@ -9495,7 +10350,7 @@
         <v>80628.117000265047</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>15</v>
       </c>
@@ -9512,7 +10367,7 @@
         <v>80984.310000110418</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>5</v>
       </c>
@@ -9529,7 +10384,7 @@
         <v>81127.383000100963</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>18</v>
       </c>
@@ -9546,7 +10401,7 @@
         <v>81459.551000129431</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>15</v>
       </c>
@@ -9563,7 +10418,7 @@
         <v>81509.567000088282</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>5</v>
       </c>
@@ -9580,7 +10435,7 @@
         <v>81514.715000102296</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>15</v>
       </c>
@@ -9597,7 +10452,7 @@
         <v>81787.71000020206</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>5</v>
       </c>
@@ -9614,7 +10469,7 @@
         <v>81906.805000221357</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>15</v>
       </c>
@@ -9631,7 +10486,7 @@
         <v>82095.868000457995</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>18</v>
       </c>
@@ -9648,7 +10503,7 @@
         <v>82317.974000028335</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +10520,7 @@
         <v>82394.01100021787</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>15</v>
       </c>
@@ -9682,7 +10537,7 @@
         <v>82763.200000533834</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>296</v>
       </c>
@@ -9699,7 +10554,7 @@
         <v>83258.441000198945</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>298</v>
       </c>
@@ -9716,7 +10571,7 @@
         <v>83290.656000352465</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>300</v>
       </c>
@@ -9733,7 +10588,7 @@
         <v>83327.48900000006</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>5</v>
       </c>
@@ -9750,7 +10605,7 @@
         <v>84295.603000558913</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>18</v>
       </c>
@@ -9767,7 +10622,7 @@
         <v>84534.932000027038</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>5</v>
       </c>
@@ -9784,7 +10639,7 @@
         <v>85368.316000001505</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>5</v>
       </c>
@@ -9801,7 +10656,7 @@
         <v>85747.31700012926</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>18</v>
       </c>
@@ -9818,7 +10673,7 @@
         <v>85967.426000372507</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>5</v>
       </c>
@@ -9835,7 +10690,7 @@
         <v>86017.441000160761</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>5</v>
       </c>
@@ -9852,7 +10707,7 @@
         <v>86502.682000002824</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>5</v>
       </c>
@@ -9869,7 +10724,7 @@
         <v>86744.008000055328</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>15</v>
       </c>
@@ -9886,7 +10741,7 @@
         <v>86813.025000225753</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>15</v>
       </c>
@@ -9903,7 +10758,7 @@
         <v>86967.877000523731</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>18</v>
       </c>
@@ -9920,7 +10775,7 @@
         <v>87125.942000141367</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>5</v>
       </c>
@@ -9937,7 +10792,7 @@
         <v>87127.939000097103</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>15</v>
       </c>
@@ -9954,7 +10809,7 @@
         <v>87341.230000206269</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>15</v>
       </c>
@@ -9971,7 +10826,7 @@
         <v>87619.139000005089</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>5</v>
       </c>
@@ -9988,7 +10843,7 @@
         <v>87781.432000477798</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>15</v>
       </c>
@@ -10005,7 +10860,7 @@
         <v>87968.281000200659</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>5</v>
       </c>
@@ -10022,7 +10877,7 @@
         <v>88244.411000143737</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>15</v>
       </c>
@@ -10039,7 +10894,7 @@
         <v>88310.652000107802</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>15</v>
       </c>
@@ -10056,7 +10911,7 @@
         <v>88682.585000200197</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>15</v>
       </c>
@@ -10073,7 +10928,7 @@
         <v>88841.665000095963</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>15</v>
       </c>
@@ -10090,7 +10945,7 @@
         <v>89041.758000478148</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>18</v>
       </c>
@@ -10107,7 +10962,7 @@
         <v>89154.831000370905</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>5</v>
       </c>
@@ -10124,7 +10979,7 @@
         <v>89183.833000576124</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>15</v>
       </c>
@@ -10141,7 +10996,7 @@
         <v>89463.988000061363</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>5</v>
       </c>
@@ -10158,7 +11013,7 @@
         <v>89496.219000429846</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +11030,7 @@
         <v>89807.123000174761</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>15</v>
       </c>
@@ -10192,7 +11047,7 @@
         <v>90042.427000100724</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>5</v>
       </c>
@@ -10209,7 +11064,7 @@
         <v>90377.35700046178</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>15</v>
       </c>
@@ -10226,7 +11081,7 @@
         <v>90938.588000019081</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>15</v>
       </c>
@@ -10243,7 +11098,7 @@
         <v>91077.652000053786</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>18</v>
       </c>
@@ -10260,7 +11115,7 @@
         <v>91092.660000524484</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>18</v>
       </c>
@@ -10277,7 +11132,7 @@
         <v>91324.765000375919</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>15</v>
       </c>
@@ -10294,7 +11149,7 @@
         <v>91402.815000107512</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>5</v>
       </c>
@@ -10311,7 +11166,7 @@
         <v>91553.876000549644</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +11183,7 @@
         <v>91610.912000527605</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>15</v>
       </c>
@@ -10345,7 +11200,7 @@
         <v>91909.024000028148</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>15</v>
       </c>
@@ -10362,7 +11217,7 @@
         <v>92284.156000195071</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>5</v>
       </c>
@@ -10379,7 +11234,7 @@
         <v>92490.271000075154</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>15</v>
       </c>
@@ -10396,7 +11251,7 @@
         <v>92552.314000530168</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>18</v>
       </c>
@@ -10413,7 +11268,7 @@
         <v>92565.528000472113</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>15</v>
       </c>
@@ -10430,7 +11285,7 @@
         <v>92857.462000264786</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>5</v>
       </c>
@@ -10447,7 +11302,7 @@
         <v>93065.543000469916</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>15</v>
       </c>
@@ -10464,7 +11319,7 @@
         <v>93180.597000103444</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>5</v>
       </c>
@@ -10481,7 +11336,7 @@
         <v>93329.69200022053</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>18</v>
       </c>
@@ -10498,7 +11353,7 @@
         <v>93501.767000416294</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>5</v>
       </c>
@@ -10515,7 +11370,7 @@
         <v>93875.947000365704</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>15</v>
       </c>
@@ -10532,7 +11387,7 @@
         <v>93993.014000169933</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>5</v>
       </c>
@@ -10549,7 +11404,7 @@
         <v>94152.296000579372</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>15</v>
       </c>
@@ -10566,7 +11421,7 @@
         <v>94339.378999988548</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
@@ -10583,7 +11438,7 @@
         <v>94474.230000469834</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +11455,7 @@
         <v>94746.554000512697</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>15</v>
       </c>
@@ -10617,7 +11472,7 @@
         <v>95101.546000409871</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>331</v>
       </c>
@@ -10634,7 +11489,7 @@
         <v>95171.780000114813</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>333</v>
       </c>
@@ -10651,7 +11506,7 @@
         <v>95239.596000337042</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>15</v>
       </c>
@@ -10668,7 +11523,7 @@
         <v>95339.627000084147</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>18</v>
       </c>
@@ -10685,7 +11540,7 @@
         <v>95348.628000472672</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>5</v>
       </c>
@@ -10702,7 +11557,7 @@
         <v>95757.00500048697</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>337</v>
       </c>
@@ -10719,7 +11574,7 @@
         <v>96026.942000049166</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>339</v>
       </c>
@@ -10736,7 +11591,7 @@
         <v>97230.046000401489</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>15</v>
       </c>
@@ -10753,7 +11608,7 @@
         <v>97793.306000344455</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>5</v>
       </c>
@@ -10770,7 +11625,7 @@
         <v>97950.38800011389</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>15</v>
       </c>
@@ -10787,7 +11642,7 @@
         <v>98128.46900022123</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>5</v>
       </c>
@@ -10804,7 +11659,7 @@
         <v>98284.569000313058</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>15</v>
       </c>
@@ -10821,7 +11676,7 @@
         <v>98499.639000277966</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>343</v>
       </c>
@@ -10838,7 +11693,7 @@
         <v>98625.692000426352</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>18</v>
       </c>
@@ -10855,7 +11710,7 @@
         <v>98640.699000097811</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>346</v>
       </c>
@@ -10872,7 +11727,7 @@
         <v>98667.704000347294</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>15</v>
       </c>
@@ -10889,7 +11744,7 @@
         <v>98799.778999993578</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>5</v>
       </c>
@@ -10906,7 +11761,7 @@
         <v>99060.886000050232</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>15</v>
       </c>
@@ -10923,7 +11778,7 @@
         <v>99404.052000422962</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +11795,7 @@
         <v>99721.399999991991</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>5</v>
       </c>
@@ -10957,7 +11812,7 @@
         <v>99892.242000438273</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +11829,7 @@
         <v>100119.35600002762</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>5</v>
       </c>
@@ -10991,7 +11846,7 @@
         <v>100284.42500007804</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>15</v>
       </c>
@@ -11008,7 +11863,7 @@
         <v>100508.54400044773</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>5</v>
       </c>
@@ -11025,7 +11880,7 @@
         <v>100679.63499999605</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>18</v>
       </c>
@@ -11042,7 +11897,7 @@
         <v>100751.66300022975</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>15</v>
       </c>
@@ -11059,7 +11914,7 @@
         <v>100872.72400057409</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>5</v>
       </c>
@@ -11076,7 +11931,7 @@
         <v>101041.78800007794</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11948,7 @@
         <v>101261.89700032119</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>18</v>
       </c>
@@ -11110,7 +11965,7 @@
         <v>101416.9510005042</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>15</v>
       </c>
@@ -11127,7 +11982,7 @@
         <v>101561.03800060228</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>5</v>
       </c>
@@ -11144,7 +11999,7 @@
         <v>101728.10500015039</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>18</v>
       </c>
@@ -11161,7 +12016,7 @@
         <v>101977.41800048389</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>5</v>
       </c>
@@ -11178,7 +12033,7 @@
         <v>102231.31800005212</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>15</v>
       </c>
@@ -11195,7 +12050,7 @@
         <v>102419.39900061116</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>5</v>
       </c>
@@ -11212,7 +12067,7 @@
         <v>102593.50100022275</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>15</v>
       </c>
@@ -11229,7 +12084,7 @@
         <v>102811.58200025093</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>5</v>
       </c>
@@ -11246,7 +12101,7 @@
         <v>103090.70800021291</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +12118,7 @@
         <v>103203.7660000613</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>5</v>
       </c>
@@ -11280,7 +12135,7 @@
         <v>103373.85900034569</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +12152,7 @@
         <v>103557.94600036461</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>15</v>
       </c>
@@ -11314,7 +12169,7 @@
         <v>103720.00500052236</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>5</v>
       </c>
@@ -11331,7 +12186,7 @@
         <v>103851.06600006111</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>15</v>
       </c>
@@ -11348,7 +12203,7 @@
         <v>104036.15100060124</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>18</v>
       </c>
@@ -11365,7 +12220,7 @@
         <v>104177.19600037672</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>15</v>
       </c>
@@ -11382,7 +12237,7 @@
         <v>104357.29000002611</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +12254,7 @@
         <v>104528.36600015871</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>18</v>
       </c>
@@ -11416,7 +12271,7 @@
         <v>104780.50300008617</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>15</v>
       </c>
@@ -11433,7 +12288,7 @@
         <v>105103.66900018416</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>15</v>
       </c>
@@ -11450,7 +12305,7 @@
         <v>105417.80300026294</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>15</v>
       </c>
@@ -11467,7 +12322,7 @@
         <v>105586.08700060286</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>18</v>
       </c>
@@ -11484,7 +12339,7 @@
         <v>105678.14600011334</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>15</v>
       </c>
@@ -11501,7 +12356,7 @@
         <v>105790.98500031978</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>18</v>
       </c>
@@ -11518,7 +12373,7 @@
         <v>105972.06100027543</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>15</v>
       </c>
@@ -11535,7 +12390,7 @@
         <v>106146.13200025633</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>15</v>
       </c>
@@ -11552,7 +12407,7 @@
         <v>106446.27200060058</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>18</v>
       </c>
@@ -11569,7 +12424,7 @@
         <v>106549.34600021224</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>15</v>
       </c>
@@ -11586,7 +12441,7 @@
         <v>106653.3550002845</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>5</v>
       </c>
@@ -11603,7 +12458,7 @@
         <v>106923.479000316</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>368</v>
       </c>
@@ -11620,7 +12475,7 @@
         <v>107816.89400011674</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>18</v>
       </c>
@@ -11637,7 +12492,7 @@
         <v>108947.3550003022</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>15</v>
       </c>
@@ -11654,7 +12509,7 @@
         <v>109068.36900017224</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>18</v>
       </c>
@@ -11671,7 +12526,7 @@
         <v>109235.23300029337</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>5</v>
       </c>
@@ -11688,7 +12543,7 @@
         <v>109353.28200040385</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>15</v>
       </c>
@@ -11705,7 +12560,7 @@
         <v>109654.436000227</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>5</v>
       </c>
@@ -11722,7 +12577,7 @@
         <v>109808.50800010376</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>5</v>
       </c>
@@ -11739,7 +12594,7 @@
         <v>110363.76400000881</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>15</v>
       </c>
@@ -11756,7 +12611,7 @@
         <v>110468.00800056662</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>18</v>
       </c>
@@ -11773,7 +12628,7 @@
         <v>110476.79100022651</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>5</v>
       </c>
@@ -11790,7 +12645,7 @@
         <v>110687.89800053928</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>18</v>
       </c>
@@ -11807,7 +12662,7 @@
         <v>110783.99800043553</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>5</v>
       </c>
@@ -11824,7 +12679,7 @@
         <v>110887.97600024845</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>18</v>
       </c>
@@ -11841,7 +12696,7 @@
         <v>111234.12200042512</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>5</v>
       </c>
@@ -11858,7 +12713,7 @@
         <v>111441.22000015341</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>15</v>
       </c>
@@ -11875,7 +12730,7 @@
         <v>111557.27300047874</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>376</v>
       </c>
@@ -11892,7 +12747,7 @@
         <v>111807.36600060482</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>15</v>
       </c>
@@ -11909,7 +12764,7 @@
         <v>111841.3750000298</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>378</v>
       </c>
@@ -11926,7 +12781,7 @@
         <v>111842.38900013734</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>5</v>
       </c>
@@ -11943,7 +12798,7 @@
         <v>111970.43900024146</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>15</v>
       </c>
@@ -11960,7 +12815,7 @@
         <v>112143.51200032979</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>5</v>
       </c>
@@ -11977,7 +12832,7 @@
         <v>112304.57300059497</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>5</v>
       </c>
@@ -11994,7 +12849,7 @@
         <v>112635.74200056028</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>18</v>
       </c>
@@ -12011,7 +12866,7 @@
         <v>112966.0850004293</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>15</v>
       </c>
@@ -12028,7 +12883,7 @@
         <v>113101.93500034511</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>5</v>
       </c>
@@ -12045,7 +12900,7 @@
         <v>113250.01600035466</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>5</v>
       </c>
@@ -12062,7 +12917,7 @@
         <v>113519.12600027863</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>15</v>
       </c>
@@ -12079,7 +12934,7 @@
         <v>113957.31600055005</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>5</v>
       </c>
@@ -12096,7 +12951,7 @@
         <v>114052.35500049312</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>18</v>
       </c>
@@ -12113,7 +12968,7 @@
         <v>114078.57900015078</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>15</v>
       </c>
@@ -12130,7 +12985,7 @@
         <v>114260.4360000696</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>5</v>
       </c>
@@ -12147,7 +13002,7 @@
         <v>114389.4840000663</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>15</v>
       </c>
@@ -12164,7 +13019,7 @@
         <v>114766.64400044829</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +13036,7 @@
         <v>115172.80500023626</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>18</v>
       </c>
@@ -12198,7 +13053,7 @@
         <v>115263.07000047527</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>5</v>
       </c>
@@ -12215,7 +13070,7 @@
         <v>115307.86000031512</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>15</v>
       </c>
@@ -12232,7 +13087,7 @@
         <v>115323.89700030908</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>18</v>
       </c>
@@ -12249,7 +13104,7 @@
         <v>115830.10600022972</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>18</v>
       </c>
@@ -12266,7 +13121,7 @@
         <v>115968.38900030125</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>5</v>
       </c>
@@ -12283,7 +13138,7 @@
         <v>116004.19300042558</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>15</v>
       </c>
@@ -12300,7 +13155,7 @@
         <v>116054.19300016947</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>18</v>
       </c>
@@ -12317,7 +13172,7 @@
         <v>116183.44300005119</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>15</v>
       </c>
@@ -12334,7 +13189,7 @@
         <v>116739.73000044934</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>5</v>
       </c>
@@ -12351,7 +13206,7 @@
         <v>116807.54500050098</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>5</v>
       </c>
@@ -12368,7 +13223,7 @@
         <v>117055.6259999983</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>15</v>
       </c>
@@ -12385,7 +13240,7 @@
         <v>117288.71500049718</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>5</v>
       </c>
@@ -12402,7 +13257,7 @@
         <v>117319.72900007386</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>18</v>
       </c>
@@ -12419,7 +13274,7 @@
         <v>117429.79100053199</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>18</v>
       </c>
@@ -12436,7 +13291,7 @@
         <v>117838.9320001239</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>18</v>
       </c>
@@ -12453,7 +13308,7 @@
         <v>118015.0160002755</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>5</v>
       </c>
@@ -12470,7 +13325,7 @@
         <v>118333.14400026575</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>15</v>
       </c>
@@ -12487,7 +13342,7 @@
         <v>118398.18300011102</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>15</v>
       </c>
@@ -12504,7 +13359,7 @@
         <v>118696.29500024021</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>5</v>
       </c>
@@ -12521,7 +13376,7 @@
         <v>118789.57100054249</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>5</v>
       </c>
@@ -12538,7 +13393,7 @@
         <v>119081.4890001202</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>15</v>
       </c>
@@ -12555,7 +13410,7 @@
         <v>119166.52800024021</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>5</v>
       </c>
@@ -12572,7 +13427,7 @@
         <v>119346.60600030329</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>15</v>
       </c>
@@ -12589,7 +13444,7 @@
         <v>119546.69900005683</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>15</v>
       </c>
@@ -12606,7 +13461,7 @@
         <v>119893.84300012607</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>5</v>
       </c>
@@ -12623,7 +13478,7 @@
         <v>120240.02100010403</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>18</v>
       </c>
@@ -12640,7 +13495,7 @@
         <v>120340.08300011046</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>5</v>
       </c>
@@ -12657,7 +13512,7 @@
         <v>120515.15300015453</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>15</v>
       </c>
@@ -12674,7 +13529,7 @@
         <v>120518.14800000284</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>5</v>
       </c>
@@ -12691,7 +13546,7 @@
         <v>120897.3360005999</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>5</v>
       </c>
@@ -12708,7 +13563,7 @@
         <v>121141.43900040071</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>15</v>
       </c>
@@ -12725,7 +13580,7 @@
         <v>121598.63000025507</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>5</v>
       </c>
@@ -12742,7 +13597,7 @@
         <v>121680.67400052678</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>15</v>
       </c>
@@ -12759,7 +13614,7 @@
         <v>121863.96500053816</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>5</v>
       </c>
@@ -12776,7 +13631,7 @@
         <v>122025.82100001164</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>15</v>
       </c>
@@ -12793,7 +13648,7 @@
         <v>122206.91300018225</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>5</v>
       </c>
@@ -12810,7 +13665,7 @@
         <v>122368.97200034</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>5</v>
       </c>
@@ -12827,7 +13682,7 @@
         <v>122640.0790002197</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>15</v>
       </c>
@@ -12844,7 +13699,7 @@
         <v>122824.16600023862</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>18</v>
       </c>
@@ -12861,7 +13716,7 @@
         <v>122935.2120000869</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>5</v>
       </c>
@@ -12878,7 +13733,7 @@
         <v>122989.25200004596</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>15</v>
       </c>
@@ -12895,7 +13750,7 @@
         <v>123177.31700039003</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>5</v>
       </c>
@@ -12912,7 +13767,7 @@
         <v>123347.39500000142</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>18</v>
       </c>
@@ -12929,7 +13784,7 @@
         <v>123493.47900005523</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>5</v>
       </c>
@@ -12946,7 +13801,7 @@
         <v>123623.54100015946</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>15</v>
       </c>
@@ -12963,7 +13818,7 @@
         <v>123810.63900024164</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>5</v>
       </c>
@@ -12980,7 +13835,7 @@
         <v>124003.71200060472</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>5</v>
       </c>
@@ -12997,7 +13852,7 @@
         <v>124259.81200018432</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>15</v>
       </c>
@@ -13014,7 +13869,7 @@
         <v>124426.89400040545</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>5</v>
       </c>
@@ -13031,7 +13886,7 @@
         <v>124596.95600043051</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>18</v>
       </c>
@@ -13048,7 +13903,7 @@
         <v>124883.07100015227</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>5</v>
       </c>
@@ -13065,7 +13920,7 @@
         <v>125110.38800042588</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>18</v>
       </c>
@@ -13082,7 +13937,7 @@
         <v>125191.19900031947</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>5</v>
       </c>
@@ -13099,7 +13954,7 @@
         <v>125391.30800028797</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>18</v>
       </c>
@@ -13116,7 +13971,7 @@
         <v>125524.38100045547</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>15</v>
       </c>
@@ -13133,7 +13988,7 @@
         <v>125799.45099998731</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>18</v>
       </c>
@@ -13150,7 +14005,7 @@
         <v>125898.48300029989</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>15</v>
       </c>
@@ -13167,7 +14022,7 @@
         <v>125979.51300046407</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>15</v>
       </c>
@@ -13184,7 +14039,7 @@
         <v>126191.60299999639</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>15</v>
       </c>
@@ -13201,7 +14056,7 @@
         <v>126401.67999998666</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>5</v>
       </c>
@@ -13218,7 +14073,7 @@
         <v>126595.76799999923</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>15</v>
       </c>
@@ -13235,7 +14090,7 @@
         <v>126855.89200020768</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>15</v>
       </c>
@@ -13252,7 +14107,7 @@
         <v>127075.97000019159</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>5</v>
       </c>
@@ -13269,7 +14124,7 @@
         <v>127154.98700018506</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>15</v>
       </c>
@@ -13286,7 +14141,7 @@
         <v>127256.06300029904</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>18</v>
       </c>
@@ -13303,7 +14158,7 @@
         <v>127499.15100045037</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>5</v>
       </c>
@@ -13320,7 +14175,7 @@
         <v>127675.2200005576</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>18</v>
       </c>
@@ -13337,7 +14192,7 @@
         <v>128005.578000471</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>15</v>
       </c>
@@ -13354,7 +14209,7 @@
         <v>128022.38000021316</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>5</v>
       </c>
@@ -13371,7 +14226,7 @@
         <v>128109.43100033328</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>15</v>
       </c>
@@ -13388,7 +14243,7 @@
         <v>128481.55200043693</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>18</v>
       </c>
@@ -13405,7 +14260,7 @@
         <v>128745.90500041377</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>15</v>
       </c>
@@ -13422,7 +14277,7 @@
         <v>128763.67400041781</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>18</v>
       </c>
@@ -13439,7 +14294,7 @@
         <v>128891.75500015263</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>15</v>
       </c>
@@ -13456,7 +14311,7 @@
         <v>129028.80600001663</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>15</v>
       </c>
@@ -13473,7 +14328,7 @@
         <v>129297.91600056924</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>15</v>
       </c>
@@ -13490,7 +14345,7 @@
         <v>129642.08100037649</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>15</v>
       </c>
@@ -13507,7 +14362,7 @@
         <v>129830.16200030688</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>18</v>
       </c>
@@ -13524,7 +14379,7 @@
         <v>130238.35200048052</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>15</v>
       </c>
@@ -13541,7 +14396,7 @@
         <v>130433.40600058436</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>15</v>
       </c>
@@ -13558,7 +14413,7 @@
         <v>130671.51800051797</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>15</v>
       </c>
@@ -13575,7 +14430,7 @@
         <v>130878.61600024626</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>15</v>
       </c>
@@ -13592,7 +14447,7 @@
         <v>131031.89200011548</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>18</v>
       </c>
@@ -13609,7 +14464,7 @@
         <v>131305.80700000282</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>5</v>
       </c>
@@ -13626,7 +14481,7 @@
         <v>132141.344000143</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>5</v>
       </c>
@@ -13643,7 +14498,7 @@
         <v>132452.26400010288</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>18</v>
       </c>
@@ -13660,7 +14515,7 @@
         <v>132694.38499999233</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>18</v>
       </c>
@@ -13677,7 +14532,7 @@
         <v>132855.46100030188</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>5</v>
       </c>
@@ -13694,7 +14549,7 @@
         <v>133061.54500055127</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>15</v>
       </c>
@@ -13711,7 +14566,7 @@
         <v>133789.87500008661</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>15</v>
       </c>
@@ -13728,7 +14583,7 @@
         <v>133984.96099999174</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>5</v>
       </c>
@@ -13745,7 +14600,7 @@
         <v>134324.10200019367</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>18</v>
       </c>
@@ -13762,7 +14617,7 @@
         <v>134391.15300003905</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>5</v>
       </c>
@@ -13779,7 +14634,7 @@
         <v>134496.20800002012</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>15</v>
       </c>
@@ -13796,7 +14651,7 @@
         <v>134558.23600043077</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>18</v>
       </c>
@@ -13813,7 +14668,7 @@
         <v>134715.28700056951</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>15</v>
       </c>
@@ -13830,7 +14685,7 @@
         <v>134880.37300037686</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
         <v>18</v>
       </c>
@@ -13847,7 +14702,7 @@
         <v>135301.77600032184</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>18</v>
       </c>
@@ -13864,7 +14719,7 @@
         <v>135530.85500006564</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>15</v>
       </c>
@@ -13881,7 +14736,7 @@
         <v>135725.75300058816</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
         <v>15</v>
       </c>
@@ -13898,7 +14753,7 @@
         <v>136042.88200051524</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>5</v>
       </c>
@@ -13915,7 +14770,7 @@
         <v>136216.95400003809</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>5</v>
       </c>
@@ -13932,7 +14787,7 @@
         <v>136395.0500001898</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>18</v>
       </c>
@@ -13949,7 +14804,7 @@
         <v>136464.08300057519</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>15</v>
       </c>
@@ -13966,7 +14821,7 @@
         <v>136544.11400004756</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>18</v>
       </c>
@@ -13983,7 +14838,7 @@
         <v>137060.52500030492</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>5</v>
       </c>
@@ -14000,7 +14855,7 @@
         <v>137406.46900059655</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>5</v>
       </c>
@@ -14017,7 +14872,7 @@
         <v>137611.5700003691</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>15</v>
       </c>
@@ -14034,7 +14889,7 @@
         <v>137666.57700059004</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>18</v>
       </c>
@@ -14051,7 +14906,7 @@
         <v>137690.60200040694</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>18</v>
       </c>
@@ -14068,7 +14923,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
         <v>5</v>
       </c>
@@ -14085,7 +14940,7 @@
         <v>138054.9540003296</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
         <v>15</v>
       </c>
@@ -14102,7 +14957,7 @@
         <v>138217.84000012558</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>18</v>
       </c>
@@ -14119,7 +14974,7 @@
         <v>138515.00000003725</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
         <v>5</v>
       </c>
@@ -14136,7 +14991,7 @@
         <v>138650.06100051105</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
         <v>339</v>
       </c>
@@ -14153,7 +15008,7 @@
         <v>139377.35000036191</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
         <v>5</v>
       </c>
@@ -14170,7 +15025,7 @@
         <v>139768.4720000485</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +15042,7 @@
         <v>140050.60900007375</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
         <v>18</v>
       </c>
@@ -14204,7 +15059,7 @@
         <v>140201.68500056025</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
         <v>5</v>
       </c>
@@ -14221,7 +15076,7 @@
         <v>140449.76600005757</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
         <v>18</v>
       </c>
@@ -14238,7 +15093,7 @@
         <v>140597.8310004808</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
         <v>18</v>
       </c>
@@ -14255,7 +15110,7 @@
         <v>140879.96800050605</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
         <v>15</v>
       </c>
@@ -14272,7 +15127,7 @@
         <v>141071.06000049971</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
         <v>15</v>
       </c>
@@ -14289,7 +15144,7 @@
         <v>141286.17700031027</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
         <v>15</v>
       </c>
@@ -14306,7 +15161,7 @@
         <v>141500.24800021201</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
         <v>5</v>
       </c>
@@ -14323,7 +15178,7 @@
         <v>141543.25900019612</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
         <v>18</v>
       </c>
@@ -14340,7 +15195,7 @@
         <v>141925.6300000241</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
         <v>5</v>
       </c>
@@ -14357,7 +15212,7 @@
         <v>142053.4770000726</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
         <v>15</v>
       </c>
@@ -14374,7 +15229,7 @@
         <v>142121.51100039482</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
         <v>15</v>
       </c>
@@ -14391,7 +15246,7 @@
         <v>142421.6660001548</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
         <v>18</v>
       </c>
@@ -14408,7 +15263,7 @@
         <v>142876.7980001634</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
         <v>15</v>
       </c>
@@ -14425,7 +15280,7 @@
         <v>142910.80700021703</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
         <v>5</v>
       </c>
@@ -14442,7 +15297,7 @@
         <v>143091.88400034327</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>18</v>
       </c>
@@ -14459,7 +15314,7 @@
         <v>143315.78100055922</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
         <v>5</v>
       </c>
@@ -14476,7 +15331,7 @@
         <v>143446.76399999298</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
         <v>18</v>
       </c>
@@ -14493,7 +15348,7 @@
         <v>143590.63299999107</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>15</v>
       </c>
@@ -14510,7 +15365,7 @@
         <v>143914.76600035094</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
         <v>5</v>
       </c>
@@ -14527,7 +15382,7 @@
         <v>143965.00000040978</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
         <v>18</v>
       </c>
@@ -14544,7 +15399,7 @@
         <v>144333.93900019582</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
         <v>15</v>
       </c>
@@ -14561,7 +15416,7 @@
         <v>144511.00600019563</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
         <v>18</v>
       </c>
@@ -14578,7 +15433,7 @@
         <v>144909.19500037562</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
         <v>15</v>
       </c>
@@ -14595,7 +15450,7 @@
         <v>144957.43200047873</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
         <v>5</v>
       </c>
@@ -14612,7 +15467,7 @@
         <v>145209.3510003062</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
         <v>15</v>
       </c>
@@ -14629,7 +15484,7 @@
         <v>145243.36000035983</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
         <v>5</v>
       </c>
@@ -14646,7 +15501,7 @@
         <v>145524.49900049251</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
         <v>15</v>
       </c>
@@ -14663,7 +15518,7 @@
         <v>145583.73400031123</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
         <v>15</v>
       </c>
@@ -14680,7 +15535,7 @@
         <v>145743.60900004394</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
         <v>5</v>
       </c>
@@ -14697,7 +15552,7 @@
         <v>145915.66800002474</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
         <v>15</v>
       </c>
@@ -14714,7 +15569,7 @@
         <v>146100.73800052051</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
         <v>18</v>
       </c>
@@ -14731,7 +15586,7 @@
         <v>146193.99800060783</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
         <v>15</v>
       </c>
@@ -14748,7 +15603,7 @@
         <v>146605.96300042234</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
         <v>18</v>
       </c>
@@ -14765,7 +15620,7 @@
         <v>147022.14100041892</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
         <v>5</v>
       </c>
@@ -14782,7 +15637,7 @@
         <v>147022.20300030895</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
         <v>15</v>
       </c>
@@ -14799,7 +15654,7 @@
         <v>147086.16600015666</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
         <v>15</v>
       </c>
@@ -14816,7 +15671,7 @@
         <v>147465.32300049439</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>5</v>
       </c>
@@ -14833,7 +15688,7 @@
         <v>147517.33500023838</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>15</v>
       </c>
@@ -14850,7 +15705,7 @@
         <v>147675.61900012661</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
         <v>15</v>
       </c>
@@ -14867,7 +15722,7 @@
         <v>148021.54600003269</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
         <v>15</v>
       </c>
@@ -14884,7 +15739,7 @@
         <v>148221.65500000119</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>5</v>
       </c>
@@ -14901,7 +15756,7 @@
         <v>148536.77200055681</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
         <v>15</v>
       </c>
@@ -14918,7 +15773,7 @@
         <v>148598.02000054624</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
         <v>18</v>
       </c>
@@ -14935,7 +15790,7 @@
         <v>148636.02300051134</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
         <v>5</v>
       </c>
@@ -14952,7 +15807,7 @@
         <v>148796.91200035159</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
         <v>5</v>
       </c>
@@ -14969,7 +15824,7 @@
         <v>149081.2480002176</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
         <v>18</v>
       </c>
@@ -14986,7 +15841,7 @@
         <v>149207.09800031036</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
         <v>18</v>
       </c>
@@ -15003,7 +15858,7 @@
         <v>149688.54800029658</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
         <v>15</v>
       </c>
@@ -15020,7 +15875,7 @@
         <v>149907.45600059163</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
         <v>15</v>
       </c>
@@ -15037,7 +15892,7 @@
         <v>150247.61200044304</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
         <v>5</v>
       </c>
@@ -15054,7 +15909,7 @@
         <v>150337.67399999779</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
         <v>15</v>
       </c>
@@ -15071,7 +15926,7 @@
         <v>150724.10100025591</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
         <v>5</v>
       </c>
@@ -15088,7 +15943,7 @@
         <v>150767.89200003259</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
         <v>15</v>
       </c>
@@ -15105,7 +15960,7 @@
         <v>150855.94100004528</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
         <v>5</v>
       </c>
@@ -15122,7 +15977,7 @@
         <v>151032.02500019688</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
         <v>18</v>
       </c>
@@ -15139,7 +15994,7 @@
         <v>151210.09100025985</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
         <v>5</v>
       </c>
@@ -15156,7 +16011,7 @@
         <v>151368.1710005505</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
         <v>18</v>
       </c>
@@ -15173,7 +16028,7 @@
         <v>151669.32500037365</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
         <v>5</v>
       </c>
@@ -15190,7 +16045,7 @@
         <v>151934.44200055674</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
         <v>15</v>
       </c>
@@ -15207,7 +16062,7 @@
         <v>151962.46100028511</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
         <v>5</v>
       </c>
@@ -15224,7 +16079,7 @@
         <v>152182.57000052836</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>5</v>
       </c>
@@ -15241,7 +16096,7 @@
         <v>152569.74500014912</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
         <v>18</v>
       </c>
@@ -15258,7 +16113,7 @@
         <v>152686.79700053763</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
         <v>15</v>
       </c>
@@ -15275,7 +16130,7 @@
         <v>152795.82900004461</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
         <v>18</v>
       </c>
@@ -15292,7 +16147,7 @@
         <v>152971.13300040364</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
         <v>15</v>
       </c>
@@ -15309,7 +16164,7 @@
         <v>153128.99600013625</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
         <v>15</v>
       </c>
@@ -15326,7 +16181,7 @@
         <v>153503.14500045497</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
         <v>5</v>
       </c>
@@ -15343,7 +16198,7 @@
         <v>153661.22600028757</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
         <v>15</v>
       </c>
@@ -15360,7 +16215,7 @@
         <v>153682.42700051051</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>15</v>
       </c>
@@ -15377,7 +16232,7 @@
         <v>154054.40799999051</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
         <v>15</v>
       </c>
@@ -15394,7 +16249,7 @@
         <v>154222.4880001042</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
         <v>18</v>
       </c>
@@ -15411,7 +16266,7 @@
         <v>154357.52700059675</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
         <v>18</v>
       </c>
@@ -15428,7 +16283,7 @@
         <v>154522.59700018913</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>15</v>
       </c>
@@ -15445,7 +16300,7 @@
         <v>154583.62700007856</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
         <v>5</v>
       </c>
@@ -15462,7 +16317,7 @@
         <v>154693.68900053669</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>18</v>
       </c>
@@ -15479,7 +16334,7 @@
         <v>154750.70900029968</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
         <v>15</v>
       </c>
@@ -15496,7 +16351,7 @@
         <v>154818.72800057754</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
         <v>5</v>
       </c>
@@ -15513,7 +16368,7 @@
         <v>154989.81900012586</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>15</v>
       </c>
@@ -15530,7 +16385,7 @@
         <v>155646.15200031549</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
         <v>15</v>
       </c>
@@ -15547,7 +16402,7 @@
         <v>156015.32500041649</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
         <v>18</v>
       </c>
@@ -15564,7 +16419,7 @@
         <v>156035.34100027755</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>15</v>
       </c>
@@ -15581,7 +16436,7 @@
         <v>156236.65100019425</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
         <v>18</v>
       </c>
@@ -15598,7 +16453,7 @@
         <v>156348.49100033753</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
         <v>5</v>
       </c>
@@ -15615,7 +16470,7 @@
         <v>156443.60800038557</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
         <v>18</v>
       </c>
@@ -15632,7 +16487,7 @@
         <v>156494.56000034697</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>15</v>
       </c>
@@ -15649,7 +16504,7 @@
         <v>156850.73700060602</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
         <v>5</v>
       </c>
@@ -15666,7 +16521,7 @@
         <v>156863.95100054797</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
         <v>5</v>
       </c>
@@ -15683,7 +16538,7 @@
         <v>157207.88200004026</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
         <v>15</v>
       </c>
@@ -15700,7 +16555,7 @@
         <v>157559.05100028031</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
         <v>18</v>
       </c>
@@ -15717,7 +16572,7 @@
         <v>157593.0760005489</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
         <v>5</v>
       </c>
@@ -15734,7 +16589,7 @@
         <v>157687.16300027445</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>15</v>
       </c>
@@ -15751,7 +16606,7 @@
         <v>157771.17200007197</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
         <v>18</v>
       </c>
@@ -15768,7 +16623,7 @@
         <v>157913.2630003849</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
         <v>5</v>
       </c>
@@ -15785,7 +16640,7 @@
         <v>158058.33300033119</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
         <v>18</v>
       </c>
@@ -15802,7 +16657,7 @@
         <v>158395.46200053301</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
         <v>5</v>
       </c>
@@ -15819,7 +16674,7 @@
         <v>158519.51800009701</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
         <v>15</v>
       </c>
@@ -15836,7 +16691,7 @@
         <v>158728.61200023908</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>5</v>
       </c>
@@ -15853,7 +16708,7 @@
         <v>158889.70400013495</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
         <v>5</v>
       </c>
@@ -15870,7 +16725,7 @@
         <v>159170.81100046635</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
         <v>15</v>
       </c>
@@ -15887,7 +16742,7 @@
         <v>159360.90500056744</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
         <v>5</v>
       </c>
@@ -15904,7 +16759,7 @@
         <v>159533.02600043826</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
         <v>15</v>
       </c>
@@ -15921,7 +16776,7 @@
         <v>159720.31100036111</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
         <v>18</v>
       </c>
@@ -15938,7 +16793,7 @@
         <v>159802.13700053282</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
         <v>5</v>
       </c>
@@ -15955,7 +16810,7 @@
         <v>159885.19400011282</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
         <v>5</v>
       </c>
@@ -15972,7 +16827,7 @@
         <v>160246.34800013155</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
         <v>15</v>
       </c>
@@ -15989,7 +16844,7 @@
         <v>160518.48500033375</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +16861,7 @@
         <v>160532.49400011264</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
         <v>5</v>
       </c>
@@ -16023,7 +16878,7 @@
         <v>160883.66400052328</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
         <v>18</v>
       </c>
@@ -16040,7 +16895,7 @@
         <v>161028.74900051393</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
         <v>5</v>
       </c>
@@ -16057,7 +16912,7 @@
         <v>161176.81500047911</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
         <v>15</v>
       </c>
@@ -16074,7 +16929,7 @@
         <v>161330.09100034833</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
         <v>18</v>
       </c>
@@ -16091,7 +16946,7 @@
         <v>161416.14300040528</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>5</v>
       </c>
@@ -16108,7 +16963,7 @@
         <v>161743.10100052971</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>18</v>
       </c>
@@ -16125,7 +16980,7 @@
         <v>162189.32500029914</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
         <v>5</v>
       </c>
@@ -16142,7 +16997,7 @@
         <v>162226.34500041604</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>15</v>
       </c>
@@ -16159,7 +17014,7 @@
         <v>162401.41500046011</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
         <v>5</v>
       </c>
@@ -16176,7 +17031,7 @@
         <v>162500.46300035901</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
         <v>18</v>
       </c>
@@ -16193,7 +17048,7 @@
         <v>162680.55600046646</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
         <v>5</v>
       </c>
@@ -16210,7 +17065,7 @@
         <v>162689.5740006119</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
         <v>15</v>
       </c>
@@ -16227,7 +17082,7 @@
         <v>162867.63900050428</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
         <v>5</v>
       </c>
@@ -16244,7 +17099,7 @@
         <v>163028.71500018518</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
         <v>5</v>
       </c>
@@ -16261,7 +17116,7 @@
         <v>163422.88000036497</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
         <v>15</v>
       </c>
@@ -16278,7 +17133,7 @@
         <v>163741.28800034523</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
         <v>5</v>
       </c>
@@ -16295,7 +17150,7 @@
         <v>163930.11800043751</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
         <v>15</v>
       </c>
@@ -16312,7 +17167,7 @@
         <v>164284.56300005782</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
         <v>18</v>
       </c>
@@ -16329,7 +17184,7 @@
         <v>164460.41300052311</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
         <v>15</v>
       </c>
@@ -16346,7 +17201,7 @@
         <v>164498.41600048821</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
         <v>5</v>
       </c>
@@ -16363,7 +17218,7 @@
         <v>164610.71000013035</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
         <v>15</v>
       </c>
@@ -16380,7 +17235,7 @@
         <v>164716.54400036205</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
         <v>5</v>
       </c>
@@ -16397,7 +17252,7 @@
         <v>164854.60900033358</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
         <v>15</v>
       </c>
@@ -16414,7 +17269,7 @@
         <v>165079.69500033651</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
         <v>18</v>
       </c>
@@ -16431,7 +17286,7 @@
         <v>165221.97200031951</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
         <v>18</v>
       </c>
@@ -16448,7 +17303,7 @@
         <v>165556.90200005192</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>5</v>
       </c>
@@ -16465,7 +17320,7 @@
         <v>165649.95900008362</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
         <v>15</v>
       </c>
@@ -16482,7 +17337,7 @@
         <v>165870.08400054183</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
         <v>18</v>
       </c>
@@ -16499,7 +17354,7 @@
         <v>165899.08500057645</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
         <v>5</v>
       </c>
@@ -16516,7 +17371,7 @@
         <v>165920.09900033008</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
         <v>15</v>
       </c>
@@ -16533,7 +17388,7 @@
         <v>166138.22700020391</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
         <v>5</v>
       </c>
@@ -16550,7 +17405,7 @@
         <v>166306.32300053257</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
         <v>15</v>
       </c>
@@ -16567,7 +17422,7 @@
         <v>166530.62900011428</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
         <v>5</v>
       </c>
@@ -16584,7 +17439,7 @@
         <v>166698.49100012798</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
         <v>18</v>
       </c>
@@ -16601,7 +17456,7 @@
         <v>167122.68700003624</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
         <v>18</v>
       </c>
@@ -16618,7 +17473,7 @@
         <v>167269.76900061127</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
         <v>15</v>
       </c>
@@ -16635,7 +17490,7 @@
         <v>167525.88400023524</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
         <v>18</v>
       </c>
@@ -16652,7 +17507,7 @@
         <v>167667.95900033321</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
         <v>5</v>
       </c>
@@ -16669,7 +17524,7 @@
         <v>167808.02100026049</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
         <v>18</v>
       </c>
@@ -16686,7 +17541,7 @@
         <v>167874.04300058261</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
         <v>5</v>
       </c>
@@ -16703,7 +17558,7 @@
         <v>168064.1360005131</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
         <v>15</v>
       </c>
@@ -16720,7 +17575,7 @@
         <v>168287.25600019097</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
         <v>18</v>
       </c>
@@ -16737,7 +17592,7 @@
         <v>168430.32900018152</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
         <v>15</v>
       </c>
@@ -16754,7 +17609,7 @@
         <v>168619.40800000448</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
         <v>5</v>
       </c>
@@ -16771,7 +17626,7 @@
         <v>169005.58600053191</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
         <v>15</v>
       </c>
@@ -16788,7 +17643,7 @@
         <v>169007.58300048765</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
         <v>15</v>
       </c>
@@ -16805,7 +17660,7 @@
         <v>169399.7500005411</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
         <v>15</v>
       </c>
@@ -16822,7 +17677,7 @@
         <v>169615.07000040729</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
         <v>15</v>
       </c>
@@ -16839,7 +17694,7 @@
         <v>169836.95700033568</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
         <v>18</v>
       </c>
@@ -16856,7 +17711,7 @@
         <v>169973.01000030711</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
         <v>15</v>
       </c>
@@ -16873,7 +17728,7 @@
         <v>170130.07700003218</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
         <v>18</v>
       </c>
@@ -16890,7 +17745,7 @@
         <v>170309.17200024705</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
         <v>5</v>
       </c>
@@ -16907,7 +17762,7 @@
         <v>170476.23900042381</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
         <v>15</v>
       </c>
@@ -16924,7 +17779,7 @@
         <v>170507.25300000049</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
         <v>15</v>
       </c>
@@ -16941,7 +17796,7 @@
         <v>170803.38300021831</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
         <v>131</v>
       </c>
@@ -16958,7 +17813,7 @@
         <v>170868.40700001922</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
         <v>15</v>
       </c>
@@ -16975,7 +17830,7 @@
         <v>170982.47800043318</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
         <v>5</v>
       </c>
@@ -16992,7 +17847,7 @@
         <v>171133.53900024667</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
         <v>15</v>
       </c>
@@ -17009,7 +17864,7 @@
         <v>171503.62000060268</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
         <v>5</v>
       </c>
@@ -17026,7 +17881,7 @@
         <v>171671.50100008585</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
         <v>15</v>
       </c>
@@ -17043,7 +17898,7 @@
         <v>171843.45900043845</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
         <v>15</v>
       </c>
@@ -17060,7 +17915,7 @@
         <v>172006.47800029255</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>5</v>
       </c>
@@ -17077,7 +17932,7 @@
         <v>172171.50300038047</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>15</v>
       </c>
@@ -17094,7 +17949,7 @@
         <v>172343.56900029816</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>18</v>
       </c>
@@ -17111,7 +17966,7 @@
         <v>172415.59300047811</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>5</v>
       </c>
@@ -17128,7 +17983,7 @@
         <v>172512.64000036754</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>18</v>
       </c>
